--- a/CSDLGia_ASP/wwwroot/UpLoad/File/DinhGia/Excel/FileExcelGiarung.xlsx
+++ b/CSDLGia_ASP/wwwroot/UpLoad/File/DinhGia/Excel/FileExcelGiarung.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\CSDLGia_ASP\CSDLGia_ASP\wwwroot\UpLoad\File\DinhGia\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B4961B95-47C2-4F3F-8E9C-15AB7574F86B}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5C10774E-2C76-4241-BB0A-07DFF771A9FE}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="780" yWindow="780" windowWidth="21600" windowHeight="11310" xr2:uid="{6AF4210B-D7D1-451E-A048-5B80F2CEA5CC}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{6AF4210B-D7D1-451E-A048-5B80F2CEA5CC}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,46 +25,46 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="11">
   <si>
     <t>Phân loại</t>
   </si>
   <si>
-    <t>Giá</t>
-  </si>
-  <si>
-    <t>Đơn vị</t>
+    <t>Mã nhóm</t>
+  </si>
+  <si>
+    <t>Đơn vị thuê</t>
+  </si>
+  <si>
+    <t>Nội dung</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Diện tích </t>
+  </si>
+  <si>
+    <t>Diện tích sử dụng</t>
+  </si>
+  <si>
+    <t>Đơn vị tính</t>
+  </si>
+  <si>
+    <t>Giá trị</t>
   </si>
   <si>
     <t>m2</t>
   </si>
   <si>
-    <t>Mã nhóm</t>
-  </si>
-  <si>
-    <t>Nhà có khu phụ</t>
-  </si>
-  <si>
-    <t>Nhà không có khu phụ</t>
-  </si>
-  <si>
-    <t>Nhà khác</t>
-  </si>
-  <si>
-    <t>Tên nhóm</t>
-  </si>
-  <si>
-    <t>Nhà 1 tầng, tường 111</t>
-  </si>
-  <si>
-    <t>Nhà 1 tầng, tường 200</t>
+    <t>Thuê môi trường</t>
+  </si>
+  <si>
+    <t>RĐD</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -72,12 +72,6 @@
       <family val="2"/>
       <charset val="163"/>
       <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <color rgb="FF3F4254"/>
-      <name val="Arial"/>
-      <family val="2"/>
     </font>
     <font>
       <sz val="8"/>
@@ -116,9 +110,15 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="1" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -433,143 +433,377 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DD0BC2B6-4560-4170-B0EA-9A729F87B874}">
-  <dimension ref="A1:E11"/>
+  <dimension ref="A1:H77"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C8" sqref="C8"/>
+      <selection activeCell="K16" sqref="K16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="25.28515625" style="1" customWidth="1"/>
     <col min="2" max="2" width="24.5703125" style="1" customWidth="1"/>
-    <col min="3" max="3" width="24.5703125" customWidth="1"/>
-    <col min="4" max="4" width="25.7109375" customWidth="1"/>
-    <col min="5" max="5" width="38.42578125" customWidth="1"/>
-    <col min="6" max="6" width="16.28515625" customWidth="1"/>
-    <col min="7" max="7" width="19.140625" customWidth="1"/>
-    <col min="8" max="8" width="27.140625" customWidth="1"/>
+    <col min="3" max="3" width="25.7109375" customWidth="1"/>
+    <col min="4" max="4" width="38.42578125" customWidth="1"/>
+    <col min="5" max="5" width="16.28515625" customWidth="1"/>
+    <col min="6" max="6" width="19.140625" customWidth="1"/>
+    <col min="7" max="7" width="27.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="F1" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" s="3" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A2" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="B2" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="C2" s="6">
+        <v>4</v>
+      </c>
+      <c r="D2" s="6">
+        <v>5</v>
+      </c>
+      <c r="E2" s="6">
+        <v>1</v>
+      </c>
+      <c r="F2" s="6">
+        <v>1</v>
+      </c>
+      <c r="G2" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="C1" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="D1" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="E1" s="3" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A2" s="4">
-        <v>231130563414</v>
-      </c>
-      <c r="B2" s="6" t="s">
-        <v>9</v>
-      </c>
-      <c r="C2" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="D2" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="E2" s="1">
-        <v>5000000</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A3" s="4">
-        <v>231130563414</v>
-      </c>
-      <c r="B3" s="6" t="s">
-        <v>9</v>
-      </c>
-      <c r="C3" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="D3" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="E3" s="1">
-        <v>6000000</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A4" s="4">
-        <v>231130224114</v>
-      </c>
-      <c r="B4" s="6" t="s">
+      <c r="H2" s="6">
         <v>10</v>
       </c>
-      <c r="C4" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="D4" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="E4" s="1">
-        <v>6000000</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A5" s="4">
-        <v>231130224114</v>
-      </c>
-      <c r="B5" s="6" t="s">
-        <v>10</v>
-      </c>
-      <c r="C5" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="D5" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="E5" s="1">
-        <v>7000000</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A6" s="4">
-        <v>231130224114</v>
-      </c>
-      <c r="B6" s="6" t="s">
-        <v>10</v>
-      </c>
-      <c r="C6" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="D6" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="E6" s="1">
-        <v>5000000</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A7" s="5"/>
-    </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A8" s="5"/>
-    </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A9" s="5"/>
-    </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A10" s="5"/>
-    </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A11" s="5"/>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A3"/>
+      <c r="B3"/>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A4"/>
+      <c r="B4"/>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A5"/>
+      <c r="B5"/>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A6"/>
+      <c r="B6"/>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A7"/>
+      <c r="B7"/>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A8"/>
+      <c r="B8"/>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A9"/>
+      <c r="B9"/>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A10"/>
+      <c r="B10"/>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A11"/>
+      <c r="B11"/>
+    </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A12"/>
+      <c r="B12"/>
+    </row>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A13"/>
+      <c r="B13"/>
+    </row>
+    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A14"/>
+      <c r="B14"/>
+    </row>
+    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A15"/>
+      <c r="B15"/>
+    </row>
+    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A16"/>
+      <c r="B16"/>
+    </row>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A17"/>
+      <c r="B17"/>
+    </row>
+    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A18"/>
+      <c r="B18"/>
+    </row>
+    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A19"/>
+      <c r="B19"/>
+    </row>
+    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A20"/>
+      <c r="B20"/>
+    </row>
+    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A21"/>
+      <c r="B21"/>
+    </row>
+    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A22"/>
+      <c r="B22"/>
+    </row>
+    <row r="23" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A23"/>
+      <c r="B23"/>
+    </row>
+    <row r="24" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A24"/>
+      <c r="B24"/>
+    </row>
+    <row r="25" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A25"/>
+      <c r="B25"/>
+    </row>
+    <row r="26" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A26"/>
+      <c r="B26"/>
+    </row>
+    <row r="27" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A27"/>
+      <c r="B27"/>
+    </row>
+    <row r="28" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A28"/>
+      <c r="B28"/>
+    </row>
+    <row r="29" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A29"/>
+      <c r="B29"/>
+    </row>
+    <row r="30" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A30"/>
+      <c r="B30"/>
+    </row>
+    <row r="31" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A31"/>
+      <c r="B31"/>
+    </row>
+    <row r="32" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A32"/>
+      <c r="B32"/>
+    </row>
+    <row r="33" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A33"/>
+      <c r="B33"/>
+    </row>
+    <row r="34" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A34"/>
+      <c r="B34"/>
+    </row>
+    <row r="35" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A35"/>
+      <c r="B35"/>
+    </row>
+    <row r="36" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A36"/>
+      <c r="B36"/>
+    </row>
+    <row r="37" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A37"/>
+      <c r="B37"/>
+    </row>
+    <row r="38" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A38"/>
+      <c r="B38"/>
+    </row>
+    <row r="39" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A39"/>
+      <c r="B39"/>
+    </row>
+    <row r="40" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A40"/>
+      <c r="B40"/>
+    </row>
+    <row r="41" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A41"/>
+      <c r="B41"/>
+    </row>
+    <row r="42" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A42"/>
+      <c r="B42"/>
+    </row>
+    <row r="43" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A43"/>
+      <c r="B43"/>
+    </row>
+    <row r="44" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A44"/>
+      <c r="B44"/>
+    </row>
+    <row r="45" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A45"/>
+      <c r="B45"/>
+    </row>
+    <row r="46" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A46"/>
+      <c r="B46"/>
+    </row>
+    <row r="47" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A47"/>
+      <c r="B47"/>
+    </row>
+    <row r="48" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A48"/>
+      <c r="B48"/>
+    </row>
+    <row r="49" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A49"/>
+      <c r="B49"/>
+    </row>
+    <row r="50" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A50"/>
+      <c r="B50"/>
+    </row>
+    <row r="51" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A51"/>
+      <c r="B51"/>
+    </row>
+    <row r="52" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A52"/>
+      <c r="B52"/>
+    </row>
+    <row r="53" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A53"/>
+      <c r="B53"/>
+    </row>
+    <row r="54" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A54"/>
+      <c r="B54"/>
+    </row>
+    <row r="55" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A55"/>
+      <c r="B55"/>
+    </row>
+    <row r="56" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A56"/>
+      <c r="B56"/>
+    </row>
+    <row r="57" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A57"/>
+      <c r="B57"/>
+    </row>
+    <row r="58" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A58"/>
+      <c r="B58"/>
+    </row>
+    <row r="59" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A59"/>
+      <c r="B59"/>
+    </row>
+    <row r="60" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A60"/>
+      <c r="B60"/>
+    </row>
+    <row r="61" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A61"/>
+      <c r="B61"/>
+    </row>
+    <row r="62" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A62"/>
+      <c r="B62"/>
+    </row>
+    <row r="63" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A63"/>
+      <c r="B63"/>
+    </row>
+    <row r="64" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A64"/>
+      <c r="B64"/>
+    </row>
+    <row r="65" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A65"/>
+      <c r="B65"/>
+    </row>
+    <row r="66" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A66"/>
+      <c r="B66"/>
+    </row>
+    <row r="67" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A67"/>
+      <c r="B67"/>
+    </row>
+    <row r="68" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A68"/>
+      <c r="B68"/>
+    </row>
+    <row r="69" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A69"/>
+      <c r="B69"/>
+    </row>
+    <row r="70" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A70"/>
+      <c r="B70"/>
+    </row>
+    <row r="71" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A71"/>
+      <c r="B71"/>
+    </row>
+    <row r="72" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A72"/>
+      <c r="B72"/>
+    </row>
+    <row r="73" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A73"/>
+      <c r="B73"/>
+    </row>
+    <row r="74" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A74"/>
+      <c r="B74"/>
+    </row>
+    <row r="75" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A75"/>
+      <c r="B75"/>
+    </row>
+    <row r="76" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A76"/>
+      <c r="B76"/>
+    </row>
+    <row r="77" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A77"/>
+      <c r="B77"/>
     </row>
   </sheetData>
-  <phoneticPr fontId="2" type="noConversion"/>
+  <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>

--- a/CSDLGia_ASP/wwwroot/UpLoad/File/DinhGia/Excel/FileExcelGiarung.xlsx
+++ b/CSDLGia_ASP/wwwroot/UpLoad/File/DinhGia/Excel/FileExcelGiarung.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Admin\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\AspNetCore\net5\CSDLGia\CSDLGia_ASP\wwwroot\UpLoad\File\DinhGia\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D7ACF735-1A71-4746-84C6-C33DB4B3C67B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{27EDD63A-E534-4806-9D3F-0762561D56AD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="720" windowWidth="28800" windowHeight="15480" xr2:uid="{5CBFBA6C-0A47-4627-8E57-E325A967AA8F}"/>
+    <workbookView xWindow="28680" yWindow="0" windowWidth="29040" windowHeight="15840" xr2:uid="{5CBFBA6C-0A47-4627-8E57-E325A967AA8F}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -20,69 +20,925 @@
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
-      </xcalcf:calcFeatures>
-    </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="13">
-  <si>
-    <t>Stt</t>
-  </si>
-  <si>
-    <t>phanloai</t>
-  </si>
-  <si>
-    <t>manhom</t>
-  </si>
-  <si>
-    <t>dvthue</t>
-  </si>
-  <si>
-    <t>noidung</t>
-  </si>
-  <si>
-    <t>dientich</t>
-  </si>
-  <si>
-    <t>dientichsd</t>
-  </si>
-  <si>
-    <t>dvt</t>
-  </si>
-  <si>
-    <t>giatri</t>
-  </si>
-  <si>
-    <t>giá rừng</t>
-  </si>
-  <si>
-    <t>abc</t>
-  </si>
-  <si>
-    <t>RĐD</t>
-  </si>
-  <si>
-    <t>đồng</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="439" uniqueCount="281">
+  <si>
+    <t>GIÁ RỪNG</t>
+  </si>
+  <si>
+    <t>TT</t>
+  </si>
+  <si>
+    <t>Mô tả</t>
+  </si>
+  <si>
+    <t>Đăc dụng</t>
+  </si>
+  <si>
+    <t>Tối thiểu</t>
+  </si>
+  <si>
+    <t>Tối đa</t>
+  </si>
+  <si>
+    <t>Phòng hộ</t>
+  </si>
+  <si>
+    <t>Sản xuất</t>
+  </si>
+  <si>
+    <t>Giá cho thuê quyền sử dụng rừng/năm</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Giá rừng </t>
+  </si>
+  <si>
+    <t>Giá bồi thường thiệt hại đối với rừng</t>
+  </si>
+  <si>
+    <t>Đặc dụng</t>
+  </si>
+  <si>
+    <t>TXG</t>
+  </si>
+  <si>
+    <t>Rừng TNTS gỗ núi đất LRTX giàu (M&gt;200 m3/ha)</t>
+  </si>
+  <si>
+    <t>974,99</t>
+  </si>
+  <si>
+    <t>Mã nhóm (lấy trong Danh mục chương trình)</t>
+  </si>
+  <si>
+    <t>RTN</t>
+  </si>
+  <si>
+    <t>Loài Keo lá tràm</t>
+  </si>
+  <si>
+    <t>-</t>
+  </si>
+  <si>
+    <t>+</t>
+  </si>
+  <si>
+    <t>Năm thứ 1</t>
+  </si>
+  <si>
+    <t>20,72</t>
+  </si>
+  <si>
+    <t>34,82</t>
+  </si>
+  <si>
+    <t>7,33</t>
+  </si>
+  <si>
+    <t>62,16</t>
+  </si>
+  <si>
+    <t>104,47</t>
+  </si>
+  <si>
+    <t>41,44</t>
+  </si>
+  <si>
+    <t>69,65</t>
+  </si>
+  <si>
+    <t>.34,82</t>
+  </si>
+  <si>
+    <t>Năm thứ 2</t>
+  </si>
+  <si>
+    <t>30,78</t>
+  </si>
+  <si>
+    <t>50,69</t>
+  </si>
+  <si>
+    <t>9,77</t>
+  </si>
+  <si>
+    <t>92,34</t>
+  </si>
+  <si>
+    <t>152,06</t>
+  </si>
+  <si>
+    <t>61,56</t>
+  </si>
+  <si>
+    <t>101,37</t>
+  </si>
+  <si>
+    <t>Năm thứ 3</t>
+  </si>
+  <si>
+    <t>39,49</t>
+  </si>
+  <si>
+    <t>63,99</t>
+  </si>
+  <si>
+    <t>14,66</t>
+  </si>
+  <si>
+    <t>118,48</t>
+  </si>
+  <si>
+    <t>191,98</t>
+  </si>
+  <si>
+    <t>78,98</t>
+  </si>
+  <si>
+    <t>127,99</t>
+  </si>
+  <si>
+    <t>Năm thứ 4</t>
+  </si>
+  <si>
+    <t>75,73</t>
+  </si>
+  <si>
+    <t>103,52</t>
+  </si>
+  <si>
+    <t>29,31</t>
+  </si>
+  <si>
+    <t>227,18</t>
+  </si>
+  <si>
+    <t>310,56</t>
+  </si>
+  <si>
+    <t>151,45</t>
+  </si>
+  <si>
+    <t>207,04</t>
+  </si>
+  <si>
+    <t>Năm thứ 5</t>
+  </si>
+  <si>
+    <t>81,27</t>
+  </si>
+  <si>
+    <t>110,87</t>
+  </si>
+  <si>
+    <t>31,49</t>
+  </si>
+  <si>
+    <t>243,80</t>
+  </si>
+  <si>
+    <t>332,60</t>
+  </si>
+  <si>
+    <t>162,53</t>
+  </si>
+  <si>
+    <t>221,73</t>
+  </si>
+  <si>
+    <t>22,85</t>
+  </si>
+  <si>
+    <t>38,35</t>
+  </si>
+  <si>
+    <t>8,83</t>
+  </si>
+  <si>
+    <t>68,54</t>
+  </si>
+  <si>
+    <t>115,04</t>
+  </si>
+  <si>
+    <t>45,69</t>
+  </si>
+  <si>
+    <t>76,69</t>
+  </si>
+  <si>
+    <t>33,43</t>
+  </si>
+  <si>
+    <t>55,07</t>
+  </si>
+  <si>
+    <t>11,78</t>
+  </si>
+  <si>
+    <t>100,29</t>
+  </si>
+  <si>
+    <t>165,21</t>
+  </si>
+  <si>
+    <t>66,86</t>
+  </si>
+  <si>
+    <t>110,14</t>
+  </si>
+  <si>
+    <t>Năm. thứ 3</t>
+  </si>
+  <si>
+    <t>42,33</t>
+  </si>
+  <si>
+    <t>68,69</t>
+  </si>
+  <si>
+    <t>17,66.</t>
+  </si>
+  <si>
+    <t>126,99</t>
+  </si>
+  <si>
+    <t>206,07</t>
+  </si>
+  <si>
+    <t>84,66</t>
+  </si>
+  <si>
+    <t>137,38</t>
+  </si>
+  <si>
+    <t>84,78</t>
+  </si>
+  <si>
+    <t>114,57</t>
+  </si>
+  <si>
+    <t>35,33</t>
+  </si>
+  <si>
+    <t>254,34</t>
+  </si>
+  <si>
+    <t>343,70</t>
+  </si>
+  <si>
+    <t>169,56</t>
+  </si>
+  <si>
+    <t>229,13</t>
+  </si>
+  <si>
+    <t>90,91</t>
+  </si>
+  <si>
+    <t>122,63</t>
+  </si>
+  <si>
+    <t>37,90</t>
+  </si>
+  <si>
+    <t>272,73</t>
+  </si>
+  <si>
+    <t>367,89</t>
+  </si>
+  <si>
+    <t>181,82</t>
+  </si>
+  <si>
+    <t>245,26</t>
+  </si>
+  <si>
+    <t>4-</t>
+  </si>
+  <si>
+    <t>26,04</t>
+  </si>
+  <si>
+    <t>43,63</t>
+  </si>
+  <si>
+    <t>10,34</t>
+  </si>
+  <si>
+    <t>78,11</t>
+  </si>
+  <si>
+    <t>130,90</t>
+  </si>
+  <si>
+    <t>52,07</t>
+  </si>
+  <si>
+    <t>87,27</t>
+  </si>
+  <si>
+    <t>37,41</t>
+  </si>
+  <si>
+    <t>61,65</t>
+  </si>
+  <si>
+    <t>13,78</t>
+  </si>
+  <si>
+    <t>112,22</t>
+  </si>
+  <si>
+    <t>184,96</t>
+  </si>
+  <si>
+    <t>74,81</t>
+  </si>
+  <si>
+    <t>123,31</t>
+  </si>
+  <si>
+    <t>46,59</t>
+  </si>
+  <si>
+    <t>75,74</t>
+  </si>
+  <si>
+    <t>20,67</t>
+  </si>
+  <si>
+    <t>139,77</t>
+  </si>
+  <si>
+    <t>227,22</t>
+  </si>
+  <si>
+    <t>93,18</t>
+  </si>
+  <si>
+    <t>151,48</t>
+  </si>
+  <si>
+    <t>Nâm thứ 4</t>
+  </si>
+  <si>
+    <t>95,36</t>
+  </si>
+  <si>
+    <t>128,13</t>
+  </si>
+  <si>
+    <t>41,35</t>
+  </si>
+  <si>
+    <t>286,07</t>
+  </si>
+  <si>
+    <t>384,38</t>
+  </si>
+  <si>
+    <t>190,71</t>
+  </si>
+  <si>
+    <t>256,25</t>
+  </si>
+  <si>
+    <t>102,17</t>
+  </si>
+  <si>
+    <t>137,07</t>
+  </si>
+  <si>
+    <t>44,31</t>
+  </si>
+  <si>
+    <t>306,52</t>
+  </si>
+  <si>
+    <t>411,22</t>
+  </si>
+  <si>
+    <t>204,34</t>
+  </si>
+  <si>
+    <t>274,14</t>
+  </si>
+  <si>
+    <t>Từ 6 năm trớ lên</t>
+  </si>
+  <si>
+    <t>Trữ lượng &lt; 50 m3/ha</t>
+  </si>
+  <si>
+    <t>90,65</t>
+  </si>
+  <si>
+    <t>132,99</t>
+  </si>
+  <si>
+    <t>33,85</t>
+  </si>
+  <si>
+    <t>271,95</t>
+  </si>
+  <si>
+    <t>398,97</t>
+  </si>
+  <si>
+    <t>181,30</t>
+  </si>
+  <si>
+    <t>265,98</t>
+  </si>
+  <si>
+    <t>Trữ lượng 60 m3/ha</t>
+  </si>
+  <si>
+    <t>97,47</t>
+  </si>
+  <si>
+    <t>139,81</t>
+  </si>
+  <si>
+    <t>40,67</t>
+  </si>
+  <si>
+    <t>292,42</t>
+  </si>
+  <si>
+    <t>419,44</t>
+  </si>
+  <si>
+    <t>194,95</t>
+  </si>
+  <si>
+    <t>279,63</t>
+  </si>
+  <si>
+    <t>Trữ lượng 70 m3/ha</t>
+  </si>
+  <si>
+    <t>104,30</t>
+  </si>
+  <si>
+    <t>146,64</t>
+  </si>
+  <si>
+    <t>47,50</t>
+  </si>
+  <si>
+    <t>312,89</t>
+  </si>
+  <si>
+    <t>439,91</t>
+  </si>
+  <si>
+    <t>208,60</t>
+  </si>
+  <si>
+    <t>293,27</t>
+  </si>
+  <si>
+    <t>Trữ lượng 80 m3/ha</t>
+  </si>
+  <si>
+    <t>111,12</t>
+  </si>
+  <si>
+    <t>153,46</t>
+  </si>
+  <si>
+    <t>54,32</t>
+  </si>
+  <si>
+    <t>333,37</t>
+  </si>
+  <si>
+    <t>460,38</t>
+  </si>
+  <si>
+    <t>222,24</t>
+  </si>
+  <si>
+    <t>306,92</t>
+  </si>
+  <si>
+    <t>Trữ lượng 90 m3/ha</t>
+  </si>
+  <si>
+    <t>117,95</t>
+  </si>
+  <si>
+    <t>160,29</t>
+  </si>
+  <si>
+    <t>61,14</t>
+  </si>
+  <si>
+    <t>353,84</t>
+  </si>
+  <si>
+    <t>480,86</t>
+  </si>
+  <si>
+    <t>235,89</t>
+  </si>
+  <si>
+    <t>320,57</t>
+  </si>
+  <si>
+    <t>Trữ lượng 100 m3/ha</t>
+  </si>
+  <si>
+    <t>124,77</t>
+  </si>
+  <si>
+    <t>167,11</t>
+  </si>
+  <si>
+    <t>67,97</t>
+  </si>
+  <si>
+    <t>374,31</t>
+  </si>
+  <si>
+    <t>501,33</t>
+  </si>
+  <si>
+    <t>249,54</t>
+  </si>
+  <si>
+    <t>334,22</t>
+  </si>
+  <si>
+    <t>Trữ lượng 110 m3/ha</t>
+  </si>
+  <si>
+    <t>131,59</t>
+  </si>
+  <si>
+    <t>173,93</t>
+  </si>
+  <si>
+    <t>74,79</t>
+  </si>
+  <si>
+    <t>394,78</t>
+  </si>
+  <si>
+    <t>521,80</t>
+  </si>
+  <si>
+    <t>263,19</t>
+  </si>
+  <si>
+    <t>347,87</t>
+  </si>
+  <si>
+    <t>Trữ lượng 120 m3/ha</t>
+  </si>
+  <si>
+    <t>138,42</t>
+  </si>
+  <si>
+    <t>180,76</t>
+  </si>
+  <si>
+    <t>81,61</t>
+  </si>
+  <si>
+    <t>415,25</t>
+  </si>
+  <si>
+    <t>542,27</t>
+  </si>
+  <si>
+    <t>276,83</t>
+  </si>
+  <si>
+    <t>361,51</t>
+  </si>
+  <si>
+    <t>Trữ lượng 130 m3/ha</t>
+  </si>
+  <si>
+    <t>145,24</t>
+  </si>
+  <si>
+    <t>187,58</t>
+  </si>
+  <si>
+    <t>88,44</t>
+  </si>
+  <si>
+    <t>435,72</t>
+  </si>
+  <si>
+    <t>562,74</t>
+  </si>
+  <si>
+    <t>290,48</t>
+  </si>
+  <si>
+    <t>375,16</t>
+  </si>
+  <si>
+    <t>Trữ lượng 140 m3/ha</t>
+  </si>
+  <si>
+    <t>152,07</t>
+  </si>
+  <si>
+    <t>194,40</t>
+  </si>
+  <si>
+    <t>95,26</t>
+  </si>
+  <si>
+    <t>456,20</t>
+  </si>
+  <si>
+    <t>583,21</t>
+  </si>
+  <si>
+    <t>304,13</t>
+  </si>
+  <si>
+    <t>388,81</t>
+  </si>
+  <si>
+    <t>Trữ lượng 150 m3/ha</t>
+  </si>
+  <si>
+    <t>158,89</t>
+  </si>
+  <si>
+    <t>201,23</t>
+  </si>
+  <si>
+    <t>102,09</t>
+  </si>
+  <si>
+    <t>476,67</t>
+  </si>
+  <si>
+    <t>603,68</t>
+  </si>
+  <si>
+    <t>317,78</t>
+  </si>
+  <si>
+    <t>402,46</t>
+  </si>
+  <si>
+    <t>Trữ lượng 160 m3/ha</t>
+  </si>
+  <si>
+    <t>165,71</t>
+  </si>
+  <si>
+    <t>208,05</t>
+  </si>
+  <si>
+    <t>108,91</t>
+  </si>
+  <si>
+    <t>497,14</t>
+  </si>
+  <si>
+    <t>624,16</t>
+  </si>
+  <si>
+    <t>331,43</t>
+  </si>
+  <si>
+    <t>416,10</t>
+  </si>
+  <si>
+    <t>Trữ lượng 170 m3/ha</t>
+  </si>
+  <si>
+    <t>172,54</t>
+  </si>
+  <si>
+    <t>214,88</t>
+  </si>
+  <si>
+    <t>115,73</t>
+  </si>
+  <si>
+    <t>517,61</t>
+  </si>
+  <si>
+    <t>644,63</t>
+  </si>
+  <si>
+    <t>345,07</t>
+  </si>
+  <si>
+    <t>429,75</t>
+  </si>
+  <si>
+    <t>Trữ lượng 180 m3/ha</t>
+  </si>
+  <si>
+    <t>179,36</t>
+  </si>
+  <si>
+    <t>221,70</t>
+  </si>
+  <si>
+    <t>122,56</t>
+  </si>
+  <si>
+    <t>538,08</t>
+  </si>
+  <si>
+    <t>665,10</t>
+  </si>
+  <si>
+    <t>358,72</t>
+  </si>
+  <si>
+    <t>443,40</t>
+  </si>
+  <si>
+    <t>Trữ lượng 190 m3/ha</t>
+  </si>
+  <si>
+    <t>186,19</t>
+  </si>
+  <si>
+    <t>228,52</t>
+  </si>
+  <si>
+    <t>129,38</t>
+  </si>
+  <si>
+    <t>558,56</t>
+  </si>
+  <si>
+    <t>685,57</t>
+  </si>
+  <si>
+    <t>372,37</t>
+  </si>
+  <si>
+    <t>457,05</t>
+  </si>
+  <si>
+    <t>Trữ lượng 200 m3/ha</t>
+  </si>
+  <si>
+    <t>193,01</t>
+  </si>
+  <si>
+    <t>235,35</t>
+  </si>
+  <si>
+    <t>136,21</t>
+  </si>
+  <si>
+    <t>579,03</t>
+  </si>
+  <si>
+    <t>706,04</t>
+  </si>
+  <si>
+    <t>386,02</t>
+  </si>
+  <si>
+    <t>470,70</t>
+  </si>
+  <si>
+    <t>Trữ lượng &gt; 200 m3/ha</t>
+  </si>
+  <si>
+    <t>206,66</t>
+  </si>
+  <si>
+    <t>249,00</t>
+  </si>
+  <si>
+    <t>149,85</t>
+  </si>
+  <si>
+    <t>619,97</t>
+  </si>
+  <si>
+    <t>746,99</t>
+  </si>
+  <si>
+    <t>413,31</t>
+  </si>
+  <si>
+    <t>497,99</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="12"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>1.1</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="12"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>Mật độ 1.667 cậy/ha</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="12"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>Dưới 5 năm</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="12"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>1.2</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="12"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>Mật độ 2.000 cây/ha</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="12"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>-</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="12"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>1.3</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="12"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>Mật độ 2.500 cây/ha</t>
+    </r>
+  </si>
+  <si>
+    <t>RTKS</t>
+  </si>
+  <si>
+    <t>529.84</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="1">
-    <numFmt numFmtId="43" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
-  </numFmts>
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -90,16 +946,48 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="8"/>
+      <color rgb="FF000000"/>
+      <name val="Helvetica"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <color rgb="FF000000"/>
+      <name val="Helvetica"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF3F4254"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="12"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFFF"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="4">
     <border>
       <left/>
       <right/>
@@ -107,16 +995,90 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color auto="1"/>
+      </left>
+      <right style="medium">
+        <color auto="1"/>
+      </right>
+      <top style="medium">
+        <color auto="1"/>
+      </top>
+      <bottom style="medium">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="15">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -432,92 +1394,1772 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{ABFC3AFF-D13B-4BA5-A0D7-AF8DD718511D}">
-  <dimension ref="A1:I3"/>
+  <dimension ref="A1:Q45"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I14" sqref="I14"/>
+      <selection activeCell="E6" sqref="E6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="7" max="7" width="12.7109375" customWidth="1"/>
-    <col min="9" max="9" width="11.5703125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="9.140625" style="1"/>
+    <col min="2" max="2" width="43.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="6" width="9.140625" style="1"/>
+    <col min="7" max="7" width="12.7109375" style="1" customWidth="1"/>
+    <col min="8" max="8" width="9.140625" style="1"/>
+    <col min="9" max="9" width="11.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A1" s="3" t="s">
+    <row r="1" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A1" s="12" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="12"/>
+      <c r="C1" s="12"/>
+      <c r="D1" s="12"/>
+      <c r="E1" s="12"/>
+      <c r="F1" s="12"/>
+      <c r="G1" s="12"/>
+      <c r="H1" s="12"/>
+      <c r="I1" s="12"/>
+      <c r="J1" s="12"/>
+      <c r="K1" s="12"/>
+      <c r="L1" s="12"/>
+      <c r="M1" s="12"/>
+      <c r="N1" s="12"/>
+      <c r="O1" s="12"/>
+      <c r="P1" s="12"/>
+    </row>
+    <row r="2" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="C2" s="13" t="s">
         <v>9</v>
       </c>
-      <c r="B1" s="3"/>
-      <c r="C1" s="3"/>
-      <c r="D1" s="3"/>
-      <c r="E1" s="3"/>
-      <c r="F1" s="3"/>
-      <c r="G1" s="3"/>
-      <c r="H1" s="3"/>
-      <c r="I1" s="3"/>
-    </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
-        <v>0</v>
-      </c>
-      <c r="B2" t="s">
+      <c r="D2" s="13"/>
+      <c r="E2" s="13"/>
+      <c r="F2" s="13"/>
+      <c r="G2" s="13"/>
+      <c r="H2" s="13"/>
+      <c r="I2" s="13" t="s">
+        <v>8</v>
+      </c>
+      <c r="J2" s="13"/>
+      <c r="K2" s="13" t="s">
+        <v>10</v>
+      </c>
+      <c r="L2" s="13"/>
+      <c r="M2" s="13"/>
+      <c r="N2" s="13"/>
+      <c r="O2" s="13"/>
+      <c r="P2" s="13"/>
+      <c r="Q2" s="13" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="3" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A3" s="2"/>
+      <c r="B3" s="2"/>
+      <c r="C3" s="13" t="s">
+        <v>3</v>
+      </c>
+      <c r="D3" s="13"/>
+      <c r="E3" s="13" t="s">
+        <v>6</v>
+      </c>
+      <c r="F3" s="13"/>
+      <c r="G3" s="14" t="s">
+        <v>7</v>
+      </c>
+      <c r="H3" s="14"/>
+      <c r="I3" s="13"/>
+      <c r="J3" s="13"/>
+      <c r="K3" s="13" t="s">
+        <v>11</v>
+      </c>
+      <c r="L3" s="13"/>
+      <c r="M3" s="13" t="s">
+        <v>6</v>
+      </c>
+      <c r="N3" s="13"/>
+      <c r="O3" s="13" t="s">
+        <v>7</v>
+      </c>
+      <c r="P3" s="13"/>
+      <c r="Q3" s="13"/>
+    </row>
+    <row r="4" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A4" s="2"/>
+      <c r="B4" s="2"/>
+      <c r="C4" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="D4" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="E4" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="F4" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="G4" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="H4" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="I4" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="J4" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="K4" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="L4" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="M4" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="N4" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="O4" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="P4" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="Q4" s="13"/>
+    </row>
+    <row r="5" spans="1:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A5" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="B5" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="C5" s="3">
+        <v>529.84</v>
+      </c>
+      <c r="D5" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="E5" s="5" t="s">
+        <v>280</v>
+      </c>
+      <c r="F5" s="5"/>
+      <c r="G5" s="5"/>
+      <c r="H5" s="5"/>
+      <c r="I5" s="5"/>
+      <c r="J5" s="5"/>
+      <c r="K5" s="5"/>
+      <c r="L5" s="5"/>
+      <c r="M5" s="5"/>
+      <c r="N5" s="5"/>
+      <c r="O5" s="5"/>
+      <c r="P5" s="5"/>
+      <c r="Q5" s="5" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="6" spans="1:17" s="9" customFormat="1" ht="16.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="7">
         <v>1</v>
       </c>
-      <c r="C2" t="s">
-        <v>2</v>
-      </c>
-      <c r="D2" t="s">
-        <v>3</v>
-      </c>
-      <c r="E2" t="s">
-        <v>4</v>
-      </c>
-      <c r="F2" t="s">
-        <v>5</v>
-      </c>
-      <c r="G2" t="s">
-        <v>6</v>
-      </c>
-      <c r="H2" t="s">
-        <v>7</v>
-      </c>
-      <c r="I2" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A3">
-        <v>1</v>
-      </c>
-      <c r="B3" t="s">
-        <v>10</v>
-      </c>
-      <c r="C3" t="s">
-        <v>11</v>
-      </c>
-      <c r="D3" t="s">
-        <v>10</v>
-      </c>
-      <c r="E3" t="s">
-        <v>10</v>
-      </c>
-      <c r="F3" s="2">
-        <v>13214</v>
-      </c>
-      <c r="G3" s="2">
-        <v>13214</v>
-      </c>
-      <c r="H3" t="s">
-        <v>12</v>
-      </c>
-      <c r="I3" s="1">
-        <v>214124</v>
+      <c r="B6" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="C6" s="7"/>
+      <c r="D6" s="7"/>
+      <c r="E6" s="7"/>
+      <c r="F6" s="7"/>
+      <c r="G6" s="8"/>
+      <c r="H6" s="7"/>
+      <c r="I6" s="7"/>
+      <c r="J6" s="7"/>
+      <c r="K6" s="7"/>
+      <c r="L6" s="7"/>
+      <c r="M6" s="7"/>
+      <c r="N6" s="7"/>
+      <c r="O6" s="7"/>
+      <c r="P6" s="7"/>
+      <c r="Q6" s="11" t="s">
+        <v>279</v>
+      </c>
+    </row>
+    <row r="7" spans="1:17" s="9" customFormat="1" ht="16.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="7" t="s">
+        <v>271</v>
+      </c>
+      <c r="B7" s="7" t="s">
+        <v>272</v>
+      </c>
+      <c r="C7" s="7"/>
+      <c r="D7" s="7"/>
+      <c r="E7" s="7"/>
+      <c r="F7" s="7"/>
+      <c r="G7" s="7"/>
+      <c r="H7" s="7"/>
+      <c r="I7" s="7"/>
+      <c r="J7" s="7"/>
+      <c r="K7" s="7"/>
+      <c r="L7" s="7"/>
+      <c r="M7" s="7"/>
+      <c r="N7" s="7"/>
+      <c r="O7" s="7"/>
+      <c r="P7" s="7"/>
+      <c r="Q7" s="11" t="s">
+        <v>279</v>
+      </c>
+    </row>
+    <row r="8" spans="1:17" s="9" customFormat="1" ht="16.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="B8" s="7" t="s">
+        <v>273</v>
+      </c>
+      <c r="C8" s="7"/>
+      <c r="D8" s="7"/>
+      <c r="E8" s="7"/>
+      <c r="F8" s="7"/>
+      <c r="G8" s="7"/>
+      <c r="H8" s="7"/>
+      <c r="I8" s="7"/>
+      <c r="J8" s="7"/>
+      <c r="K8" s="7"/>
+      <c r="L8" s="7"/>
+      <c r="M8" s="7"/>
+      <c r="N8" s="7"/>
+      <c r="O8" s="7"/>
+      <c r="P8" s="7"/>
+      <c r="Q8" s="11" t="s">
+        <v>279</v>
+      </c>
+    </row>
+    <row r="9" spans="1:17" s="9" customFormat="1" ht="16.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="B9" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="C9" s="7"/>
+      <c r="D9" s="7"/>
+      <c r="E9" s="7"/>
+      <c r="F9" s="7"/>
+      <c r="G9" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="H9" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="I9" s="7"/>
+      <c r="J9" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="K9" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="L9" s="7" t="s">
+        <v>25</v>
+      </c>
+      <c r="M9" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="N9" s="7" t="s">
+        <v>27</v>
+      </c>
+      <c r="O9" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="P9" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="Q9" s="11" t="s">
+        <v>279</v>
+      </c>
+    </row>
+    <row r="10" spans="1:17" s="9" customFormat="1" ht="16.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A10" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="B10" s="7" t="s">
+        <v>29</v>
+      </c>
+      <c r="C10" s="7"/>
+      <c r="D10" s="7"/>
+      <c r="E10" s="7"/>
+      <c r="F10" s="7"/>
+      <c r="G10" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="H10" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="I10" s="7"/>
+      <c r="J10" s="7" t="s">
+        <v>32</v>
+      </c>
+      <c r="K10" s="7" t="s">
+        <v>33</v>
+      </c>
+      <c r="L10" s="7" t="s">
+        <v>34</v>
+      </c>
+      <c r="M10" s="7" t="s">
+        <v>35</v>
+      </c>
+      <c r="N10" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="O10" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="P10" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="Q10" s="11" t="s">
+        <v>279</v>
+      </c>
+    </row>
+    <row r="11" spans="1:17" s="9" customFormat="1" ht="16.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A11" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="B11" s="7" t="s">
+        <v>37</v>
+      </c>
+      <c r="C11" s="7"/>
+      <c r="D11" s="7"/>
+      <c r="E11" s="7"/>
+      <c r="F11" s="7"/>
+      <c r="G11" s="7" t="s">
+        <v>38</v>
+      </c>
+      <c r="H11" s="7" t="s">
+        <v>39</v>
+      </c>
+      <c r="I11" s="7"/>
+      <c r="J11" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="K11" s="7" t="s">
+        <v>41</v>
+      </c>
+      <c r="L11" s="7" t="s">
+        <v>42</v>
+      </c>
+      <c r="M11" s="7" t="s">
+        <v>43</v>
+      </c>
+      <c r="N11" s="7" t="s">
+        <v>44</v>
+      </c>
+      <c r="O11" s="7" t="s">
+        <v>38</v>
+      </c>
+      <c r="P11" s="7" t="s">
+        <v>39</v>
+      </c>
+      <c r="Q11" s="11" t="s">
+        <v>279</v>
+      </c>
+    </row>
+    <row r="12" spans="1:17" s="9" customFormat="1" ht="16.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A12" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="B12" s="7" t="s">
+        <v>45</v>
+      </c>
+      <c r="C12" s="7"/>
+      <c r="D12" s="7"/>
+      <c r="E12" s="7"/>
+      <c r="F12" s="7"/>
+      <c r="G12" s="7" t="s">
+        <v>46</v>
+      </c>
+      <c r="H12" s="7" t="s">
+        <v>47</v>
+      </c>
+      <c r="I12" s="7"/>
+      <c r="J12" s="7" t="s">
+        <v>48</v>
+      </c>
+      <c r="K12" s="7" t="s">
+        <v>49</v>
+      </c>
+      <c r="L12" s="7" t="s">
+        <v>50</v>
+      </c>
+      <c r="M12" s="7" t="s">
+        <v>51</v>
+      </c>
+      <c r="N12" s="7" t="s">
+        <v>52</v>
+      </c>
+      <c r="O12" s="7" t="s">
+        <v>46</v>
+      </c>
+      <c r="P12" s="7" t="s">
+        <v>47</v>
+      </c>
+      <c r="Q12" s="11" t="s">
+        <v>279</v>
+      </c>
+    </row>
+    <row r="13" spans="1:17" s="9" customFormat="1" ht="16.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A13" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="B13" s="7" t="s">
+        <v>53</v>
+      </c>
+      <c r="C13" s="7"/>
+      <c r="D13" s="7"/>
+      <c r="E13" s="7"/>
+      <c r="F13" s="7"/>
+      <c r="G13" s="7" t="s">
+        <v>54</v>
+      </c>
+      <c r="H13" s="7" t="s">
+        <v>55</v>
+      </c>
+      <c r="I13" s="7"/>
+      <c r="J13" s="7" t="s">
+        <v>56</v>
+      </c>
+      <c r="K13" s="7" t="s">
+        <v>57</v>
+      </c>
+      <c r="L13" s="7" t="s">
+        <v>58</v>
+      </c>
+      <c r="M13" s="7" t="s">
+        <v>59</v>
+      </c>
+      <c r="N13" s="7" t="s">
+        <v>60</v>
+      </c>
+      <c r="O13" s="7" t="s">
+        <v>54</v>
+      </c>
+      <c r="P13" s="7" t="s">
+        <v>55</v>
+      </c>
+      <c r="Q13" s="11" t="s">
+        <v>279</v>
+      </c>
+    </row>
+    <row r="14" spans="1:17" s="9" customFormat="1" ht="16.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A14" s="7" t="s">
+        <v>274</v>
+      </c>
+      <c r="B14" s="7" t="s">
+        <v>275</v>
+      </c>
+      <c r="C14" s="7"/>
+      <c r="D14" s="7"/>
+      <c r="E14" s="7"/>
+      <c r="F14" s="7"/>
+      <c r="G14" s="7"/>
+      <c r="H14" s="7"/>
+      <c r="I14" s="7"/>
+      <c r="J14" s="7"/>
+      <c r="K14" s="7"/>
+      <c r="L14" s="7"/>
+      <c r="M14" s="7"/>
+      <c r="N14" s="7"/>
+      <c r="O14" s="7"/>
+      <c r="P14" s="7"/>
+      <c r="Q14" s="11" t="s">
+        <v>279</v>
+      </c>
+    </row>
+    <row r="15" spans="1:17" s="9" customFormat="1" ht="16.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A15" s="7" t="s">
+        <v>276</v>
+      </c>
+      <c r="B15" s="7" t="s">
+        <v>273</v>
+      </c>
+      <c r="C15" s="7"/>
+      <c r="D15" s="7"/>
+      <c r="E15" s="7"/>
+      <c r="F15" s="7"/>
+      <c r="G15" s="7"/>
+      <c r="H15" s="7"/>
+      <c r="I15" s="7"/>
+      <c r="J15" s="7"/>
+      <c r="K15" s="7"/>
+      <c r="L15" s="7"/>
+      <c r="M15" s="7"/>
+      <c r="N15" s="7"/>
+      <c r="O15" s="7"/>
+      <c r="P15" s="7"/>
+      <c r="Q15" s="11" t="s">
+        <v>279</v>
+      </c>
+    </row>
+    <row r="16" spans="1:17" s="9" customFormat="1" ht="16.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A16" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="B16" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="C16" s="7"/>
+      <c r="D16" s="7"/>
+      <c r="E16" s="7"/>
+      <c r="F16" s="7"/>
+      <c r="G16" s="7" t="s">
+        <v>61</v>
+      </c>
+      <c r="H16" s="7" t="s">
+        <v>62</v>
+      </c>
+      <c r="I16" s="7"/>
+      <c r="J16" s="7" t="s">
+        <v>63</v>
+      </c>
+      <c r="K16" s="7" t="s">
+        <v>64</v>
+      </c>
+      <c r="L16" s="7" t="s">
+        <v>65</v>
+      </c>
+      <c r="M16" s="7" t="s">
+        <v>66</v>
+      </c>
+      <c r="N16" s="7" t="s">
+        <v>67</v>
+      </c>
+      <c r="O16" s="7" t="s">
+        <v>61</v>
+      </c>
+      <c r="P16" s="7" t="s">
+        <v>62</v>
+      </c>
+      <c r="Q16" s="11" t="s">
+        <v>279</v>
+      </c>
+    </row>
+    <row r="17" spans="1:17" s="9" customFormat="1" ht="16.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A17" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="B17" s="7" t="s">
+        <v>29</v>
+      </c>
+      <c r="C17" s="7"/>
+      <c r="D17" s="7"/>
+      <c r="E17" s="7"/>
+      <c r="F17" s="7"/>
+      <c r="G17" s="7" t="s">
+        <v>68</v>
+      </c>
+      <c r="H17" s="7" t="s">
+        <v>69</v>
+      </c>
+      <c r="I17" s="7"/>
+      <c r="J17" s="7" t="s">
+        <v>70</v>
+      </c>
+      <c r="K17" s="7" t="s">
+        <v>71</v>
+      </c>
+      <c r="L17" s="7" t="s">
+        <v>72</v>
+      </c>
+      <c r="M17" s="7" t="s">
+        <v>73</v>
+      </c>
+      <c r="N17" s="7" t="s">
+        <v>74</v>
+      </c>
+      <c r="O17" s="7" t="s">
+        <v>68</v>
+      </c>
+      <c r="P17" s="7" t="s">
+        <v>69</v>
+      </c>
+      <c r="Q17" s="11" t="s">
+        <v>279</v>
+      </c>
+    </row>
+    <row r="18" spans="1:17" s="9" customFormat="1" ht="16.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A18" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="B18" s="7" t="s">
+        <v>75</v>
+      </c>
+      <c r="C18" s="7"/>
+      <c r="D18" s="7"/>
+      <c r="E18" s="7"/>
+      <c r="F18" s="7"/>
+      <c r="G18" s="7" t="s">
+        <v>76</v>
+      </c>
+      <c r="H18" s="7" t="s">
+        <v>77</v>
+      </c>
+      <c r="I18" s="7"/>
+      <c r="J18" s="7" t="s">
+        <v>78</v>
+      </c>
+      <c r="K18" s="7" t="s">
+        <v>79</v>
+      </c>
+      <c r="L18" s="7" t="s">
+        <v>80</v>
+      </c>
+      <c r="M18" s="7" t="s">
+        <v>81</v>
+      </c>
+      <c r="N18" s="7" t="s">
+        <v>82</v>
+      </c>
+      <c r="O18" s="7" t="s">
+        <v>76</v>
+      </c>
+      <c r="P18" s="7" t="s">
+        <v>77</v>
+      </c>
+      <c r="Q18" s="11" t="s">
+        <v>279</v>
+      </c>
+    </row>
+    <row r="19" spans="1:17" s="9" customFormat="1" ht="16.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A19" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="B19" s="7" t="s">
+        <v>45</v>
+      </c>
+      <c r="C19" s="7"/>
+      <c r="D19" s="7"/>
+      <c r="E19" s="7"/>
+      <c r="F19" s="7"/>
+      <c r="G19" s="7" t="s">
+        <v>83</v>
+      </c>
+      <c r="H19" s="7" t="s">
+        <v>84</v>
+      </c>
+      <c r="I19" s="7"/>
+      <c r="J19" s="7" t="s">
+        <v>85</v>
+      </c>
+      <c r="K19" s="7" t="s">
+        <v>86</v>
+      </c>
+      <c r="L19" s="7" t="s">
+        <v>87</v>
+      </c>
+      <c r="M19" s="7" t="s">
+        <v>88</v>
+      </c>
+      <c r="N19" s="7" t="s">
+        <v>89</v>
+      </c>
+      <c r="O19" s="7" t="s">
+        <v>83</v>
+      </c>
+      <c r="P19" s="7" t="s">
+        <v>84</v>
+      </c>
+      <c r="Q19" s="11" t="s">
+        <v>279</v>
+      </c>
+    </row>
+    <row r="20" spans="1:17" s="9" customFormat="1" ht="16.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A20" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="B20" s="7" t="s">
+        <v>53</v>
+      </c>
+      <c r="C20" s="7"/>
+      <c r="D20" s="7"/>
+      <c r="E20" s="7"/>
+      <c r="F20" s="7"/>
+      <c r="G20" s="7" t="s">
+        <v>90</v>
+      </c>
+      <c r="H20" s="7" t="s">
+        <v>91</v>
+      </c>
+      <c r="I20" s="7"/>
+      <c r="J20" s="7" t="s">
+        <v>92</v>
+      </c>
+      <c r="K20" s="7" t="s">
+        <v>93</v>
+      </c>
+      <c r="L20" s="7" t="s">
+        <v>94</v>
+      </c>
+      <c r="M20" s="7" t="s">
+        <v>95</v>
+      </c>
+      <c r="N20" s="7" t="s">
+        <v>96</v>
+      </c>
+      <c r="O20" s="7" t="s">
+        <v>90</v>
+      </c>
+      <c r="P20" s="7" t="s">
+        <v>91</v>
+      </c>
+      <c r="Q20" s="11" t="s">
+        <v>279</v>
+      </c>
+    </row>
+    <row r="21" spans="1:17" s="9" customFormat="1" ht="16.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A21" s="7" t="s">
+        <v>277</v>
+      </c>
+      <c r="B21" s="7" t="s">
+        <v>278</v>
+      </c>
+      <c r="C21" s="7"/>
+      <c r="D21" s="7"/>
+      <c r="E21" s="7"/>
+      <c r="F21" s="7"/>
+      <c r="G21" s="7"/>
+      <c r="H21" s="7"/>
+      <c r="I21" s="7"/>
+      <c r="J21" s="7"/>
+      <c r="K21" s="7"/>
+      <c r="L21" s="7"/>
+      <c r="M21" s="7"/>
+      <c r="N21" s="7"/>
+      <c r="O21" s="7"/>
+      <c r="P21" s="7"/>
+      <c r="Q21" s="11" t="s">
+        <v>279</v>
+      </c>
+    </row>
+    <row r="22" spans="1:17" s="9" customFormat="1" ht="16.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A22" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="B22" s="7" t="s">
+        <v>273</v>
+      </c>
+      <c r="C22" s="7"/>
+      <c r="D22" s="7"/>
+      <c r="E22" s="7"/>
+      <c r="F22" s="7"/>
+      <c r="G22" s="7"/>
+      <c r="H22" s="7"/>
+      <c r="I22" s="7"/>
+      <c r="J22" s="7"/>
+      <c r="K22" s="7"/>
+      <c r="L22" s="7"/>
+      <c r="M22" s="7"/>
+      <c r="N22" s="7"/>
+      <c r="O22" s="7"/>
+      <c r="P22" s="7"/>
+      <c r="Q22" s="11" t="s">
+        <v>279</v>
+      </c>
+    </row>
+    <row r="23" spans="1:17" s="9" customFormat="1" ht="16.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A23" s="7" t="s">
+        <v>97</v>
+      </c>
+      <c r="B23" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="C23" s="7"/>
+      <c r="D23" s="7"/>
+      <c r="E23" s="7"/>
+      <c r="F23" s="7"/>
+      <c r="G23" s="7" t="s">
+        <v>98</v>
+      </c>
+      <c r="H23" s="7" t="s">
+        <v>99</v>
+      </c>
+      <c r="I23" s="7"/>
+      <c r="J23" s="7" t="s">
+        <v>100</v>
+      </c>
+      <c r="K23" s="7" t="s">
+        <v>101</v>
+      </c>
+      <c r="L23" s="7" t="s">
+        <v>102</v>
+      </c>
+      <c r="M23" s="7" t="s">
+        <v>103</v>
+      </c>
+      <c r="N23" s="7" t="s">
+        <v>104</v>
+      </c>
+      <c r="O23" s="7" t="s">
+        <v>98</v>
+      </c>
+      <c r="P23" s="7" t="s">
+        <v>99</v>
+      </c>
+      <c r="Q23" s="11" t="s">
+        <v>279</v>
+      </c>
+    </row>
+    <row r="24" spans="1:17" s="9" customFormat="1" ht="16.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A24" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="B24" s="7" t="s">
+        <v>29</v>
+      </c>
+      <c r="C24" s="7"/>
+      <c r="D24" s="7"/>
+      <c r="E24" s="7"/>
+      <c r="F24" s="7"/>
+      <c r="G24" s="7" t="s">
+        <v>105</v>
+      </c>
+      <c r="H24" s="7" t="s">
+        <v>106</v>
+      </c>
+      <c r="I24" s="7"/>
+      <c r="J24" s="7" t="s">
+        <v>107</v>
+      </c>
+      <c r="K24" s="7" t="s">
+        <v>108</v>
+      </c>
+      <c r="L24" s="7" t="s">
+        <v>109</v>
+      </c>
+      <c r="M24" s="7" t="s">
+        <v>110</v>
+      </c>
+      <c r="N24" s="7" t="s">
+        <v>111</v>
+      </c>
+      <c r="O24" s="7" t="s">
+        <v>105</v>
+      </c>
+      <c r="P24" s="7" t="s">
+        <v>106</v>
+      </c>
+      <c r="Q24" s="11" t="s">
+        <v>279</v>
+      </c>
+    </row>
+    <row r="25" spans="1:17" s="9" customFormat="1" ht="16.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A25" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="B25" s="7" t="s">
+        <v>37</v>
+      </c>
+      <c r="C25" s="7"/>
+      <c r="D25" s="7"/>
+      <c r="E25" s="7"/>
+      <c r="F25" s="7"/>
+      <c r="G25" s="7" t="s">
+        <v>112</v>
+      </c>
+      <c r="H25" s="7" t="s">
+        <v>113</v>
+      </c>
+      <c r="I25" s="7"/>
+      <c r="J25" s="7" t="s">
+        <v>114</v>
+      </c>
+      <c r="K25" s="7" t="s">
+        <v>115</v>
+      </c>
+      <c r="L25" s="7" t="s">
+        <v>116</v>
+      </c>
+      <c r="M25" s="7" t="s">
+        <v>117</v>
+      </c>
+      <c r="N25" s="7" t="s">
+        <v>118</v>
+      </c>
+      <c r="O25" s="7" t="s">
+        <v>112</v>
+      </c>
+      <c r="P25" s="7" t="s">
+        <v>113</v>
+      </c>
+      <c r="Q25" s="11" t="s">
+        <v>279</v>
+      </c>
+    </row>
+    <row r="26" spans="1:17" s="9" customFormat="1" ht="16.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A26" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="B26" s="7" t="s">
+        <v>119</v>
+      </c>
+      <c r="C26" s="7"/>
+      <c r="D26" s="7"/>
+      <c r="E26" s="7"/>
+      <c r="F26" s="7"/>
+      <c r="G26" s="7" t="s">
+        <v>120</v>
+      </c>
+      <c r="H26" s="7" t="s">
+        <v>121</v>
+      </c>
+      <c r="I26" s="7"/>
+      <c r="J26" s="7" t="s">
+        <v>122</v>
+      </c>
+      <c r="K26" s="7" t="s">
+        <v>123</v>
+      </c>
+      <c r="L26" s="7" t="s">
+        <v>124</v>
+      </c>
+      <c r="M26" s="7" t="s">
+        <v>125</v>
+      </c>
+      <c r="N26" s="7" t="s">
+        <v>126</v>
+      </c>
+      <c r="O26" s="7" t="s">
+        <v>120</v>
+      </c>
+      <c r="P26" s="7" t="s">
+        <v>121</v>
+      </c>
+      <c r="Q26" s="11" t="s">
+        <v>279</v>
+      </c>
+    </row>
+    <row r="27" spans="1:17" s="9" customFormat="1" ht="16.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A27" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="B27" s="7" t="s">
+        <v>53</v>
+      </c>
+      <c r="C27" s="7"/>
+      <c r="D27" s="7"/>
+      <c r="E27" s="7"/>
+      <c r="F27" s="7"/>
+      <c r="G27" s="7" t="s">
+        <v>127</v>
+      </c>
+      <c r="H27" s="7" t="s">
+        <v>128</v>
+      </c>
+      <c r="I27" s="7"/>
+      <c r="J27" s="7" t="s">
+        <v>129</v>
+      </c>
+      <c r="K27" s="7" t="s">
+        <v>130</v>
+      </c>
+      <c r="L27" s="7" t="s">
+        <v>131</v>
+      </c>
+      <c r="M27" s="7" t="s">
+        <v>132</v>
+      </c>
+      <c r="N27" s="7" t="s">
+        <v>133</v>
+      </c>
+      <c r="O27" s="7" t="s">
+        <v>127</v>
+      </c>
+      <c r="P27" s="7" t="s">
+        <v>128</v>
+      </c>
+      <c r="Q27" s="11" t="s">
+        <v>279</v>
+      </c>
+    </row>
+    <row r="28" spans="1:17" s="9" customFormat="1" ht="16.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A28" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="B28" s="10" t="s">
+        <v>134</v>
+      </c>
+      <c r="C28" s="10"/>
+      <c r="D28" s="10"/>
+      <c r="E28" s="10"/>
+      <c r="F28" s="10"/>
+      <c r="G28" s="7"/>
+      <c r="H28" s="7"/>
+      <c r="I28" s="7"/>
+      <c r="J28" s="7"/>
+      <c r="K28" s="7"/>
+      <c r="L28" s="7"/>
+      <c r="M28" s="7"/>
+      <c r="N28" s="7"/>
+      <c r="O28" s="7"/>
+      <c r="P28" s="7"/>
+      <c r="Q28" s="11" t="s">
+        <v>279</v>
+      </c>
+    </row>
+    <row r="29" spans="1:17" s="9" customFormat="1" ht="16.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A29" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="B29" s="7" t="s">
+        <v>135</v>
+      </c>
+      <c r="C29" s="7"/>
+      <c r="D29" s="7"/>
+      <c r="E29" s="7"/>
+      <c r="F29" s="7"/>
+      <c r="G29" s="7" t="s">
+        <v>136</v>
+      </c>
+      <c r="H29" s="7" t="s">
+        <v>137</v>
+      </c>
+      <c r="I29" s="7"/>
+      <c r="J29" s="7" t="s">
+        <v>138</v>
+      </c>
+      <c r="K29" s="7" t="s">
+        <v>139</v>
+      </c>
+      <c r="L29" s="7" t="s">
+        <v>140</v>
+      </c>
+      <c r="M29" s="7" t="s">
+        <v>141</v>
+      </c>
+      <c r="N29" s="7" t="s">
+        <v>142</v>
+      </c>
+      <c r="O29" s="7" t="s">
+        <v>136</v>
+      </c>
+      <c r="P29" s="7" t="s">
+        <v>137</v>
+      </c>
+      <c r="Q29" s="11" t="s">
+        <v>279</v>
+      </c>
+    </row>
+    <row r="30" spans="1:17" s="9" customFormat="1" ht="16.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A30" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="B30" s="7" t="s">
+        <v>143</v>
+      </c>
+      <c r="C30" s="7"/>
+      <c r="D30" s="7"/>
+      <c r="E30" s="7"/>
+      <c r="F30" s="7"/>
+      <c r="G30" s="7" t="s">
+        <v>144</v>
+      </c>
+      <c r="H30" s="7" t="s">
+        <v>145</v>
+      </c>
+      <c r="I30" s="7"/>
+      <c r="J30" s="7" t="s">
+        <v>146</v>
+      </c>
+      <c r="K30" s="7" t="s">
+        <v>147</v>
+      </c>
+      <c r="L30" s="7" t="s">
+        <v>148</v>
+      </c>
+      <c r="M30" s="7" t="s">
+        <v>149</v>
+      </c>
+      <c r="N30" s="7" t="s">
+        <v>150</v>
+      </c>
+      <c r="O30" s="7" t="s">
+        <v>144</v>
+      </c>
+      <c r="P30" s="7" t="s">
+        <v>145</v>
+      </c>
+      <c r="Q30" s="11" t="s">
+        <v>279</v>
+      </c>
+    </row>
+    <row r="31" spans="1:17" s="9" customFormat="1" ht="16.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A31" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="B31" s="7" t="s">
+        <v>151</v>
+      </c>
+      <c r="C31" s="7"/>
+      <c r="D31" s="7"/>
+      <c r="E31" s="7"/>
+      <c r="F31" s="7"/>
+      <c r="G31" s="7" t="s">
+        <v>152</v>
+      </c>
+      <c r="H31" s="7" t="s">
+        <v>153</v>
+      </c>
+      <c r="I31" s="7"/>
+      <c r="J31" s="7" t="s">
+        <v>154</v>
+      </c>
+      <c r="K31" s="7" t="s">
+        <v>155</v>
+      </c>
+      <c r="L31" s="7" t="s">
+        <v>156</v>
+      </c>
+      <c r="M31" s="7" t="s">
+        <v>157</v>
+      </c>
+      <c r="N31" s="7" t="s">
+        <v>158</v>
+      </c>
+      <c r="O31" s="7" t="s">
+        <v>152</v>
+      </c>
+      <c r="P31" s="7" t="s">
+        <v>153</v>
+      </c>
+      <c r="Q31" s="11" t="s">
+        <v>279</v>
+      </c>
+    </row>
+    <row r="32" spans="1:17" s="9" customFormat="1" ht="16.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A32" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="B32" s="7" t="s">
+        <v>159</v>
+      </c>
+      <c r="C32" s="7"/>
+      <c r="D32" s="7"/>
+      <c r="E32" s="7"/>
+      <c r="F32" s="7"/>
+      <c r="G32" s="7" t="s">
+        <v>160</v>
+      </c>
+      <c r="H32" s="7" t="s">
+        <v>161</v>
+      </c>
+      <c r="I32" s="7"/>
+      <c r="J32" s="7" t="s">
+        <v>162</v>
+      </c>
+      <c r="K32" s="7" t="s">
+        <v>163</v>
+      </c>
+      <c r="L32" s="7" t="s">
+        <v>164</v>
+      </c>
+      <c r="M32" s="7" t="s">
+        <v>165</v>
+      </c>
+      <c r="N32" s="7" t="s">
+        <v>166</v>
+      </c>
+      <c r="O32" s="7" t="s">
+        <v>160</v>
+      </c>
+      <c r="P32" s="7" t="s">
+        <v>161</v>
+      </c>
+      <c r="Q32" s="11" t="s">
+        <v>279</v>
+      </c>
+    </row>
+    <row r="33" spans="1:17" s="9" customFormat="1" ht="16.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A33" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="B33" s="7" t="s">
+        <v>167</v>
+      </c>
+      <c r="C33" s="7"/>
+      <c r="D33" s="7"/>
+      <c r="E33" s="7"/>
+      <c r="F33" s="7"/>
+      <c r="G33" s="7" t="s">
+        <v>168</v>
+      </c>
+      <c r="H33" s="7" t="s">
+        <v>169</v>
+      </c>
+      <c r="I33" s="7"/>
+      <c r="J33" s="7" t="s">
+        <v>170</v>
+      </c>
+      <c r="K33" s="7" t="s">
+        <v>171</v>
+      </c>
+      <c r="L33" s="7" t="s">
+        <v>172</v>
+      </c>
+      <c r="M33" s="7" t="s">
+        <v>173</v>
+      </c>
+      <c r="N33" s="7" t="s">
+        <v>174</v>
+      </c>
+      <c r="O33" s="7" t="s">
+        <v>168</v>
+      </c>
+      <c r="P33" s="7" t="s">
+        <v>169</v>
+      </c>
+      <c r="Q33" s="11" t="s">
+        <v>279</v>
+      </c>
+    </row>
+    <row r="34" spans="1:17" s="9" customFormat="1" ht="16.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A34" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="B34" s="7" t="s">
+        <v>175</v>
+      </c>
+      <c r="C34" s="7"/>
+      <c r="D34" s="7"/>
+      <c r="E34" s="7"/>
+      <c r="F34" s="7"/>
+      <c r="G34" s="7" t="s">
+        <v>176</v>
+      </c>
+      <c r="H34" s="7" t="s">
+        <v>177</v>
+      </c>
+      <c r="I34" s="7"/>
+      <c r="J34" s="7" t="s">
+        <v>178</v>
+      </c>
+      <c r="K34" s="7" t="s">
+        <v>179</v>
+      </c>
+      <c r="L34" s="7" t="s">
+        <v>180</v>
+      </c>
+      <c r="M34" s="7" t="s">
+        <v>181</v>
+      </c>
+      <c r="N34" s="7" t="s">
+        <v>182</v>
+      </c>
+      <c r="O34" s="7" t="s">
+        <v>176</v>
+      </c>
+      <c r="P34" s="7" t="s">
+        <v>177</v>
+      </c>
+      <c r="Q34" s="11" t="s">
+        <v>279</v>
+      </c>
+    </row>
+    <row r="35" spans="1:17" s="9" customFormat="1" ht="16.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A35" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="B35" s="7" t="s">
+        <v>183</v>
+      </c>
+      <c r="C35" s="7"/>
+      <c r="D35" s="7"/>
+      <c r="E35" s="7"/>
+      <c r="F35" s="7"/>
+      <c r="G35" s="7" t="s">
+        <v>184</v>
+      </c>
+      <c r="H35" s="7" t="s">
+        <v>185</v>
+      </c>
+      <c r="I35" s="7"/>
+      <c r="J35" s="7" t="s">
+        <v>186</v>
+      </c>
+      <c r="K35" s="7" t="s">
+        <v>187</v>
+      </c>
+      <c r="L35" s="7" t="s">
+        <v>188</v>
+      </c>
+      <c r="M35" s="7" t="s">
+        <v>189</v>
+      </c>
+      <c r="N35" s="7" t="s">
+        <v>190</v>
+      </c>
+      <c r="O35" s="7" t="s">
+        <v>184</v>
+      </c>
+      <c r="P35" s="7" t="s">
+        <v>185</v>
+      </c>
+      <c r="Q35" s="11" t="s">
+        <v>279</v>
+      </c>
+    </row>
+    <row r="36" spans="1:17" s="9" customFormat="1" ht="16.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A36" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="B36" s="7" t="s">
+        <v>191</v>
+      </c>
+      <c r="C36" s="7"/>
+      <c r="D36" s="7"/>
+      <c r="E36" s="7"/>
+      <c r="F36" s="7"/>
+      <c r="G36" s="7" t="s">
+        <v>192</v>
+      </c>
+      <c r="H36" s="7" t="s">
+        <v>193</v>
+      </c>
+      <c r="I36" s="7"/>
+      <c r="J36" s="7" t="s">
+        <v>194</v>
+      </c>
+      <c r="K36" s="7" t="s">
+        <v>195</v>
+      </c>
+      <c r="L36" s="7" t="s">
+        <v>196</v>
+      </c>
+      <c r="M36" s="7" t="s">
+        <v>197</v>
+      </c>
+      <c r="N36" s="7" t="s">
+        <v>198</v>
+      </c>
+      <c r="O36" s="7" t="s">
+        <v>192</v>
+      </c>
+      <c r="P36" s="7" t="s">
+        <v>193</v>
+      </c>
+      <c r="Q36" s="11" t="s">
+        <v>279</v>
+      </c>
+    </row>
+    <row r="37" spans="1:17" s="9" customFormat="1" ht="16.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A37" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="B37" s="7" t="s">
+        <v>199</v>
+      </c>
+      <c r="C37" s="7"/>
+      <c r="D37" s="7"/>
+      <c r="E37" s="7"/>
+      <c r="F37" s="7"/>
+      <c r="G37" s="7" t="s">
+        <v>200</v>
+      </c>
+      <c r="H37" s="7" t="s">
+        <v>201</v>
+      </c>
+      <c r="I37" s="7"/>
+      <c r="J37" s="7" t="s">
+        <v>202</v>
+      </c>
+      <c r="K37" s="7" t="s">
+        <v>203</v>
+      </c>
+      <c r="L37" s="7" t="s">
+        <v>204</v>
+      </c>
+      <c r="M37" s="7" t="s">
+        <v>205</v>
+      </c>
+      <c r="N37" s="7" t="s">
+        <v>206</v>
+      </c>
+      <c r="O37" s="7" t="s">
+        <v>200</v>
+      </c>
+      <c r="P37" s="7" t="s">
+        <v>201</v>
+      </c>
+      <c r="Q37" s="11" t="s">
+        <v>279</v>
+      </c>
+    </row>
+    <row r="38" spans="1:17" s="9" customFormat="1" ht="16.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A38" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="B38" s="7" t="s">
+        <v>207</v>
+      </c>
+      <c r="C38" s="7"/>
+      <c r="D38" s="7"/>
+      <c r="E38" s="7"/>
+      <c r="F38" s="7"/>
+      <c r="G38" s="7" t="s">
+        <v>208</v>
+      </c>
+      <c r="H38" s="7" t="s">
+        <v>209</v>
+      </c>
+      <c r="I38" s="7"/>
+      <c r="J38" s="7" t="s">
+        <v>210</v>
+      </c>
+      <c r="K38" s="7" t="s">
+        <v>211</v>
+      </c>
+      <c r="L38" s="7" t="s">
+        <v>212</v>
+      </c>
+      <c r="M38" s="7" t="s">
+        <v>213</v>
+      </c>
+      <c r="N38" s="7" t="s">
+        <v>214</v>
+      </c>
+      <c r="O38" s="7" t="s">
+        <v>208</v>
+      </c>
+      <c r="P38" s="7" t="s">
+        <v>209</v>
+      </c>
+      <c r="Q38" s="11" t="s">
+        <v>279</v>
+      </c>
+    </row>
+    <row r="39" spans="1:17" s="9" customFormat="1" ht="16.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A39" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="B39" s="7" t="s">
+        <v>215</v>
+      </c>
+      <c r="C39" s="7"/>
+      <c r="D39" s="7"/>
+      <c r="E39" s="7"/>
+      <c r="F39" s="7"/>
+      <c r="G39" s="7" t="s">
+        <v>216</v>
+      </c>
+      <c r="H39" s="7" t="s">
+        <v>217</v>
+      </c>
+      <c r="I39" s="7"/>
+      <c r="J39" s="7" t="s">
+        <v>218</v>
+      </c>
+      <c r="K39" s="7" t="s">
+        <v>219</v>
+      </c>
+      <c r="L39" s="7" t="s">
+        <v>220</v>
+      </c>
+      <c r="M39" s="7" t="s">
+        <v>221</v>
+      </c>
+      <c r="N39" s="7" t="s">
+        <v>222</v>
+      </c>
+      <c r="O39" s="7" t="s">
+        <v>216</v>
+      </c>
+      <c r="P39" s="7" t="s">
+        <v>217</v>
+      </c>
+      <c r="Q39" s="11" t="s">
+        <v>279</v>
+      </c>
+    </row>
+    <row r="40" spans="1:17" s="9" customFormat="1" ht="16.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A40" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="B40" s="7" t="s">
+        <v>223</v>
+      </c>
+      <c r="C40" s="7"/>
+      <c r="D40" s="7"/>
+      <c r="E40" s="7"/>
+      <c r="F40" s="7"/>
+      <c r="G40" s="7" t="s">
+        <v>224</v>
+      </c>
+      <c r="H40" s="7" t="s">
+        <v>225</v>
+      </c>
+      <c r="I40" s="7"/>
+      <c r="J40" s="7" t="s">
+        <v>226</v>
+      </c>
+      <c r="K40" s="7" t="s">
+        <v>227</v>
+      </c>
+      <c r="L40" s="7" t="s">
+        <v>228</v>
+      </c>
+      <c r="M40" s="7" t="s">
+        <v>229</v>
+      </c>
+      <c r="N40" s="7" t="s">
+        <v>230</v>
+      </c>
+      <c r="O40" s="7" t="s">
+        <v>224</v>
+      </c>
+      <c r="P40" s="7" t="s">
+        <v>225</v>
+      </c>
+      <c r="Q40" s="11" t="s">
+        <v>279</v>
+      </c>
+    </row>
+    <row r="41" spans="1:17" s="9" customFormat="1" ht="16.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A41" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="B41" s="7" t="s">
+        <v>231</v>
+      </c>
+      <c r="C41" s="7"/>
+      <c r="D41" s="7"/>
+      <c r="E41" s="7"/>
+      <c r="F41" s="7"/>
+      <c r="G41" s="7" t="s">
+        <v>232</v>
+      </c>
+      <c r="H41" s="7" t="s">
+        <v>233</v>
+      </c>
+      <c r="I41" s="7"/>
+      <c r="J41" s="7" t="s">
+        <v>234</v>
+      </c>
+      <c r="K41" s="7" t="s">
+        <v>235</v>
+      </c>
+      <c r="L41" s="7" t="s">
+        <v>236</v>
+      </c>
+      <c r="M41" s="7" t="s">
+        <v>237</v>
+      </c>
+      <c r="N41" s="7" t="s">
+        <v>238</v>
+      </c>
+      <c r="O41" s="7" t="s">
+        <v>232</v>
+      </c>
+      <c r="P41" s="7" t="s">
+        <v>233</v>
+      </c>
+      <c r="Q41" s="11" t="s">
+        <v>279</v>
+      </c>
+    </row>
+    <row r="42" spans="1:17" s="9" customFormat="1" ht="16.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A42" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="B42" s="7" t="s">
+        <v>239</v>
+      </c>
+      <c r="C42" s="7"/>
+      <c r="D42" s="7"/>
+      <c r="E42" s="7"/>
+      <c r="F42" s="7"/>
+      <c r="G42" s="7" t="s">
+        <v>240</v>
+      </c>
+      <c r="H42" s="7" t="s">
+        <v>241</v>
+      </c>
+      <c r="I42" s="7"/>
+      <c r="J42" s="7" t="s">
+        <v>242</v>
+      </c>
+      <c r="K42" s="7" t="s">
+        <v>243</v>
+      </c>
+      <c r="L42" s="7" t="s">
+        <v>244</v>
+      </c>
+      <c r="M42" s="7" t="s">
+        <v>245</v>
+      </c>
+      <c r="N42" s="7" t="s">
+        <v>246</v>
+      </c>
+      <c r="O42" s="7" t="s">
+        <v>240</v>
+      </c>
+      <c r="P42" s="7" t="s">
+        <v>241</v>
+      </c>
+      <c r="Q42" s="11" t="s">
+        <v>279</v>
+      </c>
+    </row>
+    <row r="43" spans="1:17" s="9" customFormat="1" ht="16.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A43" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="B43" s="7" t="s">
+        <v>247</v>
+      </c>
+      <c r="C43" s="7"/>
+      <c r="D43" s="7"/>
+      <c r="E43" s="7"/>
+      <c r="F43" s="7"/>
+      <c r="G43" s="7" t="s">
+        <v>248</v>
+      </c>
+      <c r="H43" s="7" t="s">
+        <v>249</v>
+      </c>
+      <c r="I43" s="7"/>
+      <c r="J43" s="7" t="s">
+        <v>250</v>
+      </c>
+      <c r="K43" s="7" t="s">
+        <v>251</v>
+      </c>
+      <c r="L43" s="7" t="s">
+        <v>252</v>
+      </c>
+      <c r="M43" s="7" t="s">
+        <v>253</v>
+      </c>
+      <c r="N43" s="7" t="s">
+        <v>254</v>
+      </c>
+      <c r="O43" s="7" t="s">
+        <v>248</v>
+      </c>
+      <c r="P43" s="7" t="s">
+        <v>249</v>
+      </c>
+      <c r="Q43" s="11" t="s">
+        <v>279</v>
+      </c>
+    </row>
+    <row r="44" spans="1:17" s="9" customFormat="1" ht="16.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A44" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="B44" s="7" t="s">
+        <v>255</v>
+      </c>
+      <c r="C44" s="7"/>
+      <c r="D44" s="7"/>
+      <c r="E44" s="7"/>
+      <c r="F44" s="7"/>
+      <c r="G44" s="7" t="s">
+        <v>256</v>
+      </c>
+      <c r="H44" s="7" t="s">
+        <v>257</v>
+      </c>
+      <c r="I44" s="7"/>
+      <c r="J44" s="7" t="s">
+        <v>258</v>
+      </c>
+      <c r="K44" s="7" t="s">
+        <v>259</v>
+      </c>
+      <c r="L44" s="7" t="s">
+        <v>260</v>
+      </c>
+      <c r="M44" s="7" t="s">
+        <v>261</v>
+      </c>
+      <c r="N44" s="7" t="s">
+        <v>262</v>
+      </c>
+      <c r="O44" s="7" t="s">
+        <v>256</v>
+      </c>
+      <c r="P44" s="7" t="s">
+        <v>257</v>
+      </c>
+      <c r="Q44" s="11" t="s">
+        <v>279</v>
+      </c>
+    </row>
+    <row r="45" spans="1:17" s="9" customFormat="1" ht="16.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A45" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="B45" s="7" t="s">
+        <v>263</v>
+      </c>
+      <c r="C45" s="7"/>
+      <c r="D45" s="7"/>
+      <c r="E45" s="7"/>
+      <c r="F45" s="7"/>
+      <c r="G45" s="7" t="s">
+        <v>264</v>
+      </c>
+      <c r="H45" s="7" t="s">
+        <v>265</v>
+      </c>
+      <c r="I45" s="7"/>
+      <c r="J45" s="7" t="s">
+        <v>266</v>
+      </c>
+      <c r="K45" s="7" t="s">
+        <v>267</v>
+      </c>
+      <c r="L45" s="7" t="s">
+        <v>268</v>
+      </c>
+      <c r="M45" s="7" t="s">
+        <v>269</v>
+      </c>
+      <c r="N45" s="7" t="s">
+        <v>270</v>
+      </c>
+      <c r="O45" s="7" t="s">
+        <v>264</v>
+      </c>
+      <c r="P45" s="7" t="s">
+        <v>265</v>
+      </c>
+      <c r="Q45" s="11" t="s">
+        <v>279</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="1">
-    <mergeCell ref="A1:I1"/>
+  <mergeCells count="11">
+    <mergeCell ref="Q2:Q4"/>
+    <mergeCell ref="K3:L3"/>
+    <mergeCell ref="M3:N3"/>
+    <mergeCell ref="O3:P3"/>
+    <mergeCell ref="K2:P2"/>
+    <mergeCell ref="A1:P1"/>
+    <mergeCell ref="C2:H2"/>
+    <mergeCell ref="C3:D3"/>
+    <mergeCell ref="E3:F3"/>
+    <mergeCell ref="G3:H3"/>
+    <mergeCell ref="I2:J3"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/CSDLGia_ASP/wwwroot/UpLoad/File/DinhGia/Excel/FileExcelGiarung.xlsx
+++ b/CSDLGia_ASP/wwwroot/UpLoad/File/DinhGia/Excel/FileExcelGiarung.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\AspNetCore\net5\CSDLGia\CSDLGia_ASP\wwwroot\UpLoad\File\DinhGia\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{27EDD63A-E534-4806-9D3F-0762561D56AD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{17AB09FB-6A6B-4C9D-BE2E-D3CB4856539C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="0" windowWidth="29040" windowHeight="15840" xr2:uid="{5CBFBA6C-0A47-4627-8E57-E325A967AA8F}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="439" uniqueCount="281">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="438" uniqueCount="281">
   <si>
     <t>GIÁ RỪNG</t>
   </si>
@@ -1071,11 +1071,11 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -1397,7 +1397,7 @@
   <dimension ref="A1:Q45"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E6" sqref="E6"/>
+      <selection activeCell="D5" sqref="D5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1412,24 +1412,24 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A1" s="12" t="s">
+      <c r="A1" s="13" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="12"/>
-      <c r="C1" s="12"/>
-      <c r="D1" s="12"/>
-      <c r="E1" s="12"/>
-      <c r="F1" s="12"/>
-      <c r="G1" s="12"/>
-      <c r="H1" s="12"/>
-      <c r="I1" s="12"/>
-      <c r="J1" s="12"/>
-      <c r="K1" s="12"/>
-      <c r="L1" s="12"/>
-      <c r="M1" s="12"/>
-      <c r="N1" s="12"/>
-      <c r="O1" s="12"/>
-      <c r="P1" s="12"/>
+      <c r="B1" s="13"/>
+      <c r="C1" s="13"/>
+      <c r="D1" s="13"/>
+      <c r="E1" s="13"/>
+      <c r="F1" s="13"/>
+      <c r="G1" s="13"/>
+      <c r="H1" s="13"/>
+      <c r="I1" s="13"/>
+      <c r="J1" s="13"/>
+      <c r="K1" s="13"/>
+      <c r="L1" s="13"/>
+      <c r="M1" s="13"/>
+      <c r="N1" s="13"/>
+      <c r="O1" s="13"/>
+      <c r="P1" s="13"/>
     </row>
     <row r="2" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
@@ -1438,60 +1438,60 @@
       <c r="B2" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="C2" s="13" t="s">
+      <c r="C2" s="12" t="s">
         <v>9</v>
       </c>
-      <c r="D2" s="13"/>
-      <c r="E2" s="13"/>
-      <c r="F2" s="13"/>
-      <c r="G2" s="13"/>
-      <c r="H2" s="13"/>
-      <c r="I2" s="13" t="s">
+      <c r="D2" s="12"/>
+      <c r="E2" s="12"/>
+      <c r="F2" s="12"/>
+      <c r="G2" s="12"/>
+      <c r="H2" s="12"/>
+      <c r="I2" s="12" t="s">
         <v>8</v>
       </c>
-      <c r="J2" s="13"/>
-      <c r="K2" s="13" t="s">
+      <c r="J2" s="12"/>
+      <c r="K2" s="12" t="s">
         <v>10</v>
       </c>
-      <c r="L2" s="13"/>
-      <c r="M2" s="13"/>
-      <c r="N2" s="13"/>
-      <c r="O2" s="13"/>
-      <c r="P2" s="13"/>
-      <c r="Q2" s="13" t="s">
+      <c r="L2" s="12"/>
+      <c r="M2" s="12"/>
+      <c r="N2" s="12"/>
+      <c r="O2" s="12"/>
+      <c r="P2" s="12"/>
+      <c r="Q2" s="12" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="3" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A3" s="2"/>
       <c r="B3" s="2"/>
-      <c r="C3" s="13" t="s">
+      <c r="C3" s="12" t="s">
         <v>3</v>
       </c>
-      <c r="D3" s="13"/>
-      <c r="E3" s="13" t="s">
+      <c r="D3" s="12"/>
+      <c r="E3" s="12" t="s">
         <v>6</v>
       </c>
-      <c r="F3" s="13"/>
+      <c r="F3" s="12"/>
       <c r="G3" s="14" t="s">
         <v>7</v>
       </c>
       <c r="H3" s="14"/>
-      <c r="I3" s="13"/>
-      <c r="J3" s="13"/>
-      <c r="K3" s="13" t="s">
+      <c r="I3" s="12"/>
+      <c r="J3" s="12"/>
+      <c r="K3" s="12" t="s">
         <v>11</v>
       </c>
-      <c r="L3" s="13"/>
-      <c r="M3" s="13" t="s">
+      <c r="L3" s="12"/>
+      <c r="M3" s="12" t="s">
         <v>6</v>
       </c>
-      <c r="N3" s="13"/>
-      <c r="O3" s="13" t="s">
+      <c r="N3" s="12"/>
+      <c r="O3" s="12" t="s">
         <v>7</v>
       </c>
-      <c r="P3" s="13"/>
-      <c r="Q3" s="13"/>
+      <c r="P3" s="12"/>
+      <c r="Q3" s="12"/>
     </row>
     <row r="4" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A4" s="2"/>
@@ -1538,7 +1538,7 @@
       <c r="P4" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="Q4" s="13"/>
+      <c r="Q4" s="12"/>
     </row>
     <row r="5" spans="1:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A5" s="5" t="s">
@@ -1548,7 +1548,7 @@
         <v>13</v>
       </c>
       <c r="C5" s="3">
-        <v>529.84</v>
+        <v>20.72</v>
       </c>
       <c r="D5" s="4" t="s">
         <v>14</v>
@@ -1657,8 +1657,8 @@
       <c r="D9" s="7"/>
       <c r="E9" s="7"/>
       <c r="F9" s="7"/>
-      <c r="G9" s="7" t="s">
-        <v>21</v>
+      <c r="G9" s="7">
+        <v>20.72</v>
       </c>
       <c r="H9" s="7" t="s">
         <v>22</v>
@@ -3149,17 +3149,17 @@
     </row>
   </sheetData>
   <mergeCells count="11">
-    <mergeCell ref="Q2:Q4"/>
-    <mergeCell ref="K3:L3"/>
-    <mergeCell ref="M3:N3"/>
-    <mergeCell ref="O3:P3"/>
-    <mergeCell ref="K2:P2"/>
     <mergeCell ref="A1:P1"/>
     <mergeCell ref="C2:H2"/>
     <mergeCell ref="C3:D3"/>
     <mergeCell ref="E3:F3"/>
     <mergeCell ref="G3:H3"/>
     <mergeCell ref="I2:J3"/>
+    <mergeCell ref="Q2:Q4"/>
+    <mergeCell ref="K3:L3"/>
+    <mergeCell ref="M3:N3"/>
+    <mergeCell ref="O3:P3"/>
+    <mergeCell ref="K2:P2"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/CSDLGia_ASP/wwwroot/UpLoad/File/DinhGia/Excel/FileExcelGiarung.xlsx
+++ b/CSDLGia_ASP/wwwroot/UpLoad/File/DinhGia/Excel/FileExcelGiarung.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\AspNetCore\net5\CSDLGia\CSDLGia_ASP\wwwroot\UpLoad\File\DinhGia\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{17AB09FB-6A6B-4C9D-BE2E-D3CB4856539C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{63082204-A4D1-4F60-AA54-DABC65096688}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="0" windowWidth="29040" windowHeight="15840" xr2:uid="{5CBFBA6C-0A47-4627-8E57-E325A967AA8F}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="438" uniqueCount="281">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="440" uniqueCount="281">
   <si>
     <t>GIÁ RỪNG</t>
   </si>
@@ -938,23 +938,13 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="6" x14ac:knownFonts="1">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="8"/>
-      <color rgb="FF000000"/>
-      <name val="Helvetica"/>
-    </font>
-    <font>
-      <sz val="9"/>
-      <color rgb="FF000000"/>
-      <name val="Helvetica"/>
     </font>
     <font>
       <sz val="10"/>
@@ -972,6 +962,26 @@
       <sz val="12"/>
       <name val="Times New Roman"/>
       <family val="1"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="8"/>
+      <color rgb="FF000000"/>
+      <name val="Helvetica"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="9"/>
+      <color rgb="FF000000"/>
+      <name val="Helvetica"/>
     </font>
   </fonts>
   <fills count="3">
@@ -1038,7 +1048,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="15">
+  <cellXfs count="16">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1046,39 +1056,42 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1396,8 +1409,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{ABFC3AFF-D13B-4BA5-A0D7-AF8DD718511D}">
   <dimension ref="A1:Q45"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D5" sqref="D5"/>
+    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
+      <selection activeCell="Q6" sqref="Q6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1412,24 +1425,24 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A1" s="13" t="s">
+      <c r="A1" s="8" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="13"/>
-      <c r="C1" s="13"/>
-      <c r="D1" s="13"/>
-      <c r="E1" s="13"/>
-      <c r="F1" s="13"/>
-      <c r="G1" s="13"/>
-      <c r="H1" s="13"/>
-      <c r="I1" s="13"/>
-      <c r="J1" s="13"/>
-      <c r="K1" s="13"/>
-      <c r="L1" s="13"/>
-      <c r="M1" s="13"/>
-      <c r="N1" s="13"/>
-      <c r="O1" s="13"/>
-      <c r="P1" s="13"/>
+      <c r="B1" s="8"/>
+      <c r="C1" s="8"/>
+      <c r="D1" s="8"/>
+      <c r="E1" s="8"/>
+      <c r="F1" s="8"/>
+      <c r="G1" s="8"/>
+      <c r="H1" s="8"/>
+      <c r="I1" s="8"/>
+      <c r="J1" s="8"/>
+      <c r="K1" s="8"/>
+      <c r="L1" s="8"/>
+      <c r="M1" s="8"/>
+      <c r="N1" s="8"/>
+      <c r="O1" s="8"/>
+      <c r="P1" s="8"/>
     </row>
     <row r="2" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
@@ -1438,60 +1451,60 @@
       <c r="B2" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="C2" s="12" t="s">
+      <c r="C2" s="9" t="s">
         <v>9</v>
       </c>
-      <c r="D2" s="12"/>
-      <c r="E2" s="12"/>
-      <c r="F2" s="12"/>
-      <c r="G2" s="12"/>
-      <c r="H2" s="12"/>
-      <c r="I2" s="12" t="s">
+      <c r="D2" s="9"/>
+      <c r="E2" s="9"/>
+      <c r="F2" s="9"/>
+      <c r="G2" s="9"/>
+      <c r="H2" s="9"/>
+      <c r="I2" s="9" t="s">
         <v>8</v>
       </c>
-      <c r="J2" s="12"/>
-      <c r="K2" s="12" t="s">
+      <c r="J2" s="9"/>
+      <c r="K2" s="9" t="s">
         <v>10</v>
       </c>
-      <c r="L2" s="12"/>
-      <c r="M2" s="12"/>
-      <c r="N2" s="12"/>
-      <c r="O2" s="12"/>
-      <c r="P2" s="12"/>
-      <c r="Q2" s="12" t="s">
+      <c r="L2" s="9"/>
+      <c r="M2" s="9"/>
+      <c r="N2" s="9"/>
+      <c r="O2" s="9"/>
+      <c r="P2" s="9"/>
+      <c r="Q2" s="9" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="3" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A3" s="2"/>
       <c r="B3" s="2"/>
-      <c r="C3" s="12" t="s">
+      <c r="C3" s="9" t="s">
         <v>3</v>
       </c>
-      <c r="D3" s="12"/>
-      <c r="E3" s="12" t="s">
+      <c r="D3" s="9"/>
+      <c r="E3" s="9" t="s">
         <v>6</v>
       </c>
-      <c r="F3" s="12"/>
-      <c r="G3" s="14" t="s">
+      <c r="F3" s="9"/>
+      <c r="G3" s="10" t="s">
         <v>7</v>
       </c>
-      <c r="H3" s="14"/>
-      <c r="I3" s="12"/>
-      <c r="J3" s="12"/>
-      <c r="K3" s="12" t="s">
+      <c r="H3" s="10"/>
+      <c r="I3" s="9"/>
+      <c r="J3" s="9"/>
+      <c r="K3" s="9" t="s">
         <v>11</v>
       </c>
-      <c r="L3" s="12"/>
-      <c r="M3" s="12" t="s">
+      <c r="L3" s="9"/>
+      <c r="M3" s="9" t="s">
         <v>6</v>
       </c>
-      <c r="N3" s="12"/>
-      <c r="O3" s="12" t="s">
+      <c r="N3" s="9"/>
+      <c r="O3" s="9" t="s">
         <v>7</v>
       </c>
-      <c r="P3" s="12"/>
-      <c r="Q3" s="12"/>
+      <c r="P3" s="9"/>
+      <c r="Q3" s="9"/>
     </row>
     <row r="4" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A4" s="2"/>
@@ -1538,1628 +1551,1628 @@
       <c r="P4" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="Q4" s="12"/>
-    </row>
-    <row r="5" spans="1:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="5" t="s">
+      <c r="Q4" s="9"/>
+    </row>
+    <row r="5" spans="1:17" s="15" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A5" s="11" t="s">
         <v>12</v>
       </c>
-      <c r="B5" s="6" t="s">
+      <c r="B5" s="12" t="s">
         <v>13</v>
       </c>
-      <c r="C5" s="3">
-        <v>20.72</v>
-      </c>
-      <c r="D5" s="4" t="s">
+      <c r="C5" s="13" t="s">
+        <v>21</v>
+      </c>
+      <c r="D5" s="14" t="s">
         <v>14</v>
       </c>
-      <c r="E5" s="5" t="s">
+      <c r="E5" s="11" t="s">
         <v>280</v>
       </c>
-      <c r="F5" s="5"/>
-      <c r="G5" s="5"/>
-      <c r="H5" s="5"/>
-      <c r="I5" s="5"/>
-      <c r="J5" s="5"/>
-      <c r="K5" s="5"/>
-      <c r="L5" s="5"/>
-      <c r="M5" s="5"/>
-      <c r="N5" s="5"/>
-      <c r="O5" s="5"/>
-      <c r="P5" s="5"/>
-      <c r="Q5" s="5" t="s">
+      <c r="F5" s="11"/>
+      <c r="G5" s="11"/>
+      <c r="H5" s="11"/>
+      <c r="I5" s="11"/>
+      <c r="J5" s="11"/>
+      <c r="K5" s="11"/>
+      <c r="L5" s="11"/>
+      <c r="M5" s="11"/>
+      <c r="N5" s="11"/>
+      <c r="O5" s="11"/>
+      <c r="P5" s="11"/>
+      <c r="Q5" s="11" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="6" spans="1:17" s="9" customFormat="1" ht="16.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="7">
+    <row r="6" spans="1:17" s="5" customFormat="1" ht="16.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="3">
         <v>1</v>
       </c>
-      <c r="B6" s="7" t="s">
+      <c r="B6" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="C6" s="7"/>
-      <c r="D6" s="7"/>
-      <c r="E6" s="7"/>
-      <c r="F6" s="7"/>
-      <c r="G6" s="8"/>
-      <c r="H6" s="7"/>
-      <c r="I6" s="7"/>
-      <c r="J6" s="7"/>
-      <c r="K6" s="7"/>
-      <c r="L6" s="7"/>
-      <c r="M6" s="7"/>
-      <c r="N6" s="7"/>
-      <c r="O6" s="7"/>
-      <c r="P6" s="7"/>
-      <c r="Q6" s="11" t="s">
-        <v>279</v>
-      </c>
-    </row>
-    <row r="7" spans="1:17" s="9" customFormat="1" ht="16.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="7" t="s">
+      <c r="C6" s="3"/>
+      <c r="D6" s="3"/>
+      <c r="E6" s="3"/>
+      <c r="F6" s="3"/>
+      <c r="G6" s="4"/>
+      <c r="H6" s="3"/>
+      <c r="I6" s="3"/>
+      <c r="J6" s="3"/>
+      <c r="K6" s="3"/>
+      <c r="L6" s="3"/>
+      <c r="M6" s="3"/>
+      <c r="N6" s="3"/>
+      <c r="O6" s="3"/>
+      <c r="P6" s="3"/>
+      <c r="Q6" s="7" t="s">
+        <v>279</v>
+      </c>
+    </row>
+    <row r="7" spans="1:17" s="5" customFormat="1" ht="16.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="3" t="s">
         <v>271</v>
       </c>
-      <c r="B7" s="7" t="s">
+      <c r="B7" s="3" t="s">
         <v>272</v>
       </c>
-      <c r="C7" s="7"/>
-      <c r="D7" s="7"/>
-      <c r="E7" s="7"/>
-      <c r="F7" s="7"/>
-      <c r="G7" s="7"/>
-      <c r="H7" s="7"/>
-      <c r="I7" s="7"/>
-      <c r="J7" s="7"/>
-      <c r="K7" s="7"/>
-      <c r="L7" s="7"/>
-      <c r="M7" s="7"/>
-      <c r="N7" s="7"/>
-      <c r="O7" s="7"/>
-      <c r="P7" s="7"/>
-      <c r="Q7" s="11" t="s">
-        <v>279</v>
-      </c>
-    </row>
-    <row r="8" spans="1:17" s="9" customFormat="1" ht="16.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="7" t="s">
+      <c r="C7" s="3"/>
+      <c r="D7" s="3"/>
+      <c r="E7" s="3"/>
+      <c r="F7" s="3"/>
+      <c r="G7" s="3"/>
+      <c r="H7" s="3"/>
+      <c r="I7" s="3"/>
+      <c r="J7" s="3"/>
+      <c r="K7" s="3"/>
+      <c r="L7" s="3"/>
+      <c r="M7" s="3"/>
+      <c r="N7" s="3"/>
+      <c r="O7" s="3"/>
+      <c r="P7" s="3"/>
+      <c r="Q7" s="7" t="s">
+        <v>279</v>
+      </c>
+    </row>
+    <row r="8" spans="1:17" s="5" customFormat="1" ht="16.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="B8" s="7" t="s">
+      <c r="B8" s="3" t="s">
         <v>273</v>
       </c>
-      <c r="C8" s="7"/>
-      <c r="D8" s="7"/>
-      <c r="E8" s="7"/>
-      <c r="F8" s="7"/>
-      <c r="G8" s="7"/>
-      <c r="H8" s="7"/>
-      <c r="I8" s="7"/>
-      <c r="J8" s="7"/>
-      <c r="K8" s="7"/>
-      <c r="L8" s="7"/>
-      <c r="M8" s="7"/>
-      <c r="N8" s="7"/>
-      <c r="O8" s="7"/>
-      <c r="P8" s="7"/>
-      <c r="Q8" s="11" t="s">
-        <v>279</v>
-      </c>
-    </row>
-    <row r="9" spans="1:17" s="9" customFormat="1" ht="16.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="7" t="s">
+      <c r="C8" s="3"/>
+      <c r="D8" s="3"/>
+      <c r="E8" s="3"/>
+      <c r="F8" s="3"/>
+      <c r="G8" s="3"/>
+      <c r="H8" s="3"/>
+      <c r="I8" s="3"/>
+      <c r="J8" s="3"/>
+      <c r="K8" s="3"/>
+      <c r="L8" s="3"/>
+      <c r="M8" s="3"/>
+      <c r="N8" s="3"/>
+      <c r="O8" s="3"/>
+      <c r="P8" s="3"/>
+      <c r="Q8" s="7" t="s">
+        <v>279</v>
+      </c>
+    </row>
+    <row r="9" spans="1:17" s="5" customFormat="1" ht="16.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="B9" s="7" t="s">
+      <c r="B9" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="C9" s="7"/>
-      <c r="D9" s="7"/>
-      <c r="E9" s="7"/>
-      <c r="F9" s="7"/>
-      <c r="G9" s="7">
-        <v>20.72</v>
-      </c>
-      <c r="H9" s="7" t="s">
+      <c r="C9" s="3"/>
+      <c r="D9" s="3"/>
+      <c r="E9" s="3"/>
+      <c r="F9" s="3"/>
+      <c r="G9" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="H9" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="I9" s="7"/>
-      <c r="J9" s="7" t="s">
+      <c r="I9" s="3"/>
+      <c r="J9" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="K9" s="7" t="s">
+      <c r="K9" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="L9" s="7" t="s">
+      <c r="L9" s="3" t="s">
         <v>25</v>
       </c>
-      <c r="M9" s="7" t="s">
+      <c r="M9" s="3" t="s">
         <v>26</v>
       </c>
-      <c r="N9" s="7" t="s">
+      <c r="N9" s="3" t="s">
         <v>27</v>
       </c>
-      <c r="O9" s="7" t="s">
+      <c r="O9" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="P9" s="7" t="s">
+      <c r="P9" s="3" t="s">
         <v>28</v>
       </c>
-      <c r="Q9" s="11" t="s">
-        <v>279</v>
-      </c>
-    </row>
-    <row r="10" spans="1:17" s="9" customFormat="1" ht="16.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="7" t="s">
+      <c r="Q9" s="7" t="s">
+        <v>279</v>
+      </c>
+    </row>
+    <row r="10" spans="1:17" s="5" customFormat="1" ht="16.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A10" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="B10" s="7" t="s">
+      <c r="B10" s="3" t="s">
         <v>29</v>
       </c>
-      <c r="C10" s="7"/>
-      <c r="D10" s="7"/>
-      <c r="E10" s="7"/>
-      <c r="F10" s="7"/>
-      <c r="G10" s="7" t="s">
+      <c r="C10" s="3"/>
+      <c r="D10" s="3"/>
+      <c r="E10" s="3"/>
+      <c r="F10" s="3"/>
+      <c r="G10" s="3" t="s">
         <v>30</v>
       </c>
-      <c r="H10" s="7" t="s">
+      <c r="H10" s="3" t="s">
         <v>31</v>
       </c>
-      <c r="I10" s="7"/>
-      <c r="J10" s="7" t="s">
+      <c r="I10" s="3"/>
+      <c r="J10" s="3" t="s">
         <v>32</v>
       </c>
-      <c r="K10" s="7" t="s">
+      <c r="K10" s="3" t="s">
         <v>33</v>
       </c>
-      <c r="L10" s="7" t="s">
+      <c r="L10" s="3" t="s">
         <v>34</v>
       </c>
-      <c r="M10" s="7" t="s">
+      <c r="M10" s="3" t="s">
         <v>35</v>
       </c>
-      <c r="N10" s="7" t="s">
+      <c r="N10" s="3" t="s">
         <v>36</v>
       </c>
-      <c r="O10" s="7" t="s">
+      <c r="O10" s="3" t="s">
         <v>30</v>
       </c>
-      <c r="P10" s="7" t="s">
+      <c r="P10" s="3" t="s">
         <v>31</v>
       </c>
-      <c r="Q10" s="11" t="s">
-        <v>279</v>
-      </c>
-    </row>
-    <row r="11" spans="1:17" s="9" customFormat="1" ht="16.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="7" t="s">
+      <c r="Q10" s="7" t="s">
+        <v>279</v>
+      </c>
+    </row>
+    <row r="11" spans="1:17" s="5" customFormat="1" ht="16.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A11" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="B11" s="7" t="s">
+      <c r="B11" s="3" t="s">
         <v>37</v>
       </c>
-      <c r="C11" s="7"/>
-      <c r="D11" s="7"/>
-      <c r="E11" s="7"/>
-      <c r="F11" s="7"/>
-      <c r="G11" s="7" t="s">
+      <c r="C11" s="3"/>
+      <c r="D11" s="3"/>
+      <c r="E11" s="3"/>
+      <c r="F11" s="3"/>
+      <c r="G11" s="3" t="s">
         <v>38</v>
       </c>
-      <c r="H11" s="7" t="s">
+      <c r="H11" s="3" t="s">
         <v>39</v>
       </c>
-      <c r="I11" s="7"/>
-      <c r="J11" s="7" t="s">
+      <c r="I11" s="3"/>
+      <c r="J11" s="3" t="s">
         <v>40</v>
       </c>
-      <c r="K11" s="7" t="s">
+      <c r="K11" s="3" t="s">
         <v>41</v>
       </c>
-      <c r="L11" s="7" t="s">
+      <c r="L11" s="3" t="s">
         <v>42</v>
       </c>
-      <c r="M11" s="7" t="s">
+      <c r="M11" s="3" t="s">
         <v>43</v>
       </c>
-      <c r="N11" s="7" t="s">
+      <c r="N11" s="3" t="s">
         <v>44</v>
       </c>
-      <c r="O11" s="7" t="s">
+      <c r="O11" s="3" t="s">
         <v>38</v>
       </c>
-      <c r="P11" s="7" t="s">
+      <c r="P11" s="3" t="s">
         <v>39</v>
       </c>
-      <c r="Q11" s="11" t="s">
-        <v>279</v>
-      </c>
-    </row>
-    <row r="12" spans="1:17" s="9" customFormat="1" ht="16.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="7" t="s">
+      <c r="Q11" s="7" t="s">
+        <v>279</v>
+      </c>
+    </row>
+    <row r="12" spans="1:17" s="5" customFormat="1" ht="16.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A12" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="B12" s="7" t="s">
+      <c r="B12" s="3" t="s">
         <v>45</v>
       </c>
-      <c r="C12" s="7"/>
-      <c r="D12" s="7"/>
-      <c r="E12" s="7"/>
-      <c r="F12" s="7"/>
-      <c r="G12" s="7" t="s">
+      <c r="C12" s="3"/>
+      <c r="D12" s="3"/>
+      <c r="E12" s="3"/>
+      <c r="F12" s="3"/>
+      <c r="G12" s="3" t="s">
         <v>46</v>
       </c>
-      <c r="H12" s="7" t="s">
+      <c r="H12" s="3" t="s">
         <v>47</v>
       </c>
-      <c r="I12" s="7"/>
-      <c r="J12" s="7" t="s">
+      <c r="I12" s="3"/>
+      <c r="J12" s="3" t="s">
         <v>48</v>
       </c>
-      <c r="K12" s="7" t="s">
+      <c r="K12" s="3" t="s">
         <v>49</v>
       </c>
-      <c r="L12" s="7" t="s">
+      <c r="L12" s="3" t="s">
         <v>50</v>
       </c>
-      <c r="M12" s="7" t="s">
+      <c r="M12" s="3" t="s">
         <v>51</v>
       </c>
-      <c r="N12" s="7" t="s">
+      <c r="N12" s="3" t="s">
         <v>52</v>
       </c>
-      <c r="O12" s="7" t="s">
+      <c r="O12" s="3" t="s">
         <v>46</v>
       </c>
-      <c r="P12" s="7" t="s">
+      <c r="P12" s="3" t="s">
         <v>47</v>
       </c>
-      <c r="Q12" s="11" t="s">
-        <v>279</v>
-      </c>
-    </row>
-    <row r="13" spans="1:17" s="9" customFormat="1" ht="16.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="7" t="s">
+      <c r="Q12" s="7" t="s">
+        <v>279</v>
+      </c>
+    </row>
+    <row r="13" spans="1:17" s="5" customFormat="1" ht="16.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A13" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="B13" s="7" t="s">
+      <c r="B13" s="3" t="s">
         <v>53</v>
       </c>
-      <c r="C13" s="7"/>
-      <c r="D13" s="7"/>
-      <c r="E13" s="7"/>
-      <c r="F13" s="7"/>
-      <c r="G13" s="7" t="s">
+      <c r="C13" s="3"/>
+      <c r="D13" s="3"/>
+      <c r="E13" s="3"/>
+      <c r="F13" s="3"/>
+      <c r="G13" s="3" t="s">
         <v>54</v>
       </c>
-      <c r="H13" s="7" t="s">
+      <c r="H13" s="3" t="s">
         <v>55</v>
       </c>
-      <c r="I13" s="7"/>
-      <c r="J13" s="7" t="s">
+      <c r="I13" s="3"/>
+      <c r="J13" s="3" t="s">
         <v>56</v>
       </c>
-      <c r="K13" s="7" t="s">
+      <c r="K13" s="3" t="s">
         <v>57</v>
       </c>
-      <c r="L13" s="7" t="s">
+      <c r="L13" s="3" t="s">
         <v>58</v>
       </c>
-      <c r="M13" s="7" t="s">
+      <c r="M13" s="3" t="s">
         <v>59</v>
       </c>
-      <c r="N13" s="7" t="s">
+      <c r="N13" s="3" t="s">
         <v>60</v>
       </c>
-      <c r="O13" s="7" t="s">
+      <c r="O13" s="3" t="s">
         <v>54</v>
       </c>
-      <c r="P13" s="7" t="s">
+      <c r="P13" s="3" t="s">
         <v>55</v>
       </c>
-      <c r="Q13" s="11" t="s">
-        <v>279</v>
-      </c>
-    </row>
-    <row r="14" spans="1:17" s="9" customFormat="1" ht="16.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="7" t="s">
+      <c r="Q13" s="7" t="s">
+        <v>279</v>
+      </c>
+    </row>
+    <row r="14" spans="1:17" s="5" customFormat="1" ht="16.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A14" s="3" t="s">
         <v>274</v>
       </c>
-      <c r="B14" s="7" t="s">
+      <c r="B14" s="3" t="s">
         <v>275</v>
       </c>
-      <c r="C14" s="7"/>
-      <c r="D14" s="7"/>
-      <c r="E14" s="7"/>
-      <c r="F14" s="7"/>
-      <c r="G14" s="7"/>
-      <c r="H14" s="7"/>
-      <c r="I14" s="7"/>
-      <c r="J14" s="7"/>
-      <c r="K14" s="7"/>
-      <c r="L14" s="7"/>
-      <c r="M14" s="7"/>
-      <c r="N14" s="7"/>
-      <c r="O14" s="7"/>
-      <c r="P14" s="7"/>
-      <c r="Q14" s="11" t="s">
-        <v>279</v>
-      </c>
-    </row>
-    <row r="15" spans="1:17" s="9" customFormat="1" ht="16.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="7" t="s">
+      <c r="C14" s="3"/>
+      <c r="D14" s="3"/>
+      <c r="E14" s="3"/>
+      <c r="F14" s="3"/>
+      <c r="G14" s="3"/>
+      <c r="H14" s="3"/>
+      <c r="I14" s="3"/>
+      <c r="J14" s="3"/>
+      <c r="K14" s="3"/>
+      <c r="L14" s="3"/>
+      <c r="M14" s="3"/>
+      <c r="N14" s="3"/>
+      <c r="O14" s="3"/>
+      <c r="P14" s="3"/>
+      <c r="Q14" s="7" t="s">
+        <v>279</v>
+      </c>
+    </row>
+    <row r="15" spans="1:17" s="5" customFormat="1" ht="16.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A15" s="3" t="s">
         <v>276</v>
       </c>
-      <c r="B15" s="7" t="s">
+      <c r="B15" s="3" t="s">
         <v>273</v>
       </c>
-      <c r="C15" s="7"/>
-      <c r="D15" s="7"/>
-      <c r="E15" s="7"/>
-      <c r="F15" s="7"/>
-      <c r="G15" s="7"/>
-      <c r="H15" s="7"/>
-      <c r="I15" s="7"/>
-      <c r="J15" s="7"/>
-      <c r="K15" s="7"/>
-      <c r="L15" s="7"/>
-      <c r="M15" s="7"/>
-      <c r="N15" s="7"/>
-      <c r="O15" s="7"/>
-      <c r="P15" s="7"/>
-      <c r="Q15" s="11" t="s">
-        <v>279</v>
-      </c>
-    </row>
-    <row r="16" spans="1:17" s="9" customFormat="1" ht="16.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="7" t="s">
+      <c r="C15" s="3"/>
+      <c r="D15" s="3"/>
+      <c r="E15" s="3"/>
+      <c r="F15" s="3"/>
+      <c r="G15" s="3"/>
+      <c r="H15" s="3"/>
+      <c r="I15" s="3"/>
+      <c r="J15" s="3"/>
+      <c r="K15" s="3"/>
+      <c r="L15" s="3"/>
+      <c r="M15" s="3"/>
+      <c r="N15" s="3"/>
+      <c r="O15" s="3"/>
+      <c r="P15" s="3"/>
+      <c r="Q15" s="7" t="s">
+        <v>279</v>
+      </c>
+    </row>
+    <row r="16" spans="1:17" s="5" customFormat="1" ht="16.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A16" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="B16" s="7" t="s">
+      <c r="B16" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="C16" s="7"/>
-      <c r="D16" s="7"/>
-      <c r="E16" s="7"/>
-      <c r="F16" s="7"/>
-      <c r="G16" s="7" t="s">
+      <c r="C16" s="3"/>
+      <c r="D16" s="3"/>
+      <c r="E16" s="3"/>
+      <c r="F16" s="3"/>
+      <c r="G16" s="3" t="s">
         <v>61</v>
       </c>
-      <c r="H16" s="7" t="s">
+      <c r="H16" s="3" t="s">
         <v>62</v>
       </c>
-      <c r="I16" s="7"/>
-      <c r="J16" s="7" t="s">
+      <c r="I16" s="3"/>
+      <c r="J16" s="3" t="s">
         <v>63</v>
       </c>
-      <c r="K16" s="7" t="s">
+      <c r="K16" s="3" t="s">
         <v>64</v>
       </c>
-      <c r="L16" s="7" t="s">
+      <c r="L16" s="3" t="s">
         <v>65</v>
       </c>
-      <c r="M16" s="7" t="s">
+      <c r="M16" s="3" t="s">
         <v>66</v>
       </c>
-      <c r="N16" s="7" t="s">
+      <c r="N16" s="3" t="s">
         <v>67</v>
       </c>
-      <c r="O16" s="7" t="s">
+      <c r="O16" s="3" t="s">
         <v>61</v>
       </c>
-      <c r="P16" s="7" t="s">
+      <c r="P16" s="3" t="s">
         <v>62</v>
       </c>
-      <c r="Q16" s="11" t="s">
-        <v>279</v>
-      </c>
-    </row>
-    <row r="17" spans="1:17" s="9" customFormat="1" ht="16.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="7" t="s">
+      <c r="Q16" s="7" t="s">
+        <v>279</v>
+      </c>
+    </row>
+    <row r="17" spans="1:17" s="5" customFormat="1" ht="16.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A17" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="B17" s="7" t="s">
+      <c r="B17" s="3" t="s">
         <v>29</v>
       </c>
-      <c r="C17" s="7"/>
-      <c r="D17" s="7"/>
-      <c r="E17" s="7"/>
-      <c r="F17" s="7"/>
-      <c r="G17" s="7" t="s">
+      <c r="C17" s="3"/>
+      <c r="D17" s="3"/>
+      <c r="E17" s="3"/>
+      <c r="F17" s="3"/>
+      <c r="G17" s="3" t="s">
         <v>68</v>
       </c>
-      <c r="H17" s="7" t="s">
+      <c r="H17" s="3" t="s">
         <v>69</v>
       </c>
-      <c r="I17" s="7"/>
-      <c r="J17" s="7" t="s">
+      <c r="I17" s="3"/>
+      <c r="J17" s="3" t="s">
         <v>70</v>
       </c>
-      <c r="K17" s="7" t="s">
+      <c r="K17" s="3" t="s">
         <v>71</v>
       </c>
-      <c r="L17" s="7" t="s">
+      <c r="L17" s="3" t="s">
         <v>72</v>
       </c>
-      <c r="M17" s="7" t="s">
+      <c r="M17" s="3" t="s">
         <v>73</v>
       </c>
-      <c r="N17" s="7" t="s">
+      <c r="N17" s="3" t="s">
         <v>74</v>
       </c>
-      <c r="O17" s="7" t="s">
+      <c r="O17" s="3" t="s">
         <v>68</v>
       </c>
-      <c r="P17" s="7" t="s">
+      <c r="P17" s="3" t="s">
         <v>69</v>
       </c>
-      <c r="Q17" s="11" t="s">
-        <v>279</v>
-      </c>
-    </row>
-    <row r="18" spans="1:17" s="9" customFormat="1" ht="16.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="7" t="s">
+      <c r="Q17" s="7" t="s">
+        <v>279</v>
+      </c>
+    </row>
+    <row r="18" spans="1:17" s="5" customFormat="1" ht="16.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A18" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="B18" s="7" t="s">
+      <c r="B18" s="3" t="s">
         <v>75</v>
       </c>
-      <c r="C18" s="7"/>
-      <c r="D18" s="7"/>
-      <c r="E18" s="7"/>
-      <c r="F18" s="7"/>
-      <c r="G18" s="7" t="s">
+      <c r="C18" s="3"/>
+      <c r="D18" s="3"/>
+      <c r="E18" s="3"/>
+      <c r="F18" s="3"/>
+      <c r="G18" s="3" t="s">
         <v>76</v>
       </c>
-      <c r="H18" s="7" t="s">
+      <c r="H18" s="3" t="s">
         <v>77</v>
       </c>
-      <c r="I18" s="7"/>
-      <c r="J18" s="7" t="s">
+      <c r="I18" s="3"/>
+      <c r="J18" s="3" t="s">
         <v>78</v>
       </c>
-      <c r="K18" s="7" t="s">
+      <c r="K18" s="3" t="s">
         <v>79</v>
       </c>
-      <c r="L18" s="7" t="s">
+      <c r="L18" s="3" t="s">
         <v>80</v>
       </c>
-      <c r="M18" s="7" t="s">
+      <c r="M18" s="3" t="s">
         <v>81</v>
       </c>
-      <c r="N18" s="7" t="s">
+      <c r="N18" s="3" t="s">
         <v>82</v>
       </c>
-      <c r="O18" s="7" t="s">
+      <c r="O18" s="3" t="s">
         <v>76</v>
       </c>
-      <c r="P18" s="7" t="s">
+      <c r="P18" s="3" t="s">
         <v>77</v>
       </c>
-      <c r="Q18" s="11" t="s">
-        <v>279</v>
-      </c>
-    </row>
-    <row r="19" spans="1:17" s="9" customFormat="1" ht="16.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="7" t="s">
+      <c r="Q18" s="7" t="s">
+        <v>279</v>
+      </c>
+    </row>
+    <row r="19" spans="1:17" s="5" customFormat="1" ht="16.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A19" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="B19" s="7" t="s">
+      <c r="B19" s="3" t="s">
         <v>45</v>
       </c>
-      <c r="C19" s="7"/>
-      <c r="D19" s="7"/>
-      <c r="E19" s="7"/>
-      <c r="F19" s="7"/>
-      <c r="G19" s="7" t="s">
+      <c r="C19" s="3"/>
+      <c r="D19" s="3"/>
+      <c r="E19" s="3"/>
+      <c r="F19" s="3"/>
+      <c r="G19" s="3" t="s">
         <v>83</v>
       </c>
-      <c r="H19" s="7" t="s">
+      <c r="H19" s="3" t="s">
         <v>84</v>
       </c>
-      <c r="I19" s="7"/>
-      <c r="J19" s="7" t="s">
+      <c r="I19" s="3"/>
+      <c r="J19" s="3" t="s">
         <v>85</v>
       </c>
-      <c r="K19" s="7" t="s">
+      <c r="K19" s="3" t="s">
         <v>86</v>
       </c>
-      <c r="L19" s="7" t="s">
+      <c r="L19" s="3" t="s">
         <v>87</v>
       </c>
-      <c r="M19" s="7" t="s">
+      <c r="M19" s="3" t="s">
         <v>88</v>
       </c>
-      <c r="N19" s="7" t="s">
+      <c r="N19" s="3" t="s">
         <v>89</v>
       </c>
-      <c r="O19" s="7" t="s">
+      <c r="O19" s="3" t="s">
         <v>83</v>
       </c>
-      <c r="P19" s="7" t="s">
+      <c r="P19" s="3" t="s">
         <v>84</v>
       </c>
-      <c r="Q19" s="11" t="s">
-        <v>279</v>
-      </c>
-    </row>
-    <row r="20" spans="1:17" s="9" customFormat="1" ht="16.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="7" t="s">
+      <c r="Q19" s="7" t="s">
+        <v>279</v>
+      </c>
+    </row>
+    <row r="20" spans="1:17" s="5" customFormat="1" ht="16.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A20" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="B20" s="7" t="s">
+      <c r="B20" s="3" t="s">
         <v>53</v>
       </c>
-      <c r="C20" s="7"/>
-      <c r="D20" s="7"/>
-      <c r="E20" s="7"/>
-      <c r="F20" s="7"/>
-      <c r="G20" s="7" t="s">
+      <c r="C20" s="3"/>
+      <c r="D20" s="3"/>
+      <c r="E20" s="3"/>
+      <c r="F20" s="3"/>
+      <c r="G20" s="3" t="s">
         <v>90</v>
       </c>
-      <c r="H20" s="7" t="s">
+      <c r="H20" s="3" t="s">
         <v>91</v>
       </c>
-      <c r="I20" s="7"/>
-      <c r="J20" s="7" t="s">
+      <c r="I20" s="3"/>
+      <c r="J20" s="3" t="s">
         <v>92</v>
       </c>
-      <c r="K20" s="7" t="s">
+      <c r="K20" s="3" t="s">
         <v>93</v>
       </c>
-      <c r="L20" s="7" t="s">
+      <c r="L20" s="3" t="s">
         <v>94</v>
       </c>
-      <c r="M20" s="7" t="s">
+      <c r="M20" s="3" t="s">
         <v>95</v>
       </c>
-      <c r="N20" s="7" t="s">
+      <c r="N20" s="3" t="s">
         <v>96</v>
       </c>
-      <c r="O20" s="7" t="s">
+      <c r="O20" s="3" t="s">
         <v>90</v>
       </c>
-      <c r="P20" s="7" t="s">
+      <c r="P20" s="3" t="s">
         <v>91</v>
       </c>
-      <c r="Q20" s="11" t="s">
-        <v>279</v>
-      </c>
-    </row>
-    <row r="21" spans="1:17" s="9" customFormat="1" ht="16.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="7" t="s">
+      <c r="Q20" s="7" t="s">
+        <v>279</v>
+      </c>
+    </row>
+    <row r="21" spans="1:17" s="5" customFormat="1" ht="16.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A21" s="3" t="s">
         <v>277</v>
       </c>
-      <c r="B21" s="7" t="s">
+      <c r="B21" s="3" t="s">
         <v>278</v>
       </c>
-      <c r="C21" s="7"/>
-      <c r="D21" s="7"/>
-      <c r="E21" s="7"/>
-      <c r="F21" s="7"/>
-      <c r="G21" s="7"/>
-      <c r="H21" s="7"/>
-      <c r="I21" s="7"/>
-      <c r="J21" s="7"/>
-      <c r="K21" s="7"/>
-      <c r="L21" s="7"/>
-      <c r="M21" s="7"/>
-      <c r="N21" s="7"/>
-      <c r="O21" s="7"/>
-      <c r="P21" s="7"/>
-      <c r="Q21" s="11" t="s">
-        <v>279</v>
-      </c>
-    </row>
-    <row r="22" spans="1:17" s="9" customFormat="1" ht="16.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="7" t="s">
+      <c r="C21" s="3"/>
+      <c r="D21" s="3"/>
+      <c r="E21" s="3"/>
+      <c r="F21" s="3"/>
+      <c r="G21" s="3"/>
+      <c r="H21" s="3"/>
+      <c r="I21" s="3"/>
+      <c r="J21" s="3"/>
+      <c r="K21" s="3"/>
+      <c r="L21" s="3"/>
+      <c r="M21" s="3"/>
+      <c r="N21" s="3"/>
+      <c r="O21" s="3"/>
+      <c r="P21" s="3"/>
+      <c r="Q21" s="7" t="s">
+        <v>279</v>
+      </c>
+    </row>
+    <row r="22" spans="1:17" s="5" customFormat="1" ht="16.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A22" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="B22" s="7" t="s">
+      <c r="B22" s="3" t="s">
         <v>273</v>
       </c>
-      <c r="C22" s="7"/>
-      <c r="D22" s="7"/>
-      <c r="E22" s="7"/>
-      <c r="F22" s="7"/>
-      <c r="G22" s="7"/>
-      <c r="H22" s="7"/>
-      <c r="I22" s="7"/>
-      <c r="J22" s="7"/>
-      <c r="K22" s="7"/>
-      <c r="L22" s="7"/>
-      <c r="M22" s="7"/>
-      <c r="N22" s="7"/>
-      <c r="O22" s="7"/>
-      <c r="P22" s="7"/>
-      <c r="Q22" s="11" t="s">
-        <v>279</v>
-      </c>
-    </row>
-    <row r="23" spans="1:17" s="9" customFormat="1" ht="16.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A23" s="7" t="s">
+      <c r="C22" s="3"/>
+      <c r="D22" s="3"/>
+      <c r="E22" s="3"/>
+      <c r="F22" s="3"/>
+      <c r="G22" s="3"/>
+      <c r="H22" s="3"/>
+      <c r="I22" s="3"/>
+      <c r="J22" s="3"/>
+      <c r="K22" s="3"/>
+      <c r="L22" s="3"/>
+      <c r="M22" s="3"/>
+      <c r="N22" s="3"/>
+      <c r="O22" s="3"/>
+      <c r="P22" s="3"/>
+      <c r="Q22" s="7" t="s">
+        <v>279</v>
+      </c>
+    </row>
+    <row r="23" spans="1:17" s="5" customFormat="1" ht="16.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A23" s="3" t="s">
         <v>97</v>
       </c>
-      <c r="B23" s="7" t="s">
+      <c r="B23" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="C23" s="7"/>
-      <c r="D23" s="7"/>
-      <c r="E23" s="7"/>
-      <c r="F23" s="7"/>
-      <c r="G23" s="7" t="s">
+      <c r="C23" s="3"/>
+      <c r="D23" s="3"/>
+      <c r="E23" s="3"/>
+      <c r="F23" s="3"/>
+      <c r="G23" s="3" t="s">
         <v>98</v>
       </c>
-      <c r="H23" s="7" t="s">
+      <c r="H23" s="3" t="s">
         <v>99</v>
       </c>
-      <c r="I23" s="7"/>
-      <c r="J23" s="7" t="s">
+      <c r="I23" s="3"/>
+      <c r="J23" s="3" t="s">
         <v>100</v>
       </c>
-      <c r="K23" s="7" t="s">
+      <c r="K23" s="3" t="s">
         <v>101</v>
       </c>
-      <c r="L23" s="7" t="s">
+      <c r="L23" s="3" t="s">
         <v>102</v>
       </c>
-      <c r="M23" s="7" t="s">
+      <c r="M23" s="3" t="s">
         <v>103</v>
       </c>
-      <c r="N23" s="7" t="s">
+      <c r="N23" s="3" t="s">
         <v>104</v>
       </c>
-      <c r="O23" s="7" t="s">
+      <c r="O23" s="3" t="s">
         <v>98</v>
       </c>
-      <c r="P23" s="7" t="s">
+      <c r="P23" s="3" t="s">
         <v>99</v>
       </c>
-      <c r="Q23" s="11" t="s">
-        <v>279</v>
-      </c>
-    </row>
-    <row r="24" spans="1:17" s="9" customFormat="1" ht="16.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A24" s="7" t="s">
+      <c r="Q23" s="7" t="s">
+        <v>279</v>
+      </c>
+    </row>
+    <row r="24" spans="1:17" s="5" customFormat="1" ht="16.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A24" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="B24" s="7" t="s">
+      <c r="B24" s="3" t="s">
         <v>29</v>
       </c>
-      <c r="C24" s="7"/>
-      <c r="D24" s="7"/>
-      <c r="E24" s="7"/>
-      <c r="F24" s="7"/>
-      <c r="G24" s="7" t="s">
+      <c r="C24" s="3"/>
+      <c r="D24" s="3"/>
+      <c r="E24" s="3"/>
+      <c r="F24" s="3"/>
+      <c r="G24" s="3" t="s">
         <v>105</v>
       </c>
-      <c r="H24" s="7" t="s">
+      <c r="H24" s="3" t="s">
         <v>106</v>
       </c>
-      <c r="I24" s="7"/>
-      <c r="J24" s="7" t="s">
+      <c r="I24" s="3"/>
+      <c r="J24" s="3" t="s">
         <v>107</v>
       </c>
-      <c r="K24" s="7" t="s">
+      <c r="K24" s="3" t="s">
         <v>108</v>
       </c>
-      <c r="L24" s="7" t="s">
+      <c r="L24" s="3" t="s">
         <v>109</v>
       </c>
-      <c r="M24" s="7" t="s">
+      <c r="M24" s="3" t="s">
         <v>110</v>
       </c>
-      <c r="N24" s="7" t="s">
+      <c r="N24" s="3" t="s">
         <v>111</v>
       </c>
-      <c r="O24" s="7" t="s">
+      <c r="O24" s="3" t="s">
         <v>105</v>
       </c>
-      <c r="P24" s="7" t="s">
+      <c r="P24" s="3" t="s">
         <v>106</v>
       </c>
-      <c r="Q24" s="11" t="s">
-        <v>279</v>
-      </c>
-    </row>
-    <row r="25" spans="1:17" s="9" customFormat="1" ht="16.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A25" s="7" t="s">
+      <c r="Q24" s="7" t="s">
+        <v>279</v>
+      </c>
+    </row>
+    <row r="25" spans="1:17" s="5" customFormat="1" ht="16.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A25" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="B25" s="7" t="s">
+      <c r="B25" s="3" t="s">
         <v>37</v>
       </c>
-      <c r="C25" s="7"/>
-      <c r="D25" s="7"/>
-      <c r="E25" s="7"/>
-      <c r="F25" s="7"/>
-      <c r="G25" s="7" t="s">
+      <c r="C25" s="3"/>
+      <c r="D25" s="3"/>
+      <c r="E25" s="3"/>
+      <c r="F25" s="3"/>
+      <c r="G25" s="3" t="s">
         <v>112</v>
       </c>
-      <c r="H25" s="7" t="s">
+      <c r="H25" s="3" t="s">
         <v>113</v>
       </c>
-      <c r="I25" s="7"/>
-      <c r="J25" s="7" t="s">
+      <c r="I25" s="3"/>
+      <c r="J25" s="3" t="s">
         <v>114</v>
       </c>
-      <c r="K25" s="7" t="s">
+      <c r="K25" s="3" t="s">
         <v>115</v>
       </c>
-      <c r="L25" s="7" t="s">
+      <c r="L25" s="3" t="s">
         <v>116</v>
       </c>
-      <c r="M25" s="7" t="s">
+      <c r="M25" s="3" t="s">
         <v>117</v>
       </c>
-      <c r="N25" s="7" t="s">
+      <c r="N25" s="3" t="s">
         <v>118</v>
       </c>
-      <c r="O25" s="7" t="s">
+      <c r="O25" s="3" t="s">
         <v>112</v>
       </c>
-      <c r="P25" s="7" t="s">
+      <c r="P25" s="3" t="s">
         <v>113</v>
       </c>
-      <c r="Q25" s="11" t="s">
-        <v>279</v>
-      </c>
-    </row>
-    <row r="26" spans="1:17" s="9" customFormat="1" ht="16.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A26" s="7" t="s">
+      <c r="Q25" s="7" t="s">
+        <v>279</v>
+      </c>
+    </row>
+    <row r="26" spans="1:17" s="5" customFormat="1" ht="16.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A26" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="B26" s="7" t="s">
+      <c r="B26" s="3" t="s">
         <v>119</v>
       </c>
-      <c r="C26" s="7"/>
-      <c r="D26" s="7"/>
-      <c r="E26" s="7"/>
-      <c r="F26" s="7"/>
-      <c r="G26" s="7" t="s">
+      <c r="C26" s="3"/>
+      <c r="D26" s="3"/>
+      <c r="E26" s="3"/>
+      <c r="F26" s="3"/>
+      <c r="G26" s="3" t="s">
         <v>120</v>
       </c>
-      <c r="H26" s="7" t="s">
+      <c r="H26" s="3" t="s">
         <v>121</v>
       </c>
-      <c r="I26" s="7"/>
-      <c r="J26" s="7" t="s">
+      <c r="I26" s="3"/>
+      <c r="J26" s="3" t="s">
         <v>122</v>
       </c>
-      <c r="K26" s="7" t="s">
+      <c r="K26" s="3" t="s">
         <v>123</v>
       </c>
-      <c r="L26" s="7" t="s">
+      <c r="L26" s="3" t="s">
         <v>124</v>
       </c>
-      <c r="M26" s="7" t="s">
+      <c r="M26" s="3" t="s">
         <v>125</v>
       </c>
-      <c r="N26" s="7" t="s">
+      <c r="N26" s="3" t="s">
         <v>126</v>
       </c>
-      <c r="O26" s="7" t="s">
+      <c r="O26" s="3" t="s">
         <v>120</v>
       </c>
-      <c r="P26" s="7" t="s">
+      <c r="P26" s="3" t="s">
         <v>121</v>
       </c>
-      <c r="Q26" s="11" t="s">
-        <v>279</v>
-      </c>
-    </row>
-    <row r="27" spans="1:17" s="9" customFormat="1" ht="16.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A27" s="7" t="s">
+      <c r="Q26" s="7" t="s">
+        <v>279</v>
+      </c>
+    </row>
+    <row r="27" spans="1:17" s="5" customFormat="1" ht="16.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A27" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="B27" s="7" t="s">
+      <c r="B27" s="3" t="s">
         <v>53</v>
       </c>
-      <c r="C27" s="7"/>
-      <c r="D27" s="7"/>
-      <c r="E27" s="7"/>
-      <c r="F27" s="7"/>
-      <c r="G27" s="7" t="s">
+      <c r="C27" s="3"/>
+      <c r="D27" s="3"/>
+      <c r="E27" s="3"/>
+      <c r="F27" s="3"/>
+      <c r="G27" s="3" t="s">
         <v>127</v>
       </c>
-      <c r="H27" s="7" t="s">
+      <c r="H27" s="3" t="s">
         <v>128</v>
       </c>
-      <c r="I27" s="7"/>
-      <c r="J27" s="7" t="s">
+      <c r="I27" s="3"/>
+      <c r="J27" s="3" t="s">
         <v>129</v>
       </c>
-      <c r="K27" s="7" t="s">
+      <c r="K27" s="3" t="s">
         <v>130</v>
       </c>
-      <c r="L27" s="7" t="s">
+      <c r="L27" s="3" t="s">
         <v>131</v>
       </c>
-      <c r="M27" s="7" t="s">
+      <c r="M27" s="3" t="s">
         <v>132</v>
       </c>
-      <c r="N27" s="7" t="s">
+      <c r="N27" s="3" t="s">
         <v>133</v>
       </c>
-      <c r="O27" s="7" t="s">
+      <c r="O27" s="3" t="s">
         <v>127</v>
       </c>
-      <c r="P27" s="7" t="s">
+      <c r="P27" s="3" t="s">
         <v>128</v>
       </c>
-      <c r="Q27" s="11" t="s">
-        <v>279</v>
-      </c>
-    </row>
-    <row r="28" spans="1:17" s="9" customFormat="1" ht="16.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A28" s="7" t="s">
+      <c r="Q27" s="7" t="s">
+        <v>279</v>
+      </c>
+    </row>
+    <row r="28" spans="1:17" s="5" customFormat="1" ht="16.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A28" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="B28" s="10" t="s">
+      <c r="B28" s="6" t="s">
         <v>134</v>
       </c>
-      <c r="C28" s="10"/>
-      <c r="D28" s="10"/>
-      <c r="E28" s="10"/>
-      <c r="F28" s="10"/>
-      <c r="G28" s="7"/>
-      <c r="H28" s="7"/>
-      <c r="I28" s="7"/>
-      <c r="J28" s="7"/>
-      <c r="K28" s="7"/>
-      <c r="L28" s="7"/>
-      <c r="M28" s="7"/>
-      <c r="N28" s="7"/>
-      <c r="O28" s="7"/>
-      <c r="P28" s="7"/>
-      <c r="Q28" s="11" t="s">
-        <v>279</v>
-      </c>
-    </row>
-    <row r="29" spans="1:17" s="9" customFormat="1" ht="16.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A29" s="7" t="s">
+      <c r="C28" s="6"/>
+      <c r="D28" s="6"/>
+      <c r="E28" s="6"/>
+      <c r="F28" s="6"/>
+      <c r="G28" s="3"/>
+      <c r="H28" s="3"/>
+      <c r="I28" s="3"/>
+      <c r="J28" s="3"/>
+      <c r="K28" s="3"/>
+      <c r="L28" s="3"/>
+      <c r="M28" s="3"/>
+      <c r="N28" s="3"/>
+      <c r="O28" s="3"/>
+      <c r="P28" s="3"/>
+      <c r="Q28" s="7" t="s">
+        <v>279</v>
+      </c>
+    </row>
+    <row r="29" spans="1:17" s="5" customFormat="1" ht="16.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A29" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="B29" s="7" t="s">
+      <c r="B29" s="3" t="s">
         <v>135</v>
       </c>
-      <c r="C29" s="7"/>
-      <c r="D29" s="7"/>
-      <c r="E29" s="7"/>
-      <c r="F29" s="7"/>
-      <c r="G29" s="7" t="s">
+      <c r="C29" s="3"/>
+      <c r="D29" s="3"/>
+      <c r="E29" s="3"/>
+      <c r="F29" s="3"/>
+      <c r="G29" s="3" t="s">
         <v>136</v>
       </c>
-      <c r="H29" s="7" t="s">
+      <c r="H29" s="3" t="s">
         <v>137</v>
       </c>
-      <c r="I29" s="7"/>
-      <c r="J29" s="7" t="s">
+      <c r="I29" s="3"/>
+      <c r="J29" s="3" t="s">
         <v>138</v>
       </c>
-      <c r="K29" s="7" t="s">
+      <c r="K29" s="3" t="s">
         <v>139</v>
       </c>
-      <c r="L29" s="7" t="s">
+      <c r="L29" s="3" t="s">
         <v>140</v>
       </c>
-      <c r="M29" s="7" t="s">
+      <c r="M29" s="3" t="s">
         <v>141</v>
       </c>
-      <c r="N29" s="7" t="s">
+      <c r="N29" s="3" t="s">
         <v>142</v>
       </c>
-      <c r="O29" s="7" t="s">
+      <c r="O29" s="3" t="s">
         <v>136</v>
       </c>
-      <c r="P29" s="7" t="s">
+      <c r="P29" s="3" t="s">
         <v>137</v>
       </c>
-      <c r="Q29" s="11" t="s">
-        <v>279</v>
-      </c>
-    </row>
-    <row r="30" spans="1:17" s="9" customFormat="1" ht="16.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A30" s="7" t="s">
+      <c r="Q29" s="7" t="s">
+        <v>279</v>
+      </c>
+    </row>
+    <row r="30" spans="1:17" s="5" customFormat="1" ht="16.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A30" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="B30" s="7" t="s">
+      <c r="B30" s="3" t="s">
         <v>143</v>
       </c>
-      <c r="C30" s="7"/>
-      <c r="D30" s="7"/>
-      <c r="E30" s="7"/>
-      <c r="F30" s="7"/>
-      <c r="G30" s="7" t="s">
+      <c r="C30" s="3"/>
+      <c r="D30" s="3"/>
+      <c r="E30" s="3"/>
+      <c r="F30" s="3"/>
+      <c r="G30" s="3" t="s">
         <v>144</v>
       </c>
-      <c r="H30" s="7" t="s">
+      <c r="H30" s="3" t="s">
         <v>145</v>
       </c>
-      <c r="I30" s="7"/>
-      <c r="J30" s="7" t="s">
+      <c r="I30" s="3"/>
+      <c r="J30" s="3" t="s">
         <v>146</v>
       </c>
-      <c r="K30" s="7" t="s">
+      <c r="K30" s="3" t="s">
         <v>147</v>
       </c>
-      <c r="L30" s="7" t="s">
+      <c r="L30" s="3" t="s">
         <v>148</v>
       </c>
-      <c r="M30" s="7" t="s">
+      <c r="M30" s="3" t="s">
         <v>149</v>
       </c>
-      <c r="N30" s="7" t="s">
+      <c r="N30" s="3" t="s">
         <v>150</v>
       </c>
-      <c r="O30" s="7" t="s">
+      <c r="O30" s="3" t="s">
         <v>144</v>
       </c>
-      <c r="P30" s="7" t="s">
+      <c r="P30" s="3" t="s">
         <v>145</v>
       </c>
-      <c r="Q30" s="11" t="s">
-        <v>279</v>
-      </c>
-    </row>
-    <row r="31" spans="1:17" s="9" customFormat="1" ht="16.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A31" s="7" t="s">
+      <c r="Q30" s="7" t="s">
+        <v>279</v>
+      </c>
+    </row>
+    <row r="31" spans="1:17" s="5" customFormat="1" ht="16.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A31" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="B31" s="7" t="s">
+      <c r="B31" s="3" t="s">
         <v>151</v>
       </c>
-      <c r="C31" s="7"/>
-      <c r="D31" s="7"/>
-      <c r="E31" s="7"/>
-      <c r="F31" s="7"/>
-      <c r="G31" s="7" t="s">
+      <c r="C31" s="3"/>
+      <c r="D31" s="3"/>
+      <c r="E31" s="3"/>
+      <c r="F31" s="3"/>
+      <c r="G31" s="3" t="s">
         <v>152</v>
       </c>
-      <c r="H31" s="7" t="s">
+      <c r="H31" s="3" t="s">
         <v>153</v>
       </c>
-      <c r="I31" s="7"/>
-      <c r="J31" s="7" t="s">
+      <c r="I31" s="3"/>
+      <c r="J31" s="3" t="s">
         <v>154</v>
       </c>
-      <c r="K31" s="7" t="s">
+      <c r="K31" s="3" t="s">
         <v>155</v>
       </c>
-      <c r="L31" s="7" t="s">
+      <c r="L31" s="3" t="s">
         <v>156</v>
       </c>
-      <c r="M31" s="7" t="s">
+      <c r="M31" s="3" t="s">
         <v>157</v>
       </c>
-      <c r="N31" s="7" t="s">
+      <c r="N31" s="3" t="s">
         <v>158</v>
       </c>
-      <c r="O31" s="7" t="s">
+      <c r="O31" s="3" t="s">
         <v>152</v>
       </c>
-      <c r="P31" s="7" t="s">
+      <c r="P31" s="3" t="s">
         <v>153</v>
       </c>
-      <c r="Q31" s="11" t="s">
-        <v>279</v>
-      </c>
-    </row>
-    <row r="32" spans="1:17" s="9" customFormat="1" ht="16.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A32" s="7" t="s">
+      <c r="Q31" s="7" t="s">
+        <v>279</v>
+      </c>
+    </row>
+    <row r="32" spans="1:17" s="5" customFormat="1" ht="16.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A32" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="B32" s="7" t="s">
+      <c r="B32" s="3" t="s">
         <v>159</v>
       </c>
-      <c r="C32" s="7"/>
-      <c r="D32" s="7"/>
-      <c r="E32" s="7"/>
-      <c r="F32" s="7"/>
-      <c r="G32" s="7" t="s">
+      <c r="C32" s="3"/>
+      <c r="D32" s="3"/>
+      <c r="E32" s="3"/>
+      <c r="F32" s="3"/>
+      <c r="G32" s="3" t="s">
         <v>160</v>
       </c>
-      <c r="H32" s="7" t="s">
+      <c r="H32" s="3" t="s">
         <v>161</v>
       </c>
-      <c r="I32" s="7"/>
-      <c r="J32" s="7" t="s">
+      <c r="I32" s="3"/>
+      <c r="J32" s="3" t="s">
         <v>162</v>
       </c>
-      <c r="K32" s="7" t="s">
+      <c r="K32" s="3" t="s">
         <v>163</v>
       </c>
-      <c r="L32" s="7" t="s">
+      <c r="L32" s="3" t="s">
         <v>164</v>
       </c>
-      <c r="M32" s="7" t="s">
+      <c r="M32" s="3" t="s">
         <v>165</v>
       </c>
-      <c r="N32" s="7" t="s">
+      <c r="N32" s="3" t="s">
         <v>166</v>
       </c>
-      <c r="O32" s="7" t="s">
+      <c r="O32" s="3" t="s">
         <v>160</v>
       </c>
-      <c r="P32" s="7" t="s">
+      <c r="P32" s="3" t="s">
         <v>161</v>
       </c>
-      <c r="Q32" s="11" t="s">
-        <v>279</v>
-      </c>
-    </row>
-    <row r="33" spans="1:17" s="9" customFormat="1" ht="16.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A33" s="7" t="s">
+      <c r="Q32" s="7" t="s">
+        <v>279</v>
+      </c>
+    </row>
+    <row r="33" spans="1:17" s="5" customFormat="1" ht="16.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A33" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="B33" s="7" t="s">
+      <c r="B33" s="3" t="s">
         <v>167</v>
       </c>
-      <c r="C33" s="7"/>
-      <c r="D33" s="7"/>
-      <c r="E33" s="7"/>
-      <c r="F33" s="7"/>
-      <c r="G33" s="7" t="s">
+      <c r="C33" s="3"/>
+      <c r="D33" s="3"/>
+      <c r="E33" s="3"/>
+      <c r="F33" s="3"/>
+      <c r="G33" s="3" t="s">
         <v>168</v>
       </c>
-      <c r="H33" s="7" t="s">
+      <c r="H33" s="3" t="s">
         <v>169</v>
       </c>
-      <c r="I33" s="7"/>
-      <c r="J33" s="7" t="s">
+      <c r="I33" s="3"/>
+      <c r="J33" s="3" t="s">
         <v>170</v>
       </c>
-      <c r="K33" s="7" t="s">
+      <c r="K33" s="3" t="s">
         <v>171</v>
       </c>
-      <c r="L33" s="7" t="s">
+      <c r="L33" s="3" t="s">
         <v>172</v>
       </c>
-      <c r="M33" s="7" t="s">
+      <c r="M33" s="3" t="s">
         <v>173</v>
       </c>
-      <c r="N33" s="7" t="s">
+      <c r="N33" s="3" t="s">
         <v>174</v>
       </c>
-      <c r="O33" s="7" t="s">
+      <c r="O33" s="3" t="s">
         <v>168</v>
       </c>
-      <c r="P33" s="7" t="s">
+      <c r="P33" s="3" t="s">
         <v>169</v>
       </c>
-      <c r="Q33" s="11" t="s">
-        <v>279</v>
-      </c>
-    </row>
-    <row r="34" spans="1:17" s="9" customFormat="1" ht="16.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A34" s="7" t="s">
+      <c r="Q33" s="7" t="s">
+        <v>279</v>
+      </c>
+    </row>
+    <row r="34" spans="1:17" s="5" customFormat="1" ht="16.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A34" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="B34" s="7" t="s">
+      <c r="B34" s="3" t="s">
         <v>175</v>
       </c>
-      <c r="C34" s="7"/>
-      <c r="D34" s="7"/>
-      <c r="E34" s="7"/>
-      <c r="F34" s="7"/>
-      <c r="G34" s="7" t="s">
+      <c r="C34" s="3"/>
+      <c r="D34" s="3"/>
+      <c r="E34" s="3"/>
+      <c r="F34" s="3"/>
+      <c r="G34" s="3" t="s">
         <v>176</v>
       </c>
-      <c r="H34" s="7" t="s">
+      <c r="H34" s="3" t="s">
         <v>177</v>
       </c>
-      <c r="I34" s="7"/>
-      <c r="J34" s="7" t="s">
+      <c r="I34" s="3"/>
+      <c r="J34" s="3" t="s">
         <v>178</v>
       </c>
-      <c r="K34" s="7" t="s">
+      <c r="K34" s="3" t="s">
         <v>179</v>
       </c>
-      <c r="L34" s="7" t="s">
+      <c r="L34" s="3" t="s">
         <v>180</v>
       </c>
-      <c r="M34" s="7" t="s">
+      <c r="M34" s="3" t="s">
         <v>181</v>
       </c>
-      <c r="N34" s="7" t="s">
+      <c r="N34" s="3" t="s">
         <v>182</v>
       </c>
-      <c r="O34" s="7" t="s">
+      <c r="O34" s="3" t="s">
         <v>176</v>
       </c>
-      <c r="P34" s="7" t="s">
+      <c r="P34" s="3" t="s">
         <v>177</v>
       </c>
-      <c r="Q34" s="11" t="s">
-        <v>279</v>
-      </c>
-    </row>
-    <row r="35" spans="1:17" s="9" customFormat="1" ht="16.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A35" s="7" t="s">
+      <c r="Q34" s="7" t="s">
+        <v>279</v>
+      </c>
+    </row>
+    <row r="35" spans="1:17" s="5" customFormat="1" ht="16.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A35" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="B35" s="7" t="s">
+      <c r="B35" s="3" t="s">
         <v>183</v>
       </c>
-      <c r="C35" s="7"/>
-      <c r="D35" s="7"/>
-      <c r="E35" s="7"/>
-      <c r="F35" s="7"/>
-      <c r="G35" s="7" t="s">
+      <c r="C35" s="3"/>
+      <c r="D35" s="3"/>
+      <c r="E35" s="3"/>
+      <c r="F35" s="3"/>
+      <c r="G35" s="3" t="s">
         <v>184</v>
       </c>
-      <c r="H35" s="7" t="s">
+      <c r="H35" s="3" t="s">
         <v>185</v>
       </c>
-      <c r="I35" s="7"/>
-      <c r="J35" s="7" t="s">
+      <c r="I35" s="3"/>
+      <c r="J35" s="3" t="s">
         <v>186</v>
       </c>
-      <c r="K35" s="7" t="s">
+      <c r="K35" s="3" t="s">
         <v>187</v>
       </c>
-      <c r="L35" s="7" t="s">
+      <c r="L35" s="3" t="s">
         <v>188</v>
       </c>
-      <c r="M35" s="7" t="s">
+      <c r="M35" s="3" t="s">
         <v>189</v>
       </c>
-      <c r="N35" s="7" t="s">
+      <c r="N35" s="3" t="s">
         <v>190</v>
       </c>
-      <c r="O35" s="7" t="s">
+      <c r="O35" s="3" t="s">
         <v>184</v>
       </c>
-      <c r="P35" s="7" t="s">
+      <c r="P35" s="3" t="s">
         <v>185</v>
       </c>
-      <c r="Q35" s="11" t="s">
-        <v>279</v>
-      </c>
-    </row>
-    <row r="36" spans="1:17" s="9" customFormat="1" ht="16.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A36" s="7" t="s">
+      <c r="Q35" s="7" t="s">
+        <v>279</v>
+      </c>
+    </row>
+    <row r="36" spans="1:17" s="5" customFormat="1" ht="16.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A36" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="B36" s="7" t="s">
+      <c r="B36" s="3" t="s">
         <v>191</v>
       </c>
-      <c r="C36" s="7"/>
-      <c r="D36" s="7"/>
-      <c r="E36" s="7"/>
-      <c r="F36" s="7"/>
-      <c r="G36" s="7" t="s">
+      <c r="C36" s="3"/>
+      <c r="D36" s="3"/>
+      <c r="E36" s="3"/>
+      <c r="F36" s="3"/>
+      <c r="G36" s="3" t="s">
         <v>192</v>
       </c>
-      <c r="H36" s="7" t="s">
+      <c r="H36" s="3" t="s">
         <v>193</v>
       </c>
-      <c r="I36" s="7"/>
-      <c r="J36" s="7" t="s">
+      <c r="I36" s="3"/>
+      <c r="J36" s="3" t="s">
         <v>194</v>
       </c>
-      <c r="K36" s="7" t="s">
+      <c r="K36" s="3" t="s">
         <v>195</v>
       </c>
-      <c r="L36" s="7" t="s">
+      <c r="L36" s="3" t="s">
         <v>196</v>
       </c>
-      <c r="M36" s="7" t="s">
+      <c r="M36" s="3" t="s">
         <v>197</v>
       </c>
-      <c r="N36" s="7" t="s">
+      <c r="N36" s="3" t="s">
         <v>198</v>
       </c>
-      <c r="O36" s="7" t="s">
+      <c r="O36" s="3" t="s">
         <v>192</v>
       </c>
-      <c r="P36" s="7" t="s">
+      <c r="P36" s="3" t="s">
         <v>193</v>
       </c>
-      <c r="Q36" s="11" t="s">
-        <v>279</v>
-      </c>
-    </row>
-    <row r="37" spans="1:17" s="9" customFormat="1" ht="16.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A37" s="7" t="s">
+      <c r="Q36" s="7" t="s">
+        <v>279</v>
+      </c>
+    </row>
+    <row r="37" spans="1:17" s="5" customFormat="1" ht="16.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A37" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="B37" s="7" t="s">
+      <c r="B37" s="3" t="s">
         <v>199</v>
       </c>
-      <c r="C37" s="7"/>
-      <c r="D37" s="7"/>
-      <c r="E37" s="7"/>
-      <c r="F37" s="7"/>
-      <c r="G37" s="7" t="s">
+      <c r="C37" s="3"/>
+      <c r="D37" s="3"/>
+      <c r="E37" s="3"/>
+      <c r="F37" s="3"/>
+      <c r="G37" s="3" t="s">
         <v>200</v>
       </c>
-      <c r="H37" s="7" t="s">
+      <c r="H37" s="3" t="s">
         <v>201</v>
       </c>
-      <c r="I37" s="7"/>
-      <c r="J37" s="7" t="s">
+      <c r="I37" s="3"/>
+      <c r="J37" s="3" t="s">
         <v>202</v>
       </c>
-      <c r="K37" s="7" t="s">
+      <c r="K37" s="3" t="s">
         <v>203</v>
       </c>
-      <c r="L37" s="7" t="s">
+      <c r="L37" s="3" t="s">
         <v>204</v>
       </c>
-      <c r="M37" s="7" t="s">
+      <c r="M37" s="3" t="s">
         <v>205</v>
       </c>
-      <c r="N37" s="7" t="s">
+      <c r="N37" s="3" t="s">
         <v>206</v>
       </c>
-      <c r="O37" s="7" t="s">
+      <c r="O37" s="3" t="s">
         <v>200</v>
       </c>
-      <c r="P37" s="7" t="s">
+      <c r="P37" s="3" t="s">
         <v>201</v>
       </c>
-      <c r="Q37" s="11" t="s">
-        <v>279</v>
-      </c>
-    </row>
-    <row r="38" spans="1:17" s="9" customFormat="1" ht="16.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A38" s="7" t="s">
+      <c r="Q37" s="7" t="s">
+        <v>279</v>
+      </c>
+    </row>
+    <row r="38" spans="1:17" s="5" customFormat="1" ht="16.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A38" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="B38" s="7" t="s">
+      <c r="B38" s="3" t="s">
         <v>207</v>
       </c>
-      <c r="C38" s="7"/>
-      <c r="D38" s="7"/>
-      <c r="E38" s="7"/>
-      <c r="F38" s="7"/>
-      <c r="G38" s="7" t="s">
+      <c r="C38" s="3"/>
+      <c r="D38" s="3"/>
+      <c r="E38" s="3"/>
+      <c r="F38" s="3"/>
+      <c r="G38" s="3" t="s">
         <v>208</v>
       </c>
-      <c r="H38" s="7" t="s">
+      <c r="H38" s="3" t="s">
         <v>209</v>
       </c>
-      <c r="I38" s="7"/>
-      <c r="J38" s="7" t="s">
+      <c r="I38" s="3"/>
+      <c r="J38" s="3" t="s">
         <v>210</v>
       </c>
-      <c r="K38" s="7" t="s">
+      <c r="K38" s="3" t="s">
         <v>211</v>
       </c>
-      <c r="L38" s="7" t="s">
+      <c r="L38" s="3" t="s">
         <v>212</v>
       </c>
-      <c r="M38" s="7" t="s">
+      <c r="M38" s="3" t="s">
         <v>213</v>
       </c>
-      <c r="N38" s="7" t="s">
+      <c r="N38" s="3" t="s">
         <v>214</v>
       </c>
-      <c r="O38" s="7" t="s">
+      <c r="O38" s="3" t="s">
         <v>208</v>
       </c>
-      <c r="P38" s="7" t="s">
+      <c r="P38" s="3" t="s">
         <v>209</v>
       </c>
-      <c r="Q38" s="11" t="s">
-        <v>279</v>
-      </c>
-    </row>
-    <row r="39" spans="1:17" s="9" customFormat="1" ht="16.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A39" s="7" t="s">
+      <c r="Q38" s="7" t="s">
+        <v>279</v>
+      </c>
+    </row>
+    <row r="39" spans="1:17" s="5" customFormat="1" ht="16.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A39" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="B39" s="7" t="s">
+      <c r="B39" s="3" t="s">
         <v>215</v>
       </c>
-      <c r="C39" s="7"/>
-      <c r="D39" s="7"/>
-      <c r="E39" s="7"/>
-      <c r="F39" s="7"/>
-      <c r="G39" s="7" t="s">
+      <c r="C39" s="3"/>
+      <c r="D39" s="3"/>
+      <c r="E39" s="3"/>
+      <c r="F39" s="3"/>
+      <c r="G39" s="3" t="s">
         <v>216</v>
       </c>
-      <c r="H39" s="7" t="s">
+      <c r="H39" s="3" t="s">
         <v>217</v>
       </c>
-      <c r="I39" s="7"/>
-      <c r="J39" s="7" t="s">
+      <c r="I39" s="3"/>
+      <c r="J39" s="3" t="s">
         <v>218</v>
       </c>
-      <c r="K39" s="7" t="s">
+      <c r="K39" s="3" t="s">
         <v>219</v>
       </c>
-      <c r="L39" s="7" t="s">
+      <c r="L39" s="3" t="s">
         <v>220</v>
       </c>
-      <c r="M39" s="7" t="s">
+      <c r="M39" s="3" t="s">
         <v>221</v>
       </c>
-      <c r="N39" s="7" t="s">
+      <c r="N39" s="3" t="s">
         <v>222</v>
       </c>
-      <c r="O39" s="7" t="s">
+      <c r="O39" s="3" t="s">
         <v>216</v>
       </c>
-      <c r="P39" s="7" t="s">
+      <c r="P39" s="3" t="s">
         <v>217</v>
       </c>
-      <c r="Q39" s="11" t="s">
-        <v>279</v>
-      </c>
-    </row>
-    <row r="40" spans="1:17" s="9" customFormat="1" ht="16.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A40" s="7" t="s">
+      <c r="Q39" s="7" t="s">
+        <v>279</v>
+      </c>
+    </row>
+    <row r="40" spans="1:17" s="5" customFormat="1" ht="16.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A40" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="B40" s="7" t="s">
+      <c r="B40" s="3" t="s">
         <v>223</v>
       </c>
-      <c r="C40" s="7"/>
-      <c r="D40" s="7"/>
-      <c r="E40" s="7"/>
-      <c r="F40" s="7"/>
-      <c r="G40" s="7" t="s">
+      <c r="C40" s="3"/>
+      <c r="D40" s="3"/>
+      <c r="E40" s="3"/>
+      <c r="F40" s="3"/>
+      <c r="G40" s="3" t="s">
         <v>224</v>
       </c>
-      <c r="H40" s="7" t="s">
+      <c r="H40" s="3" t="s">
         <v>225</v>
       </c>
-      <c r="I40" s="7"/>
-      <c r="J40" s="7" t="s">
+      <c r="I40" s="3"/>
+      <c r="J40" s="3" t="s">
         <v>226</v>
       </c>
-      <c r="K40" s="7" t="s">
+      <c r="K40" s="3" t="s">
         <v>227</v>
       </c>
-      <c r="L40" s="7" t="s">
+      <c r="L40" s="3" t="s">
         <v>228</v>
       </c>
-      <c r="M40" s="7" t="s">
+      <c r="M40" s="3" t="s">
         <v>229</v>
       </c>
-      <c r="N40" s="7" t="s">
+      <c r="N40" s="3" t="s">
         <v>230</v>
       </c>
-      <c r="O40" s="7" t="s">
+      <c r="O40" s="3" t="s">
         <v>224</v>
       </c>
-      <c r="P40" s="7" t="s">
+      <c r="P40" s="3" t="s">
         <v>225</v>
       </c>
-      <c r="Q40" s="11" t="s">
-        <v>279</v>
-      </c>
-    </row>
-    <row r="41" spans="1:17" s="9" customFormat="1" ht="16.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A41" s="7" t="s">
+      <c r="Q40" s="7" t="s">
+        <v>279</v>
+      </c>
+    </row>
+    <row r="41" spans="1:17" s="5" customFormat="1" ht="16.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A41" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="B41" s="7" t="s">
+      <c r="B41" s="3" t="s">
         <v>231</v>
       </c>
-      <c r="C41" s="7"/>
-      <c r="D41" s="7"/>
-      <c r="E41" s="7"/>
-      <c r="F41" s="7"/>
-      <c r="G41" s="7" t="s">
+      <c r="C41" s="3"/>
+      <c r="D41" s="3"/>
+      <c r="E41" s="3"/>
+      <c r="F41" s="3"/>
+      <c r="G41" s="3" t="s">
         <v>232</v>
       </c>
-      <c r="H41" s="7" t="s">
+      <c r="H41" s="3" t="s">
         <v>233</v>
       </c>
-      <c r="I41" s="7"/>
-      <c r="J41" s="7" t="s">
+      <c r="I41" s="3"/>
+      <c r="J41" s="3" t="s">
         <v>234</v>
       </c>
-      <c r="K41" s="7" t="s">
+      <c r="K41" s="3" t="s">
         <v>235</v>
       </c>
-      <c r="L41" s="7" t="s">
+      <c r="L41" s="3" t="s">
         <v>236</v>
       </c>
-      <c r="M41" s="7" t="s">
+      <c r="M41" s="3" t="s">
         <v>237</v>
       </c>
-      <c r="N41" s="7" t="s">
+      <c r="N41" s="3" t="s">
         <v>238</v>
       </c>
-      <c r="O41" s="7" t="s">
+      <c r="O41" s="3" t="s">
         <v>232</v>
       </c>
-      <c r="P41" s="7" t="s">
+      <c r="P41" s="3" t="s">
         <v>233</v>
       </c>
-      <c r="Q41" s="11" t="s">
-        <v>279</v>
-      </c>
-    </row>
-    <row r="42" spans="1:17" s="9" customFormat="1" ht="16.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A42" s="7" t="s">
+      <c r="Q41" s="7" t="s">
+        <v>279</v>
+      </c>
+    </row>
+    <row r="42" spans="1:17" s="5" customFormat="1" ht="16.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A42" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="B42" s="7" t="s">
+      <c r="B42" s="3" t="s">
         <v>239</v>
       </c>
-      <c r="C42" s="7"/>
-      <c r="D42" s="7"/>
-      <c r="E42" s="7"/>
-      <c r="F42" s="7"/>
-      <c r="G42" s="7" t="s">
+      <c r="C42" s="3"/>
+      <c r="D42" s="3"/>
+      <c r="E42" s="3"/>
+      <c r="F42" s="3"/>
+      <c r="G42" s="3" t="s">
         <v>240</v>
       </c>
-      <c r="H42" s="7" t="s">
+      <c r="H42" s="3" t="s">
         <v>241</v>
       </c>
-      <c r="I42" s="7"/>
-      <c r="J42" s="7" t="s">
+      <c r="I42" s="3"/>
+      <c r="J42" s="3" t="s">
         <v>242</v>
       </c>
-      <c r="K42" s="7" t="s">
+      <c r="K42" s="3" t="s">
         <v>243</v>
       </c>
-      <c r="L42" s="7" t="s">
+      <c r="L42" s="3" t="s">
         <v>244</v>
       </c>
-      <c r="M42" s="7" t="s">
+      <c r="M42" s="3" t="s">
         <v>245</v>
       </c>
-      <c r="N42" s="7" t="s">
+      <c r="N42" s="3" t="s">
         <v>246</v>
       </c>
-      <c r="O42" s="7" t="s">
+      <c r="O42" s="3" t="s">
         <v>240</v>
       </c>
-      <c r="P42" s="7" t="s">
+      <c r="P42" s="3" t="s">
         <v>241</v>
       </c>
-      <c r="Q42" s="11" t="s">
-        <v>279</v>
-      </c>
-    </row>
-    <row r="43" spans="1:17" s="9" customFormat="1" ht="16.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A43" s="7" t="s">
+      <c r="Q42" s="7" t="s">
+        <v>279</v>
+      </c>
+    </row>
+    <row r="43" spans="1:17" s="5" customFormat="1" ht="16.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A43" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="B43" s="7" t="s">
+      <c r="B43" s="3" t="s">
         <v>247</v>
       </c>
-      <c r="C43" s="7"/>
-      <c r="D43" s="7"/>
-      <c r="E43" s="7"/>
-      <c r="F43" s="7"/>
-      <c r="G43" s="7" t="s">
+      <c r="C43" s="3"/>
+      <c r="D43" s="3"/>
+      <c r="E43" s="3"/>
+      <c r="F43" s="3"/>
+      <c r="G43" s="3" t="s">
         <v>248</v>
       </c>
-      <c r="H43" s="7" t="s">
+      <c r="H43" s="3" t="s">
         <v>249</v>
       </c>
-      <c r="I43" s="7"/>
-      <c r="J43" s="7" t="s">
+      <c r="I43" s="3"/>
+      <c r="J43" s="3" t="s">
         <v>250</v>
       </c>
-      <c r="K43" s="7" t="s">
+      <c r="K43" s="3" t="s">
         <v>251</v>
       </c>
-      <c r="L43" s="7" t="s">
+      <c r="L43" s="3" t="s">
         <v>252</v>
       </c>
-      <c r="M43" s="7" t="s">
+      <c r="M43" s="3" t="s">
         <v>253</v>
       </c>
-      <c r="N43" s="7" t="s">
+      <c r="N43" s="3" t="s">
         <v>254</v>
       </c>
-      <c r="O43" s="7" t="s">
+      <c r="O43" s="3" t="s">
         <v>248</v>
       </c>
-      <c r="P43" s="7" t="s">
+      <c r="P43" s="3" t="s">
         <v>249</v>
       </c>
-      <c r="Q43" s="11" t="s">
-        <v>279</v>
-      </c>
-    </row>
-    <row r="44" spans="1:17" s="9" customFormat="1" ht="16.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A44" s="7" t="s">
+      <c r="Q43" s="7" t="s">
+        <v>279</v>
+      </c>
+    </row>
+    <row r="44" spans="1:17" s="5" customFormat="1" ht="16.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A44" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="B44" s="7" t="s">
+      <c r="B44" s="3" t="s">
         <v>255</v>
       </c>
-      <c r="C44" s="7"/>
-      <c r="D44" s="7"/>
-      <c r="E44" s="7"/>
-      <c r="F44" s="7"/>
-      <c r="G44" s="7" t="s">
+      <c r="C44" s="3"/>
+      <c r="D44" s="3"/>
+      <c r="E44" s="3"/>
+      <c r="F44" s="3"/>
+      <c r="G44" s="3" t="s">
         <v>256</v>
       </c>
-      <c r="H44" s="7" t="s">
+      <c r="H44" s="3" t="s">
         <v>257</v>
       </c>
-      <c r="I44" s="7"/>
-      <c r="J44" s="7" t="s">
+      <c r="I44" s="3"/>
+      <c r="J44" s="3" t="s">
         <v>258</v>
       </c>
-      <c r="K44" s="7" t="s">
+      <c r="K44" s="3" t="s">
         <v>259</v>
       </c>
-      <c r="L44" s="7" t="s">
+      <c r="L44" s="3" t="s">
         <v>260</v>
       </c>
-      <c r="M44" s="7" t="s">
+      <c r="M44" s="3" t="s">
         <v>261</v>
       </c>
-      <c r="N44" s="7" t="s">
+      <c r="N44" s="3" t="s">
         <v>262</v>
       </c>
-      <c r="O44" s="7" t="s">
+      <c r="O44" s="3" t="s">
         <v>256</v>
       </c>
-      <c r="P44" s="7" t="s">
+      <c r="P44" s="3" t="s">
         <v>257</v>
       </c>
-      <c r="Q44" s="11" t="s">
-        <v>279</v>
-      </c>
-    </row>
-    <row r="45" spans="1:17" s="9" customFormat="1" ht="16.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A45" s="7" t="s">
+      <c r="Q44" s="7" t="s">
+        <v>279</v>
+      </c>
+    </row>
+    <row r="45" spans="1:17" s="5" customFormat="1" ht="16.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A45" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="B45" s="7" t="s">
+      <c r="B45" s="3" t="s">
         <v>263</v>
       </c>
-      <c r="C45" s="7"/>
-      <c r="D45" s="7"/>
-      <c r="E45" s="7"/>
-      <c r="F45" s="7"/>
-      <c r="G45" s="7" t="s">
+      <c r="C45" s="3"/>
+      <c r="D45" s="3"/>
+      <c r="E45" s="3"/>
+      <c r="F45" s="3"/>
+      <c r="G45" s="3" t="s">
         <v>264</v>
       </c>
-      <c r="H45" s="7" t="s">
+      <c r="H45" s="3" t="s">
         <v>265</v>
       </c>
-      <c r="I45" s="7"/>
-      <c r="J45" s="7" t="s">
+      <c r="I45" s="3"/>
+      <c r="J45" s="3" t="s">
         <v>266</v>
       </c>
-      <c r="K45" s="7" t="s">
+      <c r="K45" s="3" t="s">
         <v>267</v>
       </c>
-      <c r="L45" s="7" t="s">
+      <c r="L45" s="3" t="s">
         <v>268</v>
       </c>
-      <c r="M45" s="7" t="s">
+      <c r="M45" s="3" t="s">
         <v>269</v>
       </c>
-      <c r="N45" s="7" t="s">
+      <c r="N45" s="3" t="s">
         <v>270</v>
       </c>
-      <c r="O45" s="7" t="s">
+      <c r="O45" s="3" t="s">
         <v>264</v>
       </c>
-      <c r="P45" s="7" t="s">
+      <c r="P45" s="3" t="s">
         <v>265</v>
       </c>
-      <c r="Q45" s="11" t="s">
+      <c r="Q45" s="7" t="s">
         <v>279</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="11">
+    <mergeCell ref="Q2:Q4"/>
+    <mergeCell ref="K3:L3"/>
+    <mergeCell ref="M3:N3"/>
+    <mergeCell ref="O3:P3"/>
+    <mergeCell ref="K2:P2"/>
     <mergeCell ref="A1:P1"/>
     <mergeCell ref="C2:H2"/>
     <mergeCell ref="C3:D3"/>
     <mergeCell ref="E3:F3"/>
     <mergeCell ref="G3:H3"/>
     <mergeCell ref="I2:J3"/>
-    <mergeCell ref="Q2:Q4"/>
-    <mergeCell ref="K3:L3"/>
-    <mergeCell ref="M3:N3"/>
-    <mergeCell ref="O3:P3"/>
-    <mergeCell ref="K2:P2"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/CSDLGia_ASP/wwwroot/UpLoad/File/DinhGia/Excel/FileExcelGiarung.xlsx
+++ b/CSDLGia_ASP/wwwroot/UpLoad/File/DinhGia/Excel/FileExcelGiarung.xlsx
@@ -5,17 +5,17 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\AspNetCore\net5\CSDLGia\CSDLGia_ASP\wwwroot\UpLoad\File\DinhGia\Excel\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Administrator\Desktop\excel csdlgia\CSDLGia_ASP\CSDLGia_ASP\wwwroot\UpLoad\File\DinhGia\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{63082204-A4D1-4F60-AA54-DABC65096688}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{715DA6F1-8911-46E9-B011-4CD8ECEE2DCD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="0" windowWidth="29040" windowHeight="15840" xr2:uid="{5CBFBA6C-0A47-4627-8E57-E325A967AA8F}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{5CBFBA6C-0A47-4627-8E57-E325A967AA8F}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="181029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="440" uniqueCount="281">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="439" uniqueCount="280">
   <si>
     <t>GIÁ RỪNG</t>
   </si>
@@ -930,19 +930,16 @@
   <si>
     <t>RTKS</t>
   </si>
-  <si>
-    <t>529.84</t>
-  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="7" x14ac:knownFonts="1">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
+      <name val="Arial"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
@@ -967,21 +964,17 @@
       <b/>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
+      <name val="Arial"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
-      <sz val="8"/>
+      <sz val="11"/>
       <color rgb="FF000000"/>
-      <name val="Helvetica"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="9"/>
-      <color rgb="FF000000"/>
-      <name val="Helvetica"/>
+      <name val="Arial"/>
+      <family val="2"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="3">
@@ -997,7 +990,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="4">
+  <borders count="6">
     <border>
       <left/>
       <right/>
@@ -1030,53 +1023,53 @@
       <diagonal/>
     </border>
     <border>
-      <left style="medium">
-        <color auto="1"/>
+      <left style="thin">
+        <color indexed="64"/>
       </left>
-      <right style="medium">
-        <color auto="1"/>
+      <right style="thin">
+        <color indexed="64"/>
       </right>
-      <top style="medium">
-        <color auto="1"/>
+      <top style="thin">
+        <color indexed="64"/>
       </top>
-      <bottom style="medium">
-        <color auto="1"/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
       </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
       <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="16">
+  <cellXfs count="22">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1084,13 +1077,53 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="4" fontId="5" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="4" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="4" fontId="2" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="4" fontId="2" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="4" fontId="3" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="4" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1409,1751 +1442,1754 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{ABFC3AFF-D13B-4BA5-A0D7-AF8DD718511D}">
   <dimension ref="A1:Q45"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
-      <selection activeCell="Q6" sqref="Q6"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection sqref="A1:Q1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.125" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="9.140625" style="1"/>
-    <col min="2" max="2" width="43.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="6" width="9.140625" style="1"/>
-    <col min="7" max="7" width="12.7109375" style="1" customWidth="1"/>
-    <col min="8" max="8" width="9.140625" style="1"/>
-    <col min="9" max="9" width="11.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="16384" width="9.140625" style="1"/>
+    <col min="1" max="1" width="9.125" style="1"/>
+    <col min="2" max="2" width="43.125" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="6" width="9.125" style="14"/>
+    <col min="7" max="7" width="12.75" style="14" customWidth="1"/>
+    <col min="8" max="8" width="9.125" style="14"/>
+    <col min="9" max="9" width="11.625" style="14" bestFit="1" customWidth="1"/>
+    <col min="10" max="16" width="9.125" style="14"/>
+    <col min="17" max="17" width="16.625" style="1" customWidth="1"/>
+    <col min="18" max="16384" width="9.125" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A1" s="8" t="s">
+    <row r="1" spans="1:17" ht="15" x14ac:dyDescent="0.2">
+      <c r="A1" s="21" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="8"/>
-      <c r="C1" s="8"/>
-      <c r="D1" s="8"/>
-      <c r="E1" s="8"/>
-      <c r="F1" s="8"/>
-      <c r="G1" s="8"/>
-      <c r="H1" s="8"/>
-      <c r="I1" s="8"/>
-      <c r="J1" s="8"/>
-      <c r="K1" s="8"/>
-      <c r="L1" s="8"/>
-      <c r="M1" s="8"/>
-      <c r="N1" s="8"/>
-      <c r="O1" s="8"/>
-      <c r="P1" s="8"/>
-    </row>
-    <row r="2" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="2" t="s">
+      <c r="B1" s="21"/>
+      <c r="C1" s="21"/>
+      <c r="D1" s="21"/>
+      <c r="E1" s="21"/>
+      <c r="F1" s="21"/>
+      <c r="G1" s="21"/>
+      <c r="H1" s="21"/>
+      <c r="I1" s="21"/>
+      <c r="J1" s="21"/>
+      <c r="K1" s="21"/>
+      <c r="L1" s="21"/>
+      <c r="M1" s="21"/>
+      <c r="N1" s="21"/>
+      <c r="O1" s="21"/>
+      <c r="P1" s="21"/>
+      <c r="Q1" s="21"/>
+    </row>
+    <row r="2" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A2" s="18" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="2" t="s">
+      <c r="B2" s="18" t="s">
         <v>2</v>
       </c>
-      <c r="C2" s="9" t="s">
+      <c r="C2" s="16" t="s">
         <v>9</v>
       </c>
-      <c r="D2" s="9"/>
-      <c r="E2" s="9"/>
-      <c r="F2" s="9"/>
-      <c r="G2" s="9"/>
-      <c r="H2" s="9"/>
-      <c r="I2" s="9" t="s">
+      <c r="D2" s="16"/>
+      <c r="E2" s="16"/>
+      <c r="F2" s="16"/>
+      <c r="G2" s="16"/>
+      <c r="H2" s="16"/>
+      <c r="I2" s="16" t="s">
         <v>8</v>
       </c>
-      <c r="J2" s="9"/>
-      <c r="K2" s="9" t="s">
+      <c r="J2" s="16"/>
+      <c r="K2" s="16" t="s">
         <v>10</v>
       </c>
-      <c r="L2" s="9"/>
-      <c r="M2" s="9"/>
-      <c r="N2" s="9"/>
-      <c r="O2" s="9"/>
-      <c r="P2" s="9"/>
-      <c r="Q2" s="9" t="s">
+      <c r="L2" s="16"/>
+      <c r="M2" s="16"/>
+      <c r="N2" s="16"/>
+      <c r="O2" s="16"/>
+      <c r="P2" s="16"/>
+      <c r="Q2" s="16" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="3" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A3" s="2"/>
-      <c r="B3" s="2"/>
-      <c r="C3" s="9" t="s">
+    <row r="3" spans="1:17" ht="15" x14ac:dyDescent="0.2">
+      <c r="A3" s="19"/>
+      <c r="B3" s="19"/>
+      <c r="C3" s="16" t="s">
         <v>3</v>
       </c>
-      <c r="D3" s="9"/>
-      <c r="E3" s="9" t="s">
+      <c r="D3" s="16"/>
+      <c r="E3" s="16" t="s">
         <v>6</v>
       </c>
-      <c r="F3" s="9"/>
-      <c r="G3" s="10" t="s">
+      <c r="F3" s="16"/>
+      <c r="G3" s="17" t="s">
         <v>7</v>
       </c>
-      <c r="H3" s="10"/>
-      <c r="I3" s="9"/>
-      <c r="J3" s="9"/>
-      <c r="K3" s="9" t="s">
+      <c r="H3" s="17"/>
+      <c r="I3" s="16"/>
+      <c r="J3" s="16"/>
+      <c r="K3" s="16" t="s">
         <v>11</v>
       </c>
-      <c r="L3" s="9"/>
-      <c r="M3" s="9" t="s">
+      <c r="L3" s="16"/>
+      <c r="M3" s="16" t="s">
         <v>6</v>
       </c>
-      <c r="N3" s="9"/>
-      <c r="O3" s="9" t="s">
+      <c r="N3" s="16"/>
+      <c r="O3" s="16" t="s">
         <v>7</v>
       </c>
-      <c r="P3" s="9"/>
-      <c r="Q3" s="9"/>
-    </row>
-    <row r="4" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A4" s="2"/>
-      <c r="B4" s="2"/>
-      <c r="C4" s="2" t="s">
+      <c r="P3" s="16"/>
+      <c r="Q3" s="16"/>
+    </row>
+    <row r="4" spans="1:17" ht="15" x14ac:dyDescent="0.2">
+      <c r="A4" s="20"/>
+      <c r="B4" s="20"/>
+      <c r="C4" s="15" t="s">
         <v>4</v>
       </c>
-      <c r="D4" s="2" t="s">
+      <c r="D4" s="15" t="s">
         <v>5</v>
       </c>
-      <c r="E4" s="2" t="s">
+      <c r="E4" s="15" t="s">
         <v>4</v>
       </c>
-      <c r="F4" s="2" t="s">
+      <c r="F4" s="15" t="s">
         <v>5</v>
       </c>
-      <c r="G4" s="2" t="s">
+      <c r="G4" s="15" t="s">
         <v>4</v>
       </c>
-      <c r="H4" s="2" t="s">
+      <c r="H4" s="15" t="s">
         <v>5</v>
       </c>
-      <c r="I4" s="2" t="s">
+      <c r="I4" s="15" t="s">
         <v>4</v>
       </c>
-      <c r="J4" s="2" t="s">
+      <c r="J4" s="15" t="s">
         <v>5</v>
       </c>
-      <c r="K4" s="2" t="s">
+      <c r="K4" s="15" t="s">
         <v>4</v>
       </c>
-      <c r="L4" s="2" t="s">
+      <c r="L4" s="15" t="s">
         <v>5</v>
       </c>
-      <c r="M4" s="2" t="s">
+      <c r="M4" s="15" t="s">
         <v>4</v>
       </c>
-      <c r="N4" s="2" t="s">
+      <c r="N4" s="15" t="s">
         <v>5</v>
       </c>
-      <c r="O4" s="2" t="s">
+      <c r="O4" s="15" t="s">
         <v>4</v>
       </c>
-      <c r="P4" s="2" t="s">
+      <c r="P4" s="15" t="s">
         <v>5</v>
       </c>
-      <c r="Q4" s="9"/>
-    </row>
-    <row r="5" spans="1:17" s="15" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="11" t="s">
+      <c r="Q4" s="16"/>
+    </row>
+    <row r="5" spans="1:17" s="5" customFormat="1" ht="15" x14ac:dyDescent="0.2">
+      <c r="A5" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="B5" s="12" t="s">
+      <c r="B5" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="C5" s="13" t="s">
+      <c r="C5" s="9" t="s">
         <v>21</v>
       </c>
-      <c r="D5" s="14" t="s">
+      <c r="D5" s="9" t="s">
         <v>14</v>
       </c>
-      <c r="E5" s="11" t="s">
-        <v>280</v>
-      </c>
-      <c r="F5" s="11"/>
-      <c r="G5" s="11"/>
-      <c r="H5" s="11"/>
-      <c r="I5" s="11"/>
-      <c r="J5" s="11"/>
-      <c r="K5" s="11"/>
-      <c r="L5" s="11"/>
-      <c r="M5" s="11"/>
-      <c r="N5" s="11"/>
-      <c r="O5" s="11"/>
-      <c r="P5" s="11"/>
-      <c r="Q5" s="11" t="s">
+      <c r="E5" s="10">
+        <v>529.84</v>
+      </c>
+      <c r="F5" s="10"/>
+      <c r="G5" s="10"/>
+      <c r="H5" s="10"/>
+      <c r="I5" s="10"/>
+      <c r="J5" s="10"/>
+      <c r="K5" s="10"/>
+      <c r="L5" s="10"/>
+      <c r="M5" s="10"/>
+      <c r="N5" s="10"/>
+      <c r="O5" s="10"/>
+      <c r="P5" s="10"/>
+      <c r="Q5" s="3" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="6" spans="1:17" s="5" customFormat="1" ht="16.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="3">
+    <row r="6" spans="1:17" s="2" customFormat="1" ht="15.75" x14ac:dyDescent="0.2">
+      <c r="A6" s="6">
         <v>1</v>
       </c>
-      <c r="B6" s="3" t="s">
+      <c r="B6" s="6" t="s">
         <v>17</v>
       </c>
-      <c r="C6" s="3"/>
-      <c r="D6" s="3"/>
-      <c r="E6" s="3"/>
-      <c r="F6" s="3"/>
-      <c r="G6" s="4"/>
-      <c r="H6" s="3"/>
-      <c r="I6" s="3"/>
-      <c r="J6" s="3"/>
-      <c r="K6" s="3"/>
-      <c r="L6" s="3"/>
-      <c r="M6" s="3"/>
-      <c r="N6" s="3"/>
-      <c r="O6" s="3"/>
-      <c r="P6" s="3"/>
+      <c r="C6" s="11"/>
+      <c r="D6" s="11"/>
+      <c r="E6" s="11"/>
+      <c r="F6" s="11"/>
+      <c r="G6" s="12"/>
+      <c r="H6" s="11"/>
+      <c r="I6" s="11"/>
+      <c r="J6" s="11"/>
+      <c r="K6" s="11"/>
+      <c r="L6" s="11"/>
+      <c r="M6" s="11"/>
+      <c r="N6" s="11"/>
+      <c r="O6" s="11"/>
+      <c r="P6" s="11"/>
       <c r="Q6" s="7" t="s">
         <v>279</v>
       </c>
     </row>
-    <row r="7" spans="1:17" s="5" customFormat="1" ht="16.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="3" t="s">
+    <row r="7" spans="1:17" s="2" customFormat="1" ht="15.75" x14ac:dyDescent="0.2">
+      <c r="A7" s="6" t="s">
         <v>271</v>
       </c>
-      <c r="B7" s="3" t="s">
+      <c r="B7" s="6" t="s">
         <v>272</v>
       </c>
-      <c r="C7" s="3"/>
-      <c r="D7" s="3"/>
-      <c r="E7" s="3"/>
-      <c r="F7" s="3"/>
-      <c r="G7" s="3"/>
-      <c r="H7" s="3"/>
-      <c r="I7" s="3"/>
-      <c r="J7" s="3"/>
-      <c r="K7" s="3"/>
-      <c r="L7" s="3"/>
-      <c r="M7" s="3"/>
-      <c r="N7" s="3"/>
-      <c r="O7" s="3"/>
-      <c r="P7" s="3"/>
+      <c r="C7" s="11"/>
+      <c r="D7" s="11"/>
+      <c r="E7" s="11"/>
+      <c r="F7" s="11"/>
+      <c r="G7" s="11"/>
+      <c r="H7" s="11"/>
+      <c r="I7" s="11"/>
+      <c r="J7" s="11"/>
+      <c r="K7" s="11"/>
+      <c r="L7" s="11"/>
+      <c r="M7" s="11"/>
+      <c r="N7" s="11"/>
+      <c r="O7" s="11"/>
+      <c r="P7" s="11"/>
       <c r="Q7" s="7" t="s">
         <v>279</v>
       </c>
     </row>
-    <row r="8" spans="1:17" s="5" customFormat="1" ht="16.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="3" t="s">
+    <row r="8" spans="1:17" s="2" customFormat="1" ht="15.75" x14ac:dyDescent="0.2">
+      <c r="A8" s="6" t="s">
         <v>18</v>
       </c>
-      <c r="B8" s="3" t="s">
+      <c r="B8" s="6" t="s">
         <v>273</v>
       </c>
-      <c r="C8" s="3"/>
-      <c r="D8" s="3"/>
-      <c r="E8" s="3"/>
-      <c r="F8" s="3"/>
-      <c r="G8" s="3"/>
-      <c r="H8" s="3"/>
-      <c r="I8" s="3"/>
-      <c r="J8" s="3"/>
-      <c r="K8" s="3"/>
-      <c r="L8" s="3"/>
-      <c r="M8" s="3"/>
-      <c r="N8" s="3"/>
-      <c r="O8" s="3"/>
-      <c r="P8" s="3"/>
+      <c r="C8" s="11"/>
+      <c r="D8" s="11"/>
+      <c r="E8" s="11"/>
+      <c r="F8" s="11"/>
+      <c r="G8" s="11"/>
+      <c r="H8" s="11"/>
+      <c r="I8" s="11"/>
+      <c r="J8" s="11"/>
+      <c r="K8" s="11"/>
+      <c r="L8" s="11"/>
+      <c r="M8" s="11"/>
+      <c r="N8" s="11"/>
+      <c r="O8" s="11"/>
+      <c r="P8" s="11"/>
       <c r="Q8" s="7" t="s">
         <v>279</v>
       </c>
     </row>
-    <row r="9" spans="1:17" s="5" customFormat="1" ht="16.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="3" t="s">
+    <row r="9" spans="1:17" s="2" customFormat="1" ht="15.75" x14ac:dyDescent="0.2">
+      <c r="A9" s="6" t="s">
         <v>19</v>
       </c>
-      <c r="B9" s="3" t="s">
+      <c r="B9" s="6" t="s">
         <v>20</v>
       </c>
-      <c r="C9" s="3"/>
-      <c r="D9" s="3"/>
-      <c r="E9" s="3"/>
-      <c r="F9" s="3"/>
-      <c r="G9" s="3" t="s">
+      <c r="C9" s="11"/>
+      <c r="D9" s="11"/>
+      <c r="E9" s="11"/>
+      <c r="F9" s="11"/>
+      <c r="G9" s="11" t="s">
         <v>21</v>
       </c>
-      <c r="H9" s="3" t="s">
+      <c r="H9" s="11" t="s">
         <v>22</v>
       </c>
-      <c r="I9" s="3"/>
-      <c r="J9" s="3" t="s">
+      <c r="I9" s="11"/>
+      <c r="J9" s="11" t="s">
         <v>23</v>
       </c>
-      <c r="K9" s="3" t="s">
+      <c r="K9" s="11" t="s">
         <v>24</v>
       </c>
-      <c r="L9" s="3" t="s">
+      <c r="L9" s="11" t="s">
         <v>25</v>
       </c>
-      <c r="M9" s="3" t="s">
+      <c r="M9" s="11" t="s">
         <v>26</v>
       </c>
-      <c r="N9" s="3" t="s">
+      <c r="N9" s="11" t="s">
         <v>27</v>
       </c>
-      <c r="O9" s="3" t="s">
+      <c r="O9" s="11" t="s">
         <v>21</v>
       </c>
-      <c r="P9" s="3" t="s">
+      <c r="P9" s="11" t="s">
         <v>28</v>
       </c>
       <c r="Q9" s="7" t="s">
         <v>279</v>
       </c>
     </row>
-    <row r="10" spans="1:17" s="5" customFormat="1" ht="16.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="3" t="s">
+    <row r="10" spans="1:17" s="2" customFormat="1" ht="15.75" x14ac:dyDescent="0.2">
+      <c r="A10" s="6" t="s">
         <v>19</v>
       </c>
-      <c r="B10" s="3" t="s">
+      <c r="B10" s="6" t="s">
         <v>29</v>
       </c>
-      <c r="C10" s="3"/>
-      <c r="D10" s="3"/>
-      <c r="E10" s="3"/>
-      <c r="F10" s="3"/>
-      <c r="G10" s="3" t="s">
+      <c r="C10" s="11"/>
+      <c r="D10" s="11"/>
+      <c r="E10" s="11"/>
+      <c r="F10" s="11"/>
+      <c r="G10" s="11" t="s">
         <v>30</v>
       </c>
-      <c r="H10" s="3" t="s">
+      <c r="H10" s="11" t="s">
         <v>31</v>
       </c>
-      <c r="I10" s="3"/>
-      <c r="J10" s="3" t="s">
+      <c r="I10" s="11"/>
+      <c r="J10" s="11" t="s">
         <v>32</v>
       </c>
-      <c r="K10" s="3" t="s">
+      <c r="K10" s="11" t="s">
         <v>33</v>
       </c>
-      <c r="L10" s="3" t="s">
+      <c r="L10" s="11" t="s">
         <v>34</v>
       </c>
-      <c r="M10" s="3" t="s">
+      <c r="M10" s="11" t="s">
         <v>35</v>
       </c>
-      <c r="N10" s="3" t="s">
+      <c r="N10" s="11" t="s">
         <v>36</v>
       </c>
-      <c r="O10" s="3" t="s">
+      <c r="O10" s="11" t="s">
         <v>30</v>
       </c>
-      <c r="P10" s="3" t="s">
+      <c r="P10" s="11" t="s">
         <v>31</v>
       </c>
       <c r="Q10" s="7" t="s">
         <v>279</v>
       </c>
     </row>
-    <row r="11" spans="1:17" s="5" customFormat="1" ht="16.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="3" t="s">
+    <row r="11" spans="1:17" s="2" customFormat="1" ht="15.75" x14ac:dyDescent="0.2">
+      <c r="A11" s="6" t="s">
         <v>19</v>
       </c>
-      <c r="B11" s="3" t="s">
+      <c r="B11" s="6" t="s">
         <v>37</v>
       </c>
-      <c r="C11" s="3"/>
-      <c r="D11" s="3"/>
-      <c r="E11" s="3"/>
-      <c r="F11" s="3"/>
-      <c r="G11" s="3" t="s">
+      <c r="C11" s="11"/>
+      <c r="D11" s="11"/>
+      <c r="E11" s="11"/>
+      <c r="F11" s="11"/>
+      <c r="G11" s="11" t="s">
         <v>38</v>
       </c>
-      <c r="H11" s="3" t="s">
+      <c r="H11" s="11" t="s">
         <v>39</v>
       </c>
-      <c r="I11" s="3"/>
-      <c r="J11" s="3" t="s">
+      <c r="I11" s="11"/>
+      <c r="J11" s="11" t="s">
         <v>40</v>
       </c>
-      <c r="K11" s="3" t="s">
+      <c r="K11" s="11" t="s">
         <v>41</v>
       </c>
-      <c r="L11" s="3" t="s">
+      <c r="L11" s="11" t="s">
         <v>42</v>
       </c>
-      <c r="M11" s="3" t="s">
+      <c r="M11" s="11" t="s">
         <v>43</v>
       </c>
-      <c r="N11" s="3" t="s">
+      <c r="N11" s="11" t="s">
         <v>44</v>
       </c>
-      <c r="O11" s="3" t="s">
+      <c r="O11" s="11" t="s">
         <v>38</v>
       </c>
-      <c r="P11" s="3" t="s">
+      <c r="P11" s="11" t="s">
         <v>39</v>
       </c>
       <c r="Q11" s="7" t="s">
         <v>279</v>
       </c>
     </row>
-    <row r="12" spans="1:17" s="5" customFormat="1" ht="16.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="3" t="s">
+    <row r="12" spans="1:17" s="2" customFormat="1" ht="15.75" x14ac:dyDescent="0.2">
+      <c r="A12" s="6" t="s">
         <v>19</v>
       </c>
-      <c r="B12" s="3" t="s">
+      <c r="B12" s="6" t="s">
         <v>45</v>
       </c>
-      <c r="C12" s="3"/>
-      <c r="D12" s="3"/>
-      <c r="E12" s="3"/>
-      <c r="F12" s="3"/>
-      <c r="G12" s="3" t="s">
+      <c r="C12" s="11"/>
+      <c r="D12" s="11"/>
+      <c r="E12" s="11"/>
+      <c r="F12" s="11"/>
+      <c r="G12" s="11" t="s">
         <v>46</v>
       </c>
-      <c r="H12" s="3" t="s">
+      <c r="H12" s="11" t="s">
         <v>47</v>
       </c>
-      <c r="I12" s="3"/>
-      <c r="J12" s="3" t="s">
+      <c r="I12" s="11"/>
+      <c r="J12" s="11" t="s">
         <v>48</v>
       </c>
-      <c r="K12" s="3" t="s">
+      <c r="K12" s="11" t="s">
         <v>49</v>
       </c>
-      <c r="L12" s="3" t="s">
+      <c r="L12" s="11" t="s">
         <v>50</v>
       </c>
-      <c r="M12" s="3" t="s">
+      <c r="M12" s="11" t="s">
         <v>51</v>
       </c>
-      <c r="N12" s="3" t="s">
+      <c r="N12" s="11" t="s">
         <v>52</v>
       </c>
-      <c r="O12" s="3" t="s">
+      <c r="O12" s="11" t="s">
         <v>46</v>
       </c>
-      <c r="P12" s="3" t="s">
+      <c r="P12" s="11" t="s">
         <v>47</v>
       </c>
       <c r="Q12" s="7" t="s">
         <v>279</v>
       </c>
     </row>
-    <row r="13" spans="1:17" s="5" customFormat="1" ht="16.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="3" t="s">
+    <row r="13" spans="1:17" s="2" customFormat="1" ht="15.75" x14ac:dyDescent="0.2">
+      <c r="A13" s="6" t="s">
         <v>19</v>
       </c>
-      <c r="B13" s="3" t="s">
+      <c r="B13" s="6" t="s">
         <v>53</v>
       </c>
-      <c r="C13" s="3"/>
-      <c r="D13" s="3"/>
-      <c r="E13" s="3"/>
-      <c r="F13" s="3"/>
-      <c r="G13" s="3" t="s">
+      <c r="C13" s="11"/>
+      <c r="D13" s="11"/>
+      <c r="E13" s="11"/>
+      <c r="F13" s="11"/>
+      <c r="G13" s="11" t="s">
         <v>54</v>
       </c>
-      <c r="H13" s="3" t="s">
+      <c r="H13" s="11" t="s">
         <v>55</v>
       </c>
-      <c r="I13" s="3"/>
-      <c r="J13" s="3" t="s">
+      <c r="I13" s="11"/>
+      <c r="J13" s="11" t="s">
         <v>56</v>
       </c>
-      <c r="K13" s="3" t="s">
+      <c r="K13" s="11" t="s">
         <v>57</v>
       </c>
-      <c r="L13" s="3" t="s">
+      <c r="L13" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="M13" s="3" t="s">
+      <c r="M13" s="11" t="s">
         <v>59</v>
       </c>
-      <c r="N13" s="3" t="s">
+      <c r="N13" s="11" t="s">
         <v>60</v>
       </c>
-      <c r="O13" s="3" t="s">
+      <c r="O13" s="11" t="s">
         <v>54</v>
       </c>
-      <c r="P13" s="3" t="s">
+      <c r="P13" s="11" t="s">
         <v>55</v>
       </c>
       <c r="Q13" s="7" t="s">
         <v>279</v>
       </c>
     </row>
-    <row r="14" spans="1:17" s="5" customFormat="1" ht="16.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="3" t="s">
+    <row r="14" spans="1:17" s="2" customFormat="1" ht="15.75" x14ac:dyDescent="0.2">
+      <c r="A14" s="6" t="s">
         <v>274</v>
       </c>
-      <c r="B14" s="3" t="s">
+      <c r="B14" s="6" t="s">
         <v>275</v>
       </c>
-      <c r="C14" s="3"/>
-      <c r="D14" s="3"/>
-      <c r="E14" s="3"/>
-      <c r="F14" s="3"/>
-      <c r="G14" s="3"/>
-      <c r="H14" s="3"/>
-      <c r="I14" s="3"/>
-      <c r="J14" s="3"/>
-      <c r="K14" s="3"/>
-      <c r="L14" s="3"/>
-      <c r="M14" s="3"/>
-      <c r="N14" s="3"/>
-      <c r="O14" s="3"/>
-      <c r="P14" s="3"/>
+      <c r="C14" s="11"/>
+      <c r="D14" s="11"/>
+      <c r="E14" s="11"/>
+      <c r="F14" s="11"/>
+      <c r="G14" s="11"/>
+      <c r="H14" s="11"/>
+      <c r="I14" s="11"/>
+      <c r="J14" s="11"/>
+      <c r="K14" s="11"/>
+      <c r="L14" s="11"/>
+      <c r="M14" s="11"/>
+      <c r="N14" s="11"/>
+      <c r="O14" s="11"/>
+      <c r="P14" s="11"/>
       <c r="Q14" s="7" t="s">
         <v>279</v>
       </c>
     </row>
-    <row r="15" spans="1:17" s="5" customFormat="1" ht="16.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="3" t="s">
+    <row r="15" spans="1:17" s="2" customFormat="1" ht="15.75" x14ac:dyDescent="0.2">
+      <c r="A15" s="6" t="s">
         <v>276</v>
       </c>
-      <c r="B15" s="3" t="s">
+      <c r="B15" s="6" t="s">
         <v>273</v>
       </c>
-      <c r="C15" s="3"/>
-      <c r="D15" s="3"/>
-      <c r="E15" s="3"/>
-      <c r="F15" s="3"/>
-      <c r="G15" s="3"/>
-      <c r="H15" s="3"/>
-      <c r="I15" s="3"/>
-      <c r="J15" s="3"/>
-      <c r="K15" s="3"/>
-      <c r="L15" s="3"/>
-      <c r="M15" s="3"/>
-      <c r="N15" s="3"/>
-      <c r="O15" s="3"/>
-      <c r="P15" s="3"/>
+      <c r="C15" s="11"/>
+      <c r="D15" s="11"/>
+      <c r="E15" s="11"/>
+      <c r="F15" s="11"/>
+      <c r="G15" s="11"/>
+      <c r="H15" s="11"/>
+      <c r="I15" s="11"/>
+      <c r="J15" s="11"/>
+      <c r="K15" s="11"/>
+      <c r="L15" s="11"/>
+      <c r="M15" s="11"/>
+      <c r="N15" s="11"/>
+      <c r="O15" s="11"/>
+      <c r="P15" s="11"/>
       <c r="Q15" s="7" t="s">
         <v>279</v>
       </c>
     </row>
-    <row r="16" spans="1:17" s="5" customFormat="1" ht="16.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="3" t="s">
+    <row r="16" spans="1:17" s="2" customFormat="1" ht="15.75" x14ac:dyDescent="0.2">
+      <c r="A16" s="6" t="s">
         <v>19</v>
       </c>
-      <c r="B16" s="3" t="s">
+      <c r="B16" s="6" t="s">
         <v>20</v>
       </c>
-      <c r="C16" s="3"/>
-      <c r="D16" s="3"/>
-      <c r="E16" s="3"/>
-      <c r="F16" s="3"/>
-      <c r="G16" s="3" t="s">
+      <c r="C16" s="11"/>
+      <c r="D16" s="11"/>
+      <c r="E16" s="11"/>
+      <c r="F16" s="11"/>
+      <c r="G16" s="11" t="s">
         <v>61</v>
       </c>
-      <c r="H16" s="3" t="s">
+      <c r="H16" s="11" t="s">
         <v>62</v>
       </c>
-      <c r="I16" s="3"/>
-      <c r="J16" s="3" t="s">
+      <c r="I16" s="11"/>
+      <c r="J16" s="11" t="s">
         <v>63</v>
       </c>
-      <c r="K16" s="3" t="s">
+      <c r="K16" s="11" t="s">
         <v>64</v>
       </c>
-      <c r="L16" s="3" t="s">
+      <c r="L16" s="11" t="s">
         <v>65</v>
       </c>
-      <c r="M16" s="3" t="s">
+      <c r="M16" s="11" t="s">
         <v>66</v>
       </c>
-      <c r="N16" s="3" t="s">
+      <c r="N16" s="11" t="s">
         <v>67</v>
       </c>
-      <c r="O16" s="3" t="s">
+      <c r="O16" s="11" t="s">
         <v>61</v>
       </c>
-      <c r="P16" s="3" t="s">
+      <c r="P16" s="11" t="s">
         <v>62</v>
       </c>
       <c r="Q16" s="7" t="s">
         <v>279</v>
       </c>
     </row>
-    <row r="17" spans="1:17" s="5" customFormat="1" ht="16.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="3" t="s">
+    <row r="17" spans="1:17" s="2" customFormat="1" ht="15.75" x14ac:dyDescent="0.2">
+      <c r="A17" s="6" t="s">
         <v>19</v>
       </c>
-      <c r="B17" s="3" t="s">
+      <c r="B17" s="6" t="s">
         <v>29</v>
       </c>
-      <c r="C17" s="3"/>
-      <c r="D17" s="3"/>
-      <c r="E17" s="3"/>
-      <c r="F17" s="3"/>
-      <c r="G17" s="3" t="s">
+      <c r="C17" s="11"/>
+      <c r="D17" s="11"/>
+      <c r="E17" s="11"/>
+      <c r="F17" s="11"/>
+      <c r="G17" s="11" t="s">
         <v>68</v>
       </c>
-      <c r="H17" s="3" t="s">
+      <c r="H17" s="11" t="s">
         <v>69</v>
       </c>
-      <c r="I17" s="3"/>
-      <c r="J17" s="3" t="s">
+      <c r="I17" s="11"/>
+      <c r="J17" s="11" t="s">
         <v>70</v>
       </c>
-      <c r="K17" s="3" t="s">
+      <c r="K17" s="11" t="s">
         <v>71</v>
       </c>
-      <c r="L17" s="3" t="s">
+      <c r="L17" s="11" t="s">
         <v>72</v>
       </c>
-      <c r="M17" s="3" t="s">
+      <c r="M17" s="11" t="s">
         <v>73</v>
       </c>
-      <c r="N17" s="3" t="s">
+      <c r="N17" s="11" t="s">
         <v>74</v>
       </c>
-      <c r="O17" s="3" t="s">
+      <c r="O17" s="11" t="s">
         <v>68</v>
       </c>
-      <c r="P17" s="3" t="s">
+      <c r="P17" s="11" t="s">
         <v>69</v>
       </c>
       <c r="Q17" s="7" t="s">
         <v>279</v>
       </c>
     </row>
-    <row r="18" spans="1:17" s="5" customFormat="1" ht="16.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="3" t="s">
+    <row r="18" spans="1:17" s="2" customFormat="1" ht="15.75" x14ac:dyDescent="0.2">
+      <c r="A18" s="6" t="s">
         <v>19</v>
       </c>
-      <c r="B18" s="3" t="s">
+      <c r="B18" s="6" t="s">
         <v>75</v>
       </c>
-      <c r="C18" s="3"/>
-      <c r="D18" s="3"/>
-      <c r="E18" s="3"/>
-      <c r="F18" s="3"/>
-      <c r="G18" s="3" t="s">
+      <c r="C18" s="11"/>
+      <c r="D18" s="11"/>
+      <c r="E18" s="11"/>
+      <c r="F18" s="11"/>
+      <c r="G18" s="11" t="s">
         <v>76</v>
       </c>
-      <c r="H18" s="3" t="s">
+      <c r="H18" s="11" t="s">
         <v>77</v>
       </c>
-      <c r="I18" s="3"/>
-      <c r="J18" s="3" t="s">
+      <c r="I18" s="11"/>
+      <c r="J18" s="11" t="s">
         <v>78</v>
       </c>
-      <c r="K18" s="3" t="s">
+      <c r="K18" s="11" t="s">
         <v>79</v>
       </c>
-      <c r="L18" s="3" t="s">
+      <c r="L18" s="11" t="s">
         <v>80</v>
       </c>
-      <c r="M18" s="3" t="s">
+      <c r="M18" s="11" t="s">
         <v>81</v>
       </c>
-      <c r="N18" s="3" t="s">
+      <c r="N18" s="11" t="s">
         <v>82</v>
       </c>
-      <c r="O18" s="3" t="s">
+      <c r="O18" s="11" t="s">
         <v>76</v>
       </c>
-      <c r="P18" s="3" t="s">
+      <c r="P18" s="11" t="s">
         <v>77</v>
       </c>
       <c r="Q18" s="7" t="s">
         <v>279</v>
       </c>
     </row>
-    <row r="19" spans="1:17" s="5" customFormat="1" ht="16.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="3" t="s">
+    <row r="19" spans="1:17" s="2" customFormat="1" ht="15.75" x14ac:dyDescent="0.2">
+      <c r="A19" s="6" t="s">
         <v>19</v>
       </c>
-      <c r="B19" s="3" t="s">
+      <c r="B19" s="6" t="s">
         <v>45</v>
       </c>
-      <c r="C19" s="3"/>
-      <c r="D19" s="3"/>
-      <c r="E19" s="3"/>
-      <c r="F19" s="3"/>
-      <c r="G19" s="3" t="s">
+      <c r="C19" s="11"/>
+      <c r="D19" s="11"/>
+      <c r="E19" s="11"/>
+      <c r="F19" s="11"/>
+      <c r="G19" s="11" t="s">
         <v>83</v>
       </c>
-      <c r="H19" s="3" t="s">
+      <c r="H19" s="11" t="s">
         <v>84</v>
       </c>
-      <c r="I19" s="3"/>
-      <c r="J19" s="3" t="s">
+      <c r="I19" s="11"/>
+      <c r="J19" s="11" t="s">
         <v>85</v>
       </c>
-      <c r="K19" s="3" t="s">
+      <c r="K19" s="11" t="s">
         <v>86</v>
       </c>
-      <c r="L19" s="3" t="s">
+      <c r="L19" s="11" t="s">
         <v>87</v>
       </c>
-      <c r="M19" s="3" t="s">
+      <c r="M19" s="11" t="s">
         <v>88</v>
       </c>
-      <c r="N19" s="3" t="s">
+      <c r="N19" s="11" t="s">
         <v>89</v>
       </c>
-      <c r="O19" s="3" t="s">
+      <c r="O19" s="11" t="s">
         <v>83</v>
       </c>
-      <c r="P19" s="3" t="s">
+      <c r="P19" s="11" t="s">
         <v>84</v>
       </c>
       <c r="Q19" s="7" t="s">
         <v>279</v>
       </c>
     </row>
-    <row r="20" spans="1:17" s="5" customFormat="1" ht="16.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="3" t="s">
+    <row r="20" spans="1:17" s="2" customFormat="1" ht="15.75" x14ac:dyDescent="0.2">
+      <c r="A20" s="6" t="s">
         <v>19</v>
       </c>
-      <c r="B20" s="3" t="s">
+      <c r="B20" s="6" t="s">
         <v>53</v>
       </c>
-      <c r="C20" s="3"/>
-      <c r="D20" s="3"/>
-      <c r="E20" s="3"/>
-      <c r="F20" s="3"/>
-      <c r="G20" s="3" t="s">
+      <c r="C20" s="11"/>
+      <c r="D20" s="11"/>
+      <c r="E20" s="11"/>
+      <c r="F20" s="11"/>
+      <c r="G20" s="11" t="s">
         <v>90</v>
       </c>
-      <c r="H20" s="3" t="s">
+      <c r="H20" s="11" t="s">
         <v>91</v>
       </c>
-      <c r="I20" s="3"/>
-      <c r="J20" s="3" t="s">
+      <c r="I20" s="11"/>
+      <c r="J20" s="11" t="s">
         <v>92</v>
       </c>
-      <c r="K20" s="3" t="s">
+      <c r="K20" s="11" t="s">
         <v>93</v>
       </c>
-      <c r="L20" s="3" t="s">
+      <c r="L20" s="11" t="s">
         <v>94</v>
       </c>
-      <c r="M20" s="3" t="s">
+      <c r="M20" s="11" t="s">
         <v>95</v>
       </c>
-      <c r="N20" s="3" t="s">
+      <c r="N20" s="11" t="s">
         <v>96</v>
       </c>
-      <c r="O20" s="3" t="s">
+      <c r="O20" s="11" t="s">
         <v>90</v>
       </c>
-      <c r="P20" s="3" t="s">
+      <c r="P20" s="11" t="s">
         <v>91</v>
       </c>
       <c r="Q20" s="7" t="s">
         <v>279</v>
       </c>
     </row>
-    <row r="21" spans="1:17" s="5" customFormat="1" ht="16.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="3" t="s">
+    <row r="21" spans="1:17" s="2" customFormat="1" ht="15.75" x14ac:dyDescent="0.2">
+      <c r="A21" s="6" t="s">
         <v>277</v>
       </c>
-      <c r="B21" s="3" t="s">
+      <c r="B21" s="6" t="s">
         <v>278</v>
       </c>
-      <c r="C21" s="3"/>
-      <c r="D21" s="3"/>
-      <c r="E21" s="3"/>
-      <c r="F21" s="3"/>
-      <c r="G21" s="3"/>
-      <c r="H21" s="3"/>
-      <c r="I21" s="3"/>
-      <c r="J21" s="3"/>
-      <c r="K21" s="3"/>
-      <c r="L21" s="3"/>
-      <c r="M21" s="3"/>
-      <c r="N21" s="3"/>
-      <c r="O21" s="3"/>
-      <c r="P21" s="3"/>
+      <c r="C21" s="11"/>
+      <c r="D21" s="11"/>
+      <c r="E21" s="11"/>
+      <c r="F21" s="11"/>
+      <c r="G21" s="11"/>
+      <c r="H21" s="11"/>
+      <c r="I21" s="11"/>
+      <c r="J21" s="11"/>
+      <c r="K21" s="11"/>
+      <c r="L21" s="11"/>
+      <c r="M21" s="11"/>
+      <c r="N21" s="11"/>
+      <c r="O21" s="11"/>
+      <c r="P21" s="11"/>
       <c r="Q21" s="7" t="s">
         <v>279</v>
       </c>
     </row>
-    <row r="22" spans="1:17" s="5" customFormat="1" ht="16.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="3" t="s">
+    <row r="22" spans="1:17" s="2" customFormat="1" ht="15.75" x14ac:dyDescent="0.2">
+      <c r="A22" s="6" t="s">
         <v>18</v>
       </c>
-      <c r="B22" s="3" t="s">
+      <c r="B22" s="6" t="s">
         <v>273</v>
       </c>
-      <c r="C22" s="3"/>
-      <c r="D22" s="3"/>
-      <c r="E22" s="3"/>
-      <c r="F22" s="3"/>
-      <c r="G22" s="3"/>
-      <c r="H22" s="3"/>
-      <c r="I22" s="3"/>
-      <c r="J22" s="3"/>
-      <c r="K22" s="3"/>
-      <c r="L22" s="3"/>
-      <c r="M22" s="3"/>
-      <c r="N22" s="3"/>
-      <c r="O22" s="3"/>
-      <c r="P22" s="3"/>
+      <c r="C22" s="11"/>
+      <c r="D22" s="11"/>
+      <c r="E22" s="11"/>
+      <c r="F22" s="11"/>
+      <c r="G22" s="11"/>
+      <c r="H22" s="11"/>
+      <c r="I22" s="11"/>
+      <c r="J22" s="11"/>
+      <c r="K22" s="11"/>
+      <c r="L22" s="11"/>
+      <c r="M22" s="11"/>
+      <c r="N22" s="11"/>
+      <c r="O22" s="11"/>
+      <c r="P22" s="11"/>
       <c r="Q22" s="7" t="s">
         <v>279</v>
       </c>
     </row>
-    <row r="23" spans="1:17" s="5" customFormat="1" ht="16.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A23" s="3" t="s">
+    <row r="23" spans="1:17" s="2" customFormat="1" ht="15.75" x14ac:dyDescent="0.2">
+      <c r="A23" s="6" t="s">
         <v>97</v>
       </c>
-      <c r="B23" s="3" t="s">
+      <c r="B23" s="6" t="s">
         <v>20</v>
       </c>
-      <c r="C23" s="3"/>
-      <c r="D23" s="3"/>
-      <c r="E23" s="3"/>
-      <c r="F23" s="3"/>
-      <c r="G23" s="3" t="s">
+      <c r="C23" s="11"/>
+      <c r="D23" s="11"/>
+      <c r="E23" s="11"/>
+      <c r="F23" s="11"/>
+      <c r="G23" s="11" t="s">
         <v>98</v>
       </c>
-      <c r="H23" s="3" t="s">
+      <c r="H23" s="11" t="s">
         <v>99</v>
       </c>
-      <c r="I23" s="3"/>
-      <c r="J23" s="3" t="s">
+      <c r="I23" s="11"/>
+      <c r="J23" s="11" t="s">
         <v>100</v>
       </c>
-      <c r="K23" s="3" t="s">
+      <c r="K23" s="11" t="s">
         <v>101</v>
       </c>
-      <c r="L23" s="3" t="s">
+      <c r="L23" s="11" t="s">
         <v>102</v>
       </c>
-      <c r="M23" s="3" t="s">
+      <c r="M23" s="11" t="s">
         <v>103</v>
       </c>
-      <c r="N23" s="3" t="s">
+      <c r="N23" s="11" t="s">
         <v>104</v>
       </c>
-      <c r="O23" s="3" t="s">
+      <c r="O23" s="11" t="s">
         <v>98</v>
       </c>
-      <c r="P23" s="3" t="s">
+      <c r="P23" s="11" t="s">
         <v>99</v>
       </c>
       <c r="Q23" s="7" t="s">
         <v>279</v>
       </c>
     </row>
-    <row r="24" spans="1:17" s="5" customFormat="1" ht="16.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A24" s="3" t="s">
+    <row r="24" spans="1:17" s="2" customFormat="1" ht="15.75" x14ac:dyDescent="0.2">
+      <c r="A24" s="6" t="s">
         <v>19</v>
       </c>
-      <c r="B24" s="3" t="s">
+      <c r="B24" s="6" t="s">
         <v>29</v>
       </c>
-      <c r="C24" s="3"/>
-      <c r="D24" s="3"/>
-      <c r="E24" s="3"/>
-      <c r="F24" s="3"/>
-      <c r="G24" s="3" t="s">
+      <c r="C24" s="11"/>
+      <c r="D24" s="11"/>
+      <c r="E24" s="11"/>
+      <c r="F24" s="11"/>
+      <c r="G24" s="11" t="s">
         <v>105</v>
       </c>
-      <c r="H24" s="3" t="s">
+      <c r="H24" s="11" t="s">
         <v>106</v>
       </c>
-      <c r="I24" s="3"/>
-      <c r="J24" s="3" t="s">
+      <c r="I24" s="11"/>
+      <c r="J24" s="11" t="s">
         <v>107</v>
       </c>
-      <c r="K24" s="3" t="s">
+      <c r="K24" s="11" t="s">
         <v>108</v>
       </c>
-      <c r="L24" s="3" t="s">
+      <c r="L24" s="11" t="s">
         <v>109</v>
       </c>
-      <c r="M24" s="3" t="s">
+      <c r="M24" s="11" t="s">
         <v>110</v>
       </c>
-      <c r="N24" s="3" t="s">
+      <c r="N24" s="11" t="s">
         <v>111</v>
       </c>
-      <c r="O24" s="3" t="s">
+      <c r="O24" s="11" t="s">
         <v>105</v>
       </c>
-      <c r="P24" s="3" t="s">
+      <c r="P24" s="11" t="s">
         <v>106</v>
       </c>
       <c r="Q24" s="7" t="s">
         <v>279</v>
       </c>
     </row>
-    <row r="25" spans="1:17" s="5" customFormat="1" ht="16.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A25" s="3" t="s">
+    <row r="25" spans="1:17" s="2" customFormat="1" ht="15.75" x14ac:dyDescent="0.2">
+      <c r="A25" s="6" t="s">
         <v>19</v>
       </c>
-      <c r="B25" s="3" t="s">
+      <c r="B25" s="6" t="s">
         <v>37</v>
       </c>
-      <c r="C25" s="3"/>
-      <c r="D25" s="3"/>
-      <c r="E25" s="3"/>
-      <c r="F25" s="3"/>
-      <c r="G25" s="3" t="s">
+      <c r="C25" s="11"/>
+      <c r="D25" s="11"/>
+      <c r="E25" s="11"/>
+      <c r="F25" s="11"/>
+      <c r="G25" s="11" t="s">
         <v>112</v>
       </c>
-      <c r="H25" s="3" t="s">
+      <c r="H25" s="11" t="s">
         <v>113</v>
       </c>
-      <c r="I25" s="3"/>
-      <c r="J25" s="3" t="s">
+      <c r="I25" s="11"/>
+      <c r="J25" s="11" t="s">
         <v>114</v>
       </c>
-      <c r="K25" s="3" t="s">
+      <c r="K25" s="11" t="s">
         <v>115</v>
       </c>
-      <c r="L25" s="3" t="s">
+      <c r="L25" s="11" t="s">
         <v>116</v>
       </c>
-      <c r="M25" s="3" t="s">
+      <c r="M25" s="11" t="s">
         <v>117</v>
       </c>
-      <c r="N25" s="3" t="s">
+      <c r="N25" s="11" t="s">
         <v>118</v>
       </c>
-      <c r="O25" s="3" t="s">
+      <c r="O25" s="11" t="s">
         <v>112</v>
       </c>
-      <c r="P25" s="3" t="s">
+      <c r="P25" s="11" t="s">
         <v>113</v>
       </c>
       <c r="Q25" s="7" t="s">
         <v>279</v>
       </c>
     </row>
-    <row r="26" spans="1:17" s="5" customFormat="1" ht="16.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A26" s="3" t="s">
+    <row r="26" spans="1:17" s="2" customFormat="1" ht="15.75" x14ac:dyDescent="0.2">
+      <c r="A26" s="6" t="s">
         <v>19</v>
       </c>
-      <c r="B26" s="3" t="s">
+      <c r="B26" s="6" t="s">
         <v>119</v>
       </c>
-      <c r="C26" s="3"/>
-      <c r="D26" s="3"/>
-      <c r="E26" s="3"/>
-      <c r="F26" s="3"/>
-      <c r="G26" s="3" t="s">
+      <c r="C26" s="11"/>
+      <c r="D26" s="11"/>
+      <c r="E26" s="11"/>
+      <c r="F26" s="11"/>
+      <c r="G26" s="11" t="s">
         <v>120</v>
       </c>
-      <c r="H26" s="3" t="s">
+      <c r="H26" s="11" t="s">
         <v>121</v>
       </c>
-      <c r="I26" s="3"/>
-      <c r="J26" s="3" t="s">
+      <c r="I26" s="11"/>
+      <c r="J26" s="11" t="s">
         <v>122</v>
       </c>
-      <c r="K26" s="3" t="s">
+      <c r="K26" s="11" t="s">
         <v>123</v>
       </c>
-      <c r="L26" s="3" t="s">
+      <c r="L26" s="11" t="s">
         <v>124</v>
       </c>
-      <c r="M26" s="3" t="s">
+      <c r="M26" s="11" t="s">
         <v>125</v>
       </c>
-      <c r="N26" s="3" t="s">
+      <c r="N26" s="11" t="s">
         <v>126</v>
       </c>
-      <c r="O26" s="3" t="s">
+      <c r="O26" s="11" t="s">
         <v>120</v>
       </c>
-      <c r="P26" s="3" t="s">
+      <c r="P26" s="11" t="s">
         <v>121</v>
       </c>
       <c r="Q26" s="7" t="s">
         <v>279</v>
       </c>
     </row>
-    <row r="27" spans="1:17" s="5" customFormat="1" ht="16.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A27" s="3" t="s">
+    <row r="27" spans="1:17" s="2" customFormat="1" ht="15.75" x14ac:dyDescent="0.2">
+      <c r="A27" s="6" t="s">
         <v>19</v>
       </c>
-      <c r="B27" s="3" t="s">
+      <c r="B27" s="6" t="s">
         <v>53</v>
       </c>
-      <c r="C27" s="3"/>
-      <c r="D27" s="3"/>
-      <c r="E27" s="3"/>
-      <c r="F27" s="3"/>
-      <c r="G27" s="3" t="s">
+      <c r="C27" s="11"/>
+      <c r="D27" s="11"/>
+      <c r="E27" s="11"/>
+      <c r="F27" s="11"/>
+      <c r="G27" s="11" t="s">
         <v>127</v>
       </c>
-      <c r="H27" s="3" t="s">
+      <c r="H27" s="11" t="s">
         <v>128</v>
       </c>
-      <c r="I27" s="3"/>
-      <c r="J27" s="3" t="s">
+      <c r="I27" s="11"/>
+      <c r="J27" s="11" t="s">
         <v>129</v>
       </c>
-      <c r="K27" s="3" t="s">
+      <c r="K27" s="11" t="s">
         <v>130</v>
       </c>
-      <c r="L27" s="3" t="s">
+      <c r="L27" s="11" t="s">
         <v>131</v>
       </c>
-      <c r="M27" s="3" t="s">
+      <c r="M27" s="11" t="s">
         <v>132</v>
       </c>
-      <c r="N27" s="3" t="s">
+      <c r="N27" s="11" t="s">
         <v>133</v>
       </c>
-      <c r="O27" s="3" t="s">
+      <c r="O27" s="11" t="s">
         <v>127</v>
       </c>
-      <c r="P27" s="3" t="s">
+      <c r="P27" s="11" t="s">
         <v>128</v>
       </c>
       <c r="Q27" s="7" t="s">
         <v>279</v>
       </c>
     </row>
-    <row r="28" spans="1:17" s="5" customFormat="1" ht="16.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A28" s="3" t="s">
+    <row r="28" spans="1:17" s="2" customFormat="1" ht="15.75" x14ac:dyDescent="0.2">
+      <c r="A28" s="6" t="s">
         <v>18</v>
       </c>
-      <c r="B28" s="6" t="s">
+      <c r="B28" s="8" t="s">
         <v>134</v>
       </c>
-      <c r="C28" s="6"/>
-      <c r="D28" s="6"/>
-      <c r="E28" s="6"/>
-      <c r="F28" s="6"/>
-      <c r="G28" s="3"/>
-      <c r="H28" s="3"/>
-      <c r="I28" s="3"/>
-      <c r="J28" s="3"/>
-      <c r="K28" s="3"/>
-      <c r="L28" s="3"/>
-      <c r="M28" s="3"/>
-      <c r="N28" s="3"/>
-      <c r="O28" s="3"/>
-      <c r="P28" s="3"/>
+      <c r="C28" s="13"/>
+      <c r="D28" s="13"/>
+      <c r="E28" s="13"/>
+      <c r="F28" s="13"/>
+      <c r="G28" s="11"/>
+      <c r="H28" s="11"/>
+      <c r="I28" s="11"/>
+      <c r="J28" s="11"/>
+      <c r="K28" s="11"/>
+      <c r="L28" s="11"/>
+      <c r="M28" s="11"/>
+      <c r="N28" s="11"/>
+      <c r="O28" s="11"/>
+      <c r="P28" s="11"/>
       <c r="Q28" s="7" t="s">
         <v>279</v>
       </c>
     </row>
-    <row r="29" spans="1:17" s="5" customFormat="1" ht="16.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A29" s="3" t="s">
+    <row r="29" spans="1:17" s="2" customFormat="1" ht="15.75" x14ac:dyDescent="0.2">
+      <c r="A29" s="6" t="s">
         <v>19</v>
       </c>
-      <c r="B29" s="3" t="s">
+      <c r="B29" s="6" t="s">
         <v>135</v>
       </c>
-      <c r="C29" s="3"/>
-      <c r="D29" s="3"/>
-      <c r="E29" s="3"/>
-      <c r="F29" s="3"/>
-      <c r="G29" s="3" t="s">
+      <c r="C29" s="11"/>
+      <c r="D29" s="11"/>
+      <c r="E29" s="11"/>
+      <c r="F29" s="11"/>
+      <c r="G29" s="11" t="s">
         <v>136</v>
       </c>
-      <c r="H29" s="3" t="s">
+      <c r="H29" s="11" t="s">
         <v>137</v>
       </c>
-      <c r="I29" s="3"/>
-      <c r="J29" s="3" t="s">
+      <c r="I29" s="11"/>
+      <c r="J29" s="11" t="s">
         <v>138</v>
       </c>
-      <c r="K29" s="3" t="s">
+      <c r="K29" s="11" t="s">
         <v>139</v>
       </c>
-      <c r="L29" s="3" t="s">
+      <c r="L29" s="11" t="s">
         <v>140</v>
       </c>
-      <c r="M29" s="3" t="s">
+      <c r="M29" s="11" t="s">
         <v>141</v>
       </c>
-      <c r="N29" s="3" t="s">
+      <c r="N29" s="11" t="s">
         <v>142</v>
       </c>
-      <c r="O29" s="3" t="s">
+      <c r="O29" s="11" t="s">
         <v>136</v>
       </c>
-      <c r="P29" s="3" t="s">
+      <c r="P29" s="11" t="s">
         <v>137</v>
       </c>
       <c r="Q29" s="7" t="s">
         <v>279</v>
       </c>
     </row>
-    <row r="30" spans="1:17" s="5" customFormat="1" ht="16.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A30" s="3" t="s">
+    <row r="30" spans="1:17" s="2" customFormat="1" ht="15.75" x14ac:dyDescent="0.2">
+      <c r="A30" s="6" t="s">
         <v>19</v>
       </c>
-      <c r="B30" s="3" t="s">
+      <c r="B30" s="6" t="s">
         <v>143</v>
       </c>
-      <c r="C30" s="3"/>
-      <c r="D30" s="3"/>
-      <c r="E30" s="3"/>
-      <c r="F30" s="3"/>
-      <c r="G30" s="3" t="s">
+      <c r="C30" s="11"/>
+      <c r="D30" s="11"/>
+      <c r="E30" s="11"/>
+      <c r="F30" s="11"/>
+      <c r="G30" s="11" t="s">
         <v>144</v>
       </c>
-      <c r="H30" s="3" t="s">
+      <c r="H30" s="11" t="s">
         <v>145</v>
       </c>
-      <c r="I30" s="3"/>
-      <c r="J30" s="3" t="s">
+      <c r="I30" s="11"/>
+      <c r="J30" s="11" t="s">
         <v>146</v>
       </c>
-      <c r="K30" s="3" t="s">
+      <c r="K30" s="11" t="s">
         <v>147</v>
       </c>
-      <c r="L30" s="3" t="s">
+      <c r="L30" s="11" t="s">
         <v>148</v>
       </c>
-      <c r="M30" s="3" t="s">
+      <c r="M30" s="11" t="s">
         <v>149</v>
       </c>
-      <c r="N30" s="3" t="s">
+      <c r="N30" s="11" t="s">
         <v>150</v>
       </c>
-      <c r="O30" s="3" t="s">
+      <c r="O30" s="11" t="s">
         <v>144</v>
       </c>
-      <c r="P30" s="3" t="s">
+      <c r="P30" s="11" t="s">
         <v>145</v>
       </c>
       <c r="Q30" s="7" t="s">
         <v>279</v>
       </c>
     </row>
-    <row r="31" spans="1:17" s="5" customFormat="1" ht="16.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A31" s="3" t="s">
+    <row r="31" spans="1:17" s="2" customFormat="1" ht="15.75" x14ac:dyDescent="0.2">
+      <c r="A31" s="6" t="s">
         <v>19</v>
       </c>
-      <c r="B31" s="3" t="s">
+      <c r="B31" s="6" t="s">
         <v>151</v>
       </c>
-      <c r="C31" s="3"/>
-      <c r="D31" s="3"/>
-      <c r="E31" s="3"/>
-      <c r="F31" s="3"/>
-      <c r="G31" s="3" t="s">
+      <c r="C31" s="11"/>
+      <c r="D31" s="11"/>
+      <c r="E31" s="11"/>
+      <c r="F31" s="11"/>
+      <c r="G31" s="11" t="s">
         <v>152</v>
       </c>
-      <c r="H31" s="3" t="s">
+      <c r="H31" s="11" t="s">
         <v>153</v>
       </c>
-      <c r="I31" s="3"/>
-      <c r="J31" s="3" t="s">
+      <c r="I31" s="11"/>
+      <c r="J31" s="11" t="s">
         <v>154</v>
       </c>
-      <c r="K31" s="3" t="s">
+      <c r="K31" s="11" t="s">
         <v>155</v>
       </c>
-      <c r="L31" s="3" t="s">
+      <c r="L31" s="11" t="s">
         <v>156</v>
       </c>
-      <c r="M31" s="3" t="s">
+      <c r="M31" s="11" t="s">
         <v>157</v>
       </c>
-      <c r="N31" s="3" t="s">
+      <c r="N31" s="11" t="s">
         <v>158</v>
       </c>
-      <c r="O31" s="3" t="s">
+      <c r="O31" s="11" t="s">
         <v>152</v>
       </c>
-      <c r="P31" s="3" t="s">
+      <c r="P31" s="11" t="s">
         <v>153</v>
       </c>
       <c r="Q31" s="7" t="s">
         <v>279</v>
       </c>
     </row>
-    <row r="32" spans="1:17" s="5" customFormat="1" ht="16.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A32" s="3" t="s">
+    <row r="32" spans="1:17" s="2" customFormat="1" ht="15.75" x14ac:dyDescent="0.2">
+      <c r="A32" s="6" t="s">
         <v>19</v>
       </c>
-      <c r="B32" s="3" t="s">
+      <c r="B32" s="6" t="s">
         <v>159</v>
       </c>
-      <c r="C32" s="3"/>
-      <c r="D32" s="3"/>
-      <c r="E32" s="3"/>
-      <c r="F32" s="3"/>
-      <c r="G32" s="3" t="s">
+      <c r="C32" s="11"/>
+      <c r="D32" s="11"/>
+      <c r="E32" s="11"/>
+      <c r="F32" s="11"/>
+      <c r="G32" s="11" t="s">
         <v>160</v>
       </c>
-      <c r="H32" s="3" t="s">
+      <c r="H32" s="11" t="s">
         <v>161</v>
       </c>
-      <c r="I32" s="3"/>
-      <c r="J32" s="3" t="s">
+      <c r="I32" s="11"/>
+      <c r="J32" s="11" t="s">
         <v>162</v>
       </c>
-      <c r="K32" s="3" t="s">
+      <c r="K32" s="11" t="s">
         <v>163</v>
       </c>
-      <c r="L32" s="3" t="s">
+      <c r="L32" s="11" t="s">
         <v>164</v>
       </c>
-      <c r="M32" s="3" t="s">
+      <c r="M32" s="11" t="s">
         <v>165</v>
       </c>
-      <c r="N32" s="3" t="s">
+      <c r="N32" s="11" t="s">
         <v>166</v>
       </c>
-      <c r="O32" s="3" t="s">
+      <c r="O32" s="11" t="s">
         <v>160</v>
       </c>
-      <c r="P32" s="3" t="s">
+      <c r="P32" s="11" t="s">
         <v>161</v>
       </c>
       <c r="Q32" s="7" t="s">
         <v>279</v>
       </c>
     </row>
-    <row r="33" spans="1:17" s="5" customFormat="1" ht="16.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A33" s="3" t="s">
+    <row r="33" spans="1:17" s="2" customFormat="1" ht="15.75" x14ac:dyDescent="0.2">
+      <c r="A33" s="6" t="s">
         <v>19</v>
       </c>
-      <c r="B33" s="3" t="s">
+      <c r="B33" s="6" t="s">
         <v>167</v>
       </c>
-      <c r="C33" s="3"/>
-      <c r="D33" s="3"/>
-      <c r="E33" s="3"/>
-      <c r="F33" s="3"/>
-      <c r="G33" s="3" t="s">
+      <c r="C33" s="11"/>
+      <c r="D33" s="11"/>
+      <c r="E33" s="11"/>
+      <c r="F33" s="11"/>
+      <c r="G33" s="11" t="s">
         <v>168</v>
       </c>
-      <c r="H33" s="3" t="s">
+      <c r="H33" s="11" t="s">
         <v>169</v>
       </c>
-      <c r="I33" s="3"/>
-      <c r="J33" s="3" t="s">
+      <c r="I33" s="11"/>
+      <c r="J33" s="11" t="s">
         <v>170</v>
       </c>
-      <c r="K33" s="3" t="s">
+      <c r="K33" s="11" t="s">
         <v>171</v>
       </c>
-      <c r="L33" s="3" t="s">
+      <c r="L33" s="11" t="s">
         <v>172</v>
       </c>
-      <c r="M33" s="3" t="s">
+      <c r="M33" s="11" t="s">
         <v>173</v>
       </c>
-      <c r="N33" s="3" t="s">
+      <c r="N33" s="11" t="s">
         <v>174</v>
       </c>
-      <c r="O33" s="3" t="s">
+      <c r="O33" s="11" t="s">
         <v>168</v>
       </c>
-      <c r="P33" s="3" t="s">
+      <c r="P33" s="11" t="s">
         <v>169</v>
       </c>
       <c r="Q33" s="7" t="s">
         <v>279</v>
       </c>
     </row>
-    <row r="34" spans="1:17" s="5" customFormat="1" ht="16.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A34" s="3" t="s">
+    <row r="34" spans="1:17" s="2" customFormat="1" ht="15.75" x14ac:dyDescent="0.2">
+      <c r="A34" s="6" t="s">
         <v>19</v>
       </c>
-      <c r="B34" s="3" t="s">
+      <c r="B34" s="6" t="s">
         <v>175</v>
       </c>
-      <c r="C34" s="3"/>
-      <c r="D34" s="3"/>
-      <c r="E34" s="3"/>
-      <c r="F34" s="3"/>
-      <c r="G34" s="3" t="s">
+      <c r="C34" s="11"/>
+      <c r="D34" s="11"/>
+      <c r="E34" s="11"/>
+      <c r="F34" s="11"/>
+      <c r="G34" s="11" t="s">
         <v>176</v>
       </c>
-      <c r="H34" s="3" t="s">
+      <c r="H34" s="11" t="s">
         <v>177</v>
       </c>
-      <c r="I34" s="3"/>
-      <c r="J34" s="3" t="s">
+      <c r="I34" s="11"/>
+      <c r="J34" s="11" t="s">
         <v>178</v>
       </c>
-      <c r="K34" s="3" t="s">
+      <c r="K34" s="11" t="s">
         <v>179</v>
       </c>
-      <c r="L34" s="3" t="s">
+      <c r="L34" s="11" t="s">
         <v>180</v>
       </c>
-      <c r="M34" s="3" t="s">
+      <c r="M34" s="11" t="s">
         <v>181</v>
       </c>
-      <c r="N34" s="3" t="s">
+      <c r="N34" s="11" t="s">
         <v>182</v>
       </c>
-      <c r="O34" s="3" t="s">
+      <c r="O34" s="11" t="s">
         <v>176</v>
       </c>
-      <c r="P34" s="3" t="s">
+      <c r="P34" s="11" t="s">
         <v>177</v>
       </c>
       <c r="Q34" s="7" t="s">
         <v>279</v>
       </c>
     </row>
-    <row r="35" spans="1:17" s="5" customFormat="1" ht="16.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A35" s="3" t="s">
+    <row r="35" spans="1:17" s="2" customFormat="1" ht="15.75" x14ac:dyDescent="0.2">
+      <c r="A35" s="6" t="s">
         <v>19</v>
       </c>
-      <c r="B35" s="3" t="s">
+      <c r="B35" s="6" t="s">
         <v>183</v>
       </c>
-      <c r="C35" s="3"/>
-      <c r="D35" s="3"/>
-      <c r="E35" s="3"/>
-      <c r="F35" s="3"/>
-      <c r="G35" s="3" t="s">
+      <c r="C35" s="11"/>
+      <c r="D35" s="11"/>
+      <c r="E35" s="11"/>
+      <c r="F35" s="11"/>
+      <c r="G35" s="11" t="s">
         <v>184</v>
       </c>
-      <c r="H35" s="3" t="s">
+      <c r="H35" s="11" t="s">
         <v>185</v>
       </c>
-      <c r="I35" s="3"/>
-      <c r="J35" s="3" t="s">
+      <c r="I35" s="11"/>
+      <c r="J35" s="11" t="s">
         <v>186</v>
       </c>
-      <c r="K35" s="3" t="s">
+      <c r="K35" s="11" t="s">
         <v>187</v>
       </c>
-      <c r="L35" s="3" t="s">
+      <c r="L35" s="11" t="s">
         <v>188</v>
       </c>
-      <c r="M35" s="3" t="s">
+      <c r="M35" s="11" t="s">
         <v>189</v>
       </c>
-      <c r="N35" s="3" t="s">
+      <c r="N35" s="11" t="s">
         <v>190</v>
       </c>
-      <c r="O35" s="3" t="s">
+      <c r="O35" s="11" t="s">
         <v>184</v>
       </c>
-      <c r="P35" s="3" t="s">
+      <c r="P35" s="11" t="s">
         <v>185</v>
       </c>
       <c r="Q35" s="7" t="s">
         <v>279</v>
       </c>
     </row>
-    <row r="36" spans="1:17" s="5" customFormat="1" ht="16.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A36" s="3" t="s">
+    <row r="36" spans="1:17" s="2" customFormat="1" ht="15.75" x14ac:dyDescent="0.2">
+      <c r="A36" s="6" t="s">
         <v>19</v>
       </c>
-      <c r="B36" s="3" t="s">
+      <c r="B36" s="6" t="s">
         <v>191</v>
       </c>
-      <c r="C36" s="3"/>
-      <c r="D36" s="3"/>
-      <c r="E36" s="3"/>
-      <c r="F36" s="3"/>
-      <c r="G36" s="3" t="s">
+      <c r="C36" s="11"/>
+      <c r="D36" s="11"/>
+      <c r="E36" s="11"/>
+      <c r="F36" s="11"/>
+      <c r="G36" s="11" t="s">
         <v>192</v>
       </c>
-      <c r="H36" s="3" t="s">
+      <c r="H36" s="11" t="s">
         <v>193</v>
       </c>
-      <c r="I36" s="3"/>
-      <c r="J36" s="3" t="s">
+      <c r="I36" s="11"/>
+      <c r="J36" s="11" t="s">
         <v>194</v>
       </c>
-      <c r="K36" s="3" t="s">
+      <c r="K36" s="11" t="s">
         <v>195</v>
       </c>
-      <c r="L36" s="3" t="s">
+      <c r="L36" s="11" t="s">
         <v>196</v>
       </c>
-      <c r="M36" s="3" t="s">
+      <c r="M36" s="11" t="s">
         <v>197</v>
       </c>
-      <c r="N36" s="3" t="s">
+      <c r="N36" s="11" t="s">
         <v>198</v>
       </c>
-      <c r="O36" s="3" t="s">
+      <c r="O36" s="11" t="s">
         <v>192</v>
       </c>
-      <c r="P36" s="3" t="s">
+      <c r="P36" s="11" t="s">
         <v>193</v>
       </c>
       <c r="Q36" s="7" t="s">
         <v>279</v>
       </c>
     </row>
-    <row r="37" spans="1:17" s="5" customFormat="1" ht="16.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A37" s="3" t="s">
+    <row r="37" spans="1:17" s="2" customFormat="1" ht="15.75" x14ac:dyDescent="0.2">
+      <c r="A37" s="6" t="s">
         <v>19</v>
       </c>
-      <c r="B37" s="3" t="s">
+      <c r="B37" s="6" t="s">
         <v>199</v>
       </c>
-      <c r="C37" s="3"/>
-      <c r="D37" s="3"/>
-      <c r="E37" s="3"/>
-      <c r="F37" s="3"/>
-      <c r="G37" s="3" t="s">
+      <c r="C37" s="11"/>
+      <c r="D37" s="11"/>
+      <c r="E37" s="11"/>
+      <c r="F37" s="11"/>
+      <c r="G37" s="11" t="s">
         <v>200</v>
       </c>
-      <c r="H37" s="3" t="s">
+      <c r="H37" s="11" t="s">
         <v>201</v>
       </c>
-      <c r="I37" s="3"/>
-      <c r="J37" s="3" t="s">
+      <c r="I37" s="11"/>
+      <c r="J37" s="11" t="s">
         <v>202</v>
       </c>
-      <c r="K37" s="3" t="s">
+      <c r="K37" s="11" t="s">
         <v>203</v>
       </c>
-      <c r="L37" s="3" t="s">
+      <c r="L37" s="11" t="s">
         <v>204</v>
       </c>
-      <c r="M37" s="3" t="s">
+      <c r="M37" s="11" t="s">
         <v>205</v>
       </c>
-      <c r="N37" s="3" t="s">
+      <c r="N37" s="11" t="s">
         <v>206</v>
       </c>
-      <c r="O37" s="3" t="s">
+      <c r="O37" s="11" t="s">
         <v>200</v>
       </c>
-      <c r="P37" s="3" t="s">
+      <c r="P37" s="11" t="s">
         <v>201</v>
       </c>
       <c r="Q37" s="7" t="s">
         <v>279</v>
       </c>
     </row>
-    <row r="38" spans="1:17" s="5" customFormat="1" ht="16.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A38" s="3" t="s">
+    <row r="38" spans="1:17" s="2" customFormat="1" ht="15.75" x14ac:dyDescent="0.2">
+      <c r="A38" s="6" t="s">
         <v>19</v>
       </c>
-      <c r="B38" s="3" t="s">
+      <c r="B38" s="6" t="s">
         <v>207</v>
       </c>
-      <c r="C38" s="3"/>
-      <c r="D38" s="3"/>
-      <c r="E38" s="3"/>
-      <c r="F38" s="3"/>
-      <c r="G38" s="3" t="s">
+      <c r="C38" s="11"/>
+      <c r="D38" s="11"/>
+      <c r="E38" s="11"/>
+      <c r="F38" s="11"/>
+      <c r="G38" s="11" t="s">
         <v>208</v>
       </c>
-      <c r="H38" s="3" t="s">
+      <c r="H38" s="11" t="s">
         <v>209</v>
       </c>
-      <c r="I38" s="3"/>
-      <c r="J38" s="3" t="s">
+      <c r="I38" s="11"/>
+      <c r="J38" s="11" t="s">
         <v>210</v>
       </c>
-      <c r="K38" s="3" t="s">
+      <c r="K38" s="11" t="s">
         <v>211</v>
       </c>
-      <c r="L38" s="3" t="s">
+      <c r="L38" s="11" t="s">
         <v>212</v>
       </c>
-      <c r="M38" s="3" t="s">
+      <c r="M38" s="11" t="s">
         <v>213</v>
       </c>
-      <c r="N38" s="3" t="s">
+      <c r="N38" s="11" t="s">
         <v>214</v>
       </c>
-      <c r="O38" s="3" t="s">
+      <c r="O38" s="11" t="s">
         <v>208</v>
       </c>
-      <c r="P38" s="3" t="s">
+      <c r="P38" s="11" t="s">
         <v>209</v>
       </c>
       <c r="Q38" s="7" t="s">
         <v>279</v>
       </c>
     </row>
-    <row r="39" spans="1:17" s="5" customFormat="1" ht="16.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A39" s="3" t="s">
+    <row r="39" spans="1:17" s="2" customFormat="1" ht="15.75" x14ac:dyDescent="0.2">
+      <c r="A39" s="6" t="s">
         <v>19</v>
       </c>
-      <c r="B39" s="3" t="s">
+      <c r="B39" s="6" t="s">
         <v>215</v>
       </c>
-      <c r="C39" s="3"/>
-      <c r="D39" s="3"/>
-      <c r="E39" s="3"/>
-      <c r="F39" s="3"/>
-      <c r="G39" s="3" t="s">
+      <c r="C39" s="11"/>
+      <c r="D39" s="11"/>
+      <c r="E39" s="11"/>
+      <c r="F39" s="11"/>
+      <c r="G39" s="11" t="s">
         <v>216</v>
       </c>
-      <c r="H39" s="3" t="s">
+      <c r="H39" s="11" t="s">
         <v>217</v>
       </c>
-      <c r="I39" s="3"/>
-      <c r="J39" s="3" t="s">
+      <c r="I39" s="11"/>
+      <c r="J39" s="11" t="s">
         <v>218</v>
       </c>
-      <c r="K39" s="3" t="s">
+      <c r="K39" s="11" t="s">
         <v>219</v>
       </c>
-      <c r="L39" s="3" t="s">
+      <c r="L39" s="11" t="s">
         <v>220</v>
       </c>
-      <c r="M39" s="3" t="s">
+      <c r="M39" s="11" t="s">
         <v>221</v>
       </c>
-      <c r="N39" s="3" t="s">
+      <c r="N39" s="11" t="s">
         <v>222</v>
       </c>
-      <c r="O39" s="3" t="s">
+      <c r="O39" s="11" t="s">
         <v>216</v>
       </c>
-      <c r="P39" s="3" t="s">
+      <c r="P39" s="11" t="s">
         <v>217</v>
       </c>
       <c r="Q39" s="7" t="s">
         <v>279</v>
       </c>
     </row>
-    <row r="40" spans="1:17" s="5" customFormat="1" ht="16.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A40" s="3" t="s">
+    <row r="40" spans="1:17" s="2" customFormat="1" ht="15.75" x14ac:dyDescent="0.2">
+      <c r="A40" s="6" t="s">
         <v>19</v>
       </c>
-      <c r="B40" s="3" t="s">
+      <c r="B40" s="6" t="s">
         <v>223</v>
       </c>
-      <c r="C40" s="3"/>
-      <c r="D40" s="3"/>
-      <c r="E40" s="3"/>
-      <c r="F40" s="3"/>
-      <c r="G40" s="3" t="s">
+      <c r="C40" s="11"/>
+      <c r="D40" s="11"/>
+      <c r="E40" s="11"/>
+      <c r="F40" s="11"/>
+      <c r="G40" s="11" t="s">
         <v>224</v>
       </c>
-      <c r="H40" s="3" t="s">
+      <c r="H40" s="11" t="s">
         <v>225</v>
       </c>
-      <c r="I40" s="3"/>
-      <c r="J40" s="3" t="s">
+      <c r="I40" s="11"/>
+      <c r="J40" s="11" t="s">
         <v>226</v>
       </c>
-      <c r="K40" s="3" t="s">
+      <c r="K40" s="11" t="s">
         <v>227</v>
       </c>
-      <c r="L40" s="3" t="s">
+      <c r="L40" s="11" t="s">
         <v>228</v>
       </c>
-      <c r="M40" s="3" t="s">
+      <c r="M40" s="11" t="s">
         <v>229</v>
       </c>
-      <c r="N40" s="3" t="s">
+      <c r="N40" s="11" t="s">
         <v>230</v>
       </c>
-      <c r="O40" s="3" t="s">
+      <c r="O40" s="11" t="s">
         <v>224</v>
       </c>
-      <c r="P40" s="3" t="s">
+      <c r="P40" s="11" t="s">
         <v>225</v>
       </c>
       <c r="Q40" s="7" t="s">
         <v>279</v>
       </c>
     </row>
-    <row r="41" spans="1:17" s="5" customFormat="1" ht="16.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A41" s="3" t="s">
+    <row r="41" spans="1:17" s="2" customFormat="1" ht="15.75" x14ac:dyDescent="0.2">
+      <c r="A41" s="6" t="s">
         <v>19</v>
       </c>
-      <c r="B41" s="3" t="s">
+      <c r="B41" s="6" t="s">
         <v>231</v>
       </c>
-      <c r="C41" s="3"/>
-      <c r="D41" s="3"/>
-      <c r="E41" s="3"/>
-      <c r="F41" s="3"/>
-      <c r="G41" s="3" t="s">
+      <c r="C41" s="11"/>
+      <c r="D41" s="11"/>
+      <c r="E41" s="11"/>
+      <c r="F41" s="11"/>
+      <c r="G41" s="11" t="s">
         <v>232</v>
       </c>
-      <c r="H41" s="3" t="s">
+      <c r="H41" s="11" t="s">
         <v>233</v>
       </c>
-      <c r="I41" s="3"/>
-      <c r="J41" s="3" t="s">
+      <c r="I41" s="11"/>
+      <c r="J41" s="11" t="s">
         <v>234</v>
       </c>
-      <c r="K41" s="3" t="s">
+      <c r="K41" s="11" t="s">
         <v>235</v>
       </c>
-      <c r="L41" s="3" t="s">
+      <c r="L41" s="11" t="s">
         <v>236</v>
       </c>
-      <c r="M41" s="3" t="s">
+      <c r="M41" s="11" t="s">
         <v>237</v>
       </c>
-      <c r="N41" s="3" t="s">
+      <c r="N41" s="11" t="s">
         <v>238</v>
       </c>
-      <c r="O41" s="3" t="s">
+      <c r="O41" s="11" t="s">
         <v>232</v>
       </c>
-      <c r="P41" s="3" t="s">
+      <c r="P41" s="11" t="s">
         <v>233</v>
       </c>
       <c r="Q41" s="7" t="s">
         <v>279</v>
       </c>
     </row>
-    <row r="42" spans="1:17" s="5" customFormat="1" ht="16.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A42" s="3" t="s">
+    <row r="42" spans="1:17" s="2" customFormat="1" ht="15.75" x14ac:dyDescent="0.2">
+      <c r="A42" s="6" t="s">
         <v>19</v>
       </c>
-      <c r="B42" s="3" t="s">
+      <c r="B42" s="6" t="s">
         <v>239</v>
       </c>
-      <c r="C42" s="3"/>
-      <c r="D42" s="3"/>
-      <c r="E42" s="3"/>
-      <c r="F42" s="3"/>
-      <c r="G42" s="3" t="s">
+      <c r="C42" s="11"/>
+      <c r="D42" s="11"/>
+      <c r="E42" s="11"/>
+      <c r="F42" s="11"/>
+      <c r="G42" s="11" t="s">
         <v>240</v>
       </c>
-      <c r="H42" s="3" t="s">
+      <c r="H42" s="11" t="s">
         <v>241</v>
       </c>
-      <c r="I42" s="3"/>
-      <c r="J42" s="3" t="s">
+      <c r="I42" s="11"/>
+      <c r="J42" s="11" t="s">
         <v>242</v>
       </c>
-      <c r="K42" s="3" t="s">
+      <c r="K42" s="11" t="s">
         <v>243</v>
       </c>
-      <c r="L42" s="3" t="s">
+      <c r="L42" s="11" t="s">
         <v>244</v>
       </c>
-      <c r="M42" s="3" t="s">
+      <c r="M42" s="11" t="s">
         <v>245</v>
       </c>
-      <c r="N42" s="3" t="s">
+      <c r="N42" s="11" t="s">
         <v>246</v>
       </c>
-      <c r="O42" s="3" t="s">
+      <c r="O42" s="11" t="s">
         <v>240</v>
       </c>
-      <c r="P42" s="3" t="s">
+      <c r="P42" s="11" t="s">
         <v>241</v>
       </c>
       <c r="Q42" s="7" t="s">
         <v>279</v>
       </c>
     </row>
-    <row r="43" spans="1:17" s="5" customFormat="1" ht="16.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A43" s="3" t="s">
+    <row r="43" spans="1:17" s="2" customFormat="1" ht="15.75" x14ac:dyDescent="0.2">
+      <c r="A43" s="6" t="s">
         <v>19</v>
       </c>
-      <c r="B43" s="3" t="s">
+      <c r="B43" s="6" t="s">
         <v>247</v>
       </c>
-      <c r="C43" s="3"/>
-      <c r="D43" s="3"/>
-      <c r="E43" s="3"/>
-      <c r="F43" s="3"/>
-      <c r="G43" s="3" t="s">
+      <c r="C43" s="11"/>
+      <c r="D43" s="11"/>
+      <c r="E43" s="11"/>
+      <c r="F43" s="11"/>
+      <c r="G43" s="11" t="s">
         <v>248</v>
       </c>
-      <c r="H43" s="3" t="s">
+      <c r="H43" s="11" t="s">
         <v>249</v>
       </c>
-      <c r="I43" s="3"/>
-      <c r="J43" s="3" t="s">
+      <c r="I43" s="11"/>
+      <c r="J43" s="11" t="s">
         <v>250</v>
       </c>
-      <c r="K43" s="3" t="s">
+      <c r="K43" s="11" t="s">
         <v>251</v>
       </c>
-      <c r="L43" s="3" t="s">
+      <c r="L43" s="11" t="s">
         <v>252</v>
       </c>
-      <c r="M43" s="3" t="s">
+      <c r="M43" s="11" t="s">
         <v>253</v>
       </c>
-      <c r="N43" s="3" t="s">
+      <c r="N43" s="11" t="s">
         <v>254</v>
       </c>
-      <c r="O43" s="3" t="s">
+      <c r="O43" s="11" t="s">
         <v>248</v>
       </c>
-      <c r="P43" s="3" t="s">
+      <c r="P43" s="11" t="s">
         <v>249</v>
       </c>
       <c r="Q43" s="7" t="s">
         <v>279</v>
       </c>
     </row>
-    <row r="44" spans="1:17" s="5" customFormat="1" ht="16.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A44" s="3" t="s">
+    <row r="44" spans="1:17" s="2" customFormat="1" ht="15.75" x14ac:dyDescent="0.2">
+      <c r="A44" s="6" t="s">
         <v>19</v>
       </c>
-      <c r="B44" s="3" t="s">
+      <c r="B44" s="6" t="s">
         <v>255</v>
       </c>
-      <c r="C44" s="3"/>
-      <c r="D44" s="3"/>
-      <c r="E44" s="3"/>
-      <c r="F44" s="3"/>
-      <c r="G44" s="3" t="s">
+      <c r="C44" s="11"/>
+      <c r="D44" s="11"/>
+      <c r="E44" s="11"/>
+      <c r="F44" s="11"/>
+      <c r="G44" s="11" t="s">
         <v>256</v>
       </c>
-      <c r="H44" s="3" t="s">
+      <c r="H44" s="11" t="s">
         <v>257</v>
       </c>
-      <c r="I44" s="3"/>
-      <c r="J44" s="3" t="s">
+      <c r="I44" s="11"/>
+      <c r="J44" s="11" t="s">
         <v>258</v>
       </c>
-      <c r="K44" s="3" t="s">
+      <c r="K44" s="11" t="s">
         <v>259</v>
       </c>
-      <c r="L44" s="3" t="s">
+      <c r="L44" s="11" t="s">
         <v>260</v>
       </c>
-      <c r="M44" s="3" t="s">
+      <c r="M44" s="11" t="s">
         <v>261</v>
       </c>
-      <c r="N44" s="3" t="s">
+      <c r="N44" s="11" t="s">
         <v>262</v>
       </c>
-      <c r="O44" s="3" t="s">
+      <c r="O44" s="11" t="s">
         <v>256</v>
       </c>
-      <c r="P44" s="3" t="s">
+      <c r="P44" s="11" t="s">
         <v>257</v>
       </c>
       <c r="Q44" s="7" t="s">
         <v>279</v>
       </c>
     </row>
-    <row r="45" spans="1:17" s="5" customFormat="1" ht="16.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A45" s="3" t="s">
+    <row r="45" spans="1:17" s="2" customFormat="1" ht="15.75" x14ac:dyDescent="0.2">
+      <c r="A45" s="6" t="s">
         <v>19</v>
       </c>
-      <c r="B45" s="3" t="s">
+      <c r="B45" s="6" t="s">
         <v>263</v>
       </c>
-      <c r="C45" s="3"/>
-      <c r="D45" s="3"/>
-      <c r="E45" s="3"/>
-      <c r="F45" s="3"/>
-      <c r="G45" s="3" t="s">
+      <c r="C45" s="11"/>
+      <c r="D45" s="11"/>
+      <c r="E45" s="11"/>
+      <c r="F45" s="11"/>
+      <c r="G45" s="11" t="s">
         <v>264</v>
       </c>
-      <c r="H45" s="3" t="s">
+      <c r="H45" s="11" t="s">
         <v>265</v>
       </c>
-      <c r="I45" s="3"/>
-      <c r="J45" s="3" t="s">
+      <c r="I45" s="11"/>
+      <c r="J45" s="11" t="s">
         <v>266</v>
       </c>
-      <c r="K45" s="3" t="s">
+      <c r="K45" s="11" t="s">
         <v>267</v>
       </c>
-      <c r="L45" s="3" t="s">
+      <c r="L45" s="11" t="s">
         <v>268</v>
       </c>
-      <c r="M45" s="3" t="s">
+      <c r="M45" s="11" t="s">
         <v>269</v>
       </c>
-      <c r="N45" s="3" t="s">
+      <c r="N45" s="11" t="s">
         <v>270</v>
       </c>
-      <c r="O45" s="3" t="s">
+      <c r="O45" s="11" t="s">
         <v>264</v>
       </c>
-      <c r="P45" s="3" t="s">
+      <c r="P45" s="11" t="s">
         <v>265</v>
       </c>
       <c r="Q45" s="7" t="s">
@@ -3161,19 +3197,27 @@
       </c>
     </row>
   </sheetData>
-  <mergeCells count="11">
+  <mergeCells count="13">
     <mergeCell ref="Q2:Q4"/>
     <mergeCell ref="K3:L3"/>
     <mergeCell ref="M3:N3"/>
     <mergeCell ref="O3:P3"/>
     <mergeCell ref="K2:P2"/>
-    <mergeCell ref="A1:P1"/>
     <mergeCell ref="C2:H2"/>
     <mergeCell ref="C3:D3"/>
     <mergeCell ref="E3:F3"/>
     <mergeCell ref="G3:H3"/>
     <mergeCell ref="I2:J3"/>
+    <mergeCell ref="A2:A4"/>
+    <mergeCell ref="B2:B4"/>
+    <mergeCell ref="A1:Q1"/>
   </mergeCells>
+  <dataValidations count="1">
+    <dataValidation type="decimal" operator="greaterThanOrEqual" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Lỗi định dạng giá trị" error="Giá trị vừa nhập có định dạng không hợp lệ" sqref="C5:P1048576" xr:uid="{F247A973-C862-4C08-8082-BEF7C6830E00}">
+      <formula1>0</formula1>
+    </dataValidation>
+  </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId1"/>
 </worksheet>
 </file>